--- a/docs/convolutional-neural-net.xlsx
+++ b/docs/convolutional-neural-net.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iandurbach/Dropbox/teaching/STA_dscifi/datasci-fi-pub/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0988C6-1107-3043-9F9F-8453039D092C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="0" windowWidth="23440" windowHeight="12900"/>
+    <workbookView xWindow="2160" yWindow="460" windowWidth="23440" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="11" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <sheet name="4" sheetId="9" r:id="rId8"/>
     <sheet name="7" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -104,12 +110,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,43 +1075,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="79.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20">
+    <row r="1" spans="1:2" ht="21">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1"/>
-    <row r="6" spans="1:2" ht="29" thickBot="1">
+    <row r="5" spans="1:2" ht="16" thickBot="1"/>
+    <row r="6" spans="1:2" ht="33" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1121,13 +1127,13 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" ht="16" thickBot="1">
+    <row r="9" spans="1:2" ht="17" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:2" ht="43" thickBot="1">
+    <row r="10" spans="1:2" ht="49" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29" thickBot="1">
+    <row r="11" spans="1:2" ht="33" thickBot="1">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" thickBot="1">
+    <row r="12" spans="1:2" ht="33" thickBot="1">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
@@ -1162,15 +1168,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:CK57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:CJ57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BO10" sqref="BO10"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="BM5" sqref="BM5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="28" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" customWidth="1"/>
@@ -1178,10 +1184,10 @@
     <col min="34" max="59" width="2.6640625" customWidth="1"/>
     <col min="60" max="60" width="3.6640625" customWidth="1"/>
     <col min="61" max="64" width="4.33203125" customWidth="1"/>
-    <col min="65" max="89" width="3.1640625" customWidth="1"/>
+    <col min="65" max="88" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89">
+    <row r="1" spans="1:88">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:89">
+    <row r="2" spans="1:88">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:89">
+    <row r="3" spans="1:88">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:89">
+    <row r="4" spans="1:88">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1753,12 +1759,8 @@
         <f t="array" ref="CJ4">SUM(BE3:BG5*$BI$11:$BK$13)+SUM(BE32:BG34*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK4">
-        <f t="array" ref="CK4">SUM(BF3:BH5*$BI$11:$BK$13)+SUM(BF32:BH34*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:89">
+    <row r="5" spans="1:88">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2043,12 +2045,8 @@
         <f t="array" ref="CJ5">SUM(BE4:BG6*$BI$11:$BK$13)+SUM(BE33:BG35*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK5">
-        <f t="array" ref="CK5">SUM(BF4:BH6*$BI$11:$BK$13)+SUM(BF33:BH35*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:89">
+    <row r="6" spans="1:88">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2333,12 +2331,8 @@
         <f t="array" ref="CJ6">SUM(BE5:BG7*$BI$11:$BK$13)+SUM(BE34:BG36*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK6">
-        <f t="array" ref="CK6">SUM(BF5:BH7*$BI$11:$BK$13)+SUM(BF34:BH36*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:89">
+    <row r="7" spans="1:88">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2623,12 +2617,8 @@
         <f t="array" ref="CJ7">SUM(BE6:BG8*$BI$11:$BK$13)+SUM(BE35:BG37*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK7">
-        <f t="array" ref="CK7">SUM(BF6:BH8*$BI$11:$BK$13)+SUM(BF35:BH37*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:89">
+    <row r="8" spans="1:88">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2913,12 +2903,8 @@
         <f t="array" ref="CJ8">SUM(BE7:BG9*$BI$11:$BK$13)+SUM(BE36:BG38*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK8">
-        <f t="array" ref="CK8">SUM(BF7:BH9*$BI$11:$BK$13)+SUM(BF36:BH38*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:89">
+    <row r="9" spans="1:88">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -3209,12 +3195,8 @@
         <f t="array" ref="CJ9">SUM(BE8:BG10*$BI$11:$BK$13)+SUM(BE37:BG39*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK9">
-        <f t="array" ref="CK9">SUM(BF8:BH10*$BI$11:$BK$13)+SUM(BF37:BH39*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:89">
+    <row r="10" spans="1:88">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -3499,12 +3481,8 @@
         <f t="array" ref="CJ10">SUM(BE9:BG11*$BI$11:$BK$13)+SUM(BE38:BG40*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK10">
-        <f t="array" ref="CK10">SUM(BF9:BH11*$BI$11:$BK$13)+SUM(BF38:BH40*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:89">
+    <row r="11" spans="1:88">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -3807,12 +3785,8 @@
         <f t="array" ref="CJ11">SUM(BE10:BG12*$BI$11:$BK$13)+SUM(BE39:BG41*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK11">
-        <f t="array" ref="CK11">SUM(BF10:BH12*$BI$11:$BK$13)+SUM(BF39:BH41*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:89">
+    <row r="12" spans="1:88">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -4115,12 +4089,8 @@
         <f t="array" ref="CJ12">SUM(BE11:BG13*$BI$11:$BK$13)+SUM(BE40:BG42*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK12">
-        <f t="array" ref="CK12">SUM(BF11:BH13*$BI$11:$BK$13)+SUM(BF40:BH42*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:89">
+    <row r="13" spans="1:88">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -4423,12 +4393,8 @@
         <f t="array" ref="CJ13">SUM(BE12:BG14*$BI$11:$BK$13)+SUM(BE41:BG43*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK13">
-        <f t="array" ref="CK13">SUM(BF12:BH14*$BI$11:$BK$13)+SUM(BF41:BH43*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:89">
+    <row r="14" spans="1:88">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -4713,12 +4679,8 @@
         <f t="array" ref="CJ14">SUM(BE13:BG15*$BI$11:$BK$13)+SUM(BE42:BG44*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK14">
-        <f t="array" ref="CK14">SUM(BF13:BH15*$BI$11:$BK$13)+SUM(BF42:BH44*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:89">
+    <row r="15" spans="1:88">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -5012,12 +4974,8 @@
         <f t="array" ref="CJ15">SUM(BE14:BG16*$BI$11:$BK$13)+SUM(BE43:BG45*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK15">
-        <f t="array" ref="CK15">SUM(BF14:BH16*$BI$11:$BK$13)+SUM(BF43:BH45*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:89">
+    <row r="16" spans="1:88">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -5311,12 +5269,8 @@
         <f t="array" ref="CJ16">SUM(BE15:BG17*$BI$11:$BK$13)+SUM(BE44:BG46*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK16">
-        <f t="array" ref="CK16">SUM(BF15:BH17*$BI$11:$BK$13)+SUM(BF44:BH46*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:89">
+    <row r="17" spans="1:88">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -5610,12 +5564,8 @@
         <f t="array" ref="CJ17">SUM(BE16:BG18*$BI$11:$BK$13)+SUM(BE45:BG47*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK17">
-        <f t="array" ref="CK17">SUM(BF16:BH18*$BI$11:$BK$13)+SUM(BF45:BH47*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:89">
+    <row r="18" spans="1:88">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -5900,12 +5850,8 @@
         <f t="array" ref="CJ18">SUM(BE17:BG19*$BI$11:$BK$13)+SUM(BE46:BG48*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK18">
-        <f t="array" ref="CK18">SUM(BF17:BH19*$BI$11:$BK$13)+SUM(BF46:BH48*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:89">
+    <row r="19" spans="1:88">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -6190,12 +6136,8 @@
         <f t="array" ref="CJ19">SUM(BE18:BG20*$BI$11:$BK$13)+SUM(BE47:BG49*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK19">
-        <f t="array" ref="CK19">SUM(BF18:BH20*$BI$11:$BK$13)+SUM(BF47:BH49*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:89">
+    <row r="20" spans="1:88">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -6480,12 +6422,8 @@
         <f t="array" ref="CJ20">SUM(BE19:BG21*$BI$11:$BK$13)+SUM(BE48:BG50*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK20">
-        <f t="array" ref="CK20">SUM(BF19:BH21*$BI$11:$BK$13)+SUM(BF48:BH50*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:89">
+    <row r="21" spans="1:88">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -6770,12 +6708,8 @@
         <f t="array" ref="CJ21">SUM(BE20:BG22*$BI$11:$BK$13)+SUM(BE49:BG51*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK21">
-        <f t="array" ref="CK21">SUM(BF20:BH22*$BI$11:$BK$13)+SUM(BF49:BH51*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:89">
+    <row r="22" spans="1:88">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -7060,12 +6994,8 @@
         <f t="array" ref="CJ22">SUM(BE21:BG23*$BI$11:$BK$13)+SUM(BE50:BG52*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK22">
-        <f t="array" ref="CK22">SUM(BF21:BH23*$BI$11:$BK$13)+SUM(BF50:BH52*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:89">
+    <row r="23" spans="1:88">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -7350,12 +7280,8 @@
         <f t="array" ref="CJ23">SUM(BE22:BG24*$BI$11:$BK$13)+SUM(BE51:BG53*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK23">
-        <f t="array" ref="CK23">SUM(BF22:BH24*$BI$11:$BK$13)+SUM(BF51:BH53*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:89">
+    <row r="24" spans="1:88">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -7640,12 +7566,8 @@
         <f t="array" ref="CJ24">SUM(BE23:BG25*$BI$11:$BK$13)+SUM(BE52:BG54*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK24">
-        <f t="array" ref="CK24">SUM(BF23:BH25*$BI$11:$BK$13)+SUM(BF52:BH54*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:89">
+    <row r="25" spans="1:88">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -7930,12 +7852,8 @@
         <f t="array" ref="CJ25">SUM(BE24:BG26*$BI$11:$BK$13)+SUM(BE53:BG55*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK25">
-        <f t="array" ref="CK25">SUM(BF24:BH26*$BI$11:$BK$13)+SUM(BF53:BH55*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:89">
+    <row r="26" spans="1:88">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -8220,12 +8138,8 @@
         <f t="array" ref="CJ26">SUM(BE25:BG27*$BI$11:$BK$13)+SUM(BE54:BG56*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK26">
-        <f t="array" ref="CK26">SUM(BF25:BH27*$BI$11:$BK$13)+SUM(BF54:BH56*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:89">
+    <row r="27" spans="1:88">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -8510,12 +8424,8 @@
         <f t="array" ref="CJ27">SUM(BE26:BG28*$BI$11:$BK$13)+SUM(BE55:BG57*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK27">
-        <f t="array" ref="CK27">SUM(BF26:BH28*$BI$11:$BK$13)+SUM(BF55:BH57*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:89">
+    <row r="28" spans="1:88">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -8705,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:89">
+    <row r="29" spans="1:88">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -8791,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:89">
+    <row r="30" spans="1:88">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8821,7 +8731,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="32" spans="1:89">
+    <row r="32" spans="1:88">
       <c r="AH32">
         <f t="array" ref="AH32">SUM(A2:C4*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8927,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="30:89">
+    <row r="33" spans="30:88">
       <c r="AH33">
         <f t="array" ref="AH33">SUM(A3:C5*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -9128,12 +9038,8 @@
         <f t="array" ref="CJ33">SUM(BE3:BG5*$BI$38:$BK$40)+SUM(BE32:BG34*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK33">
-        <f t="array" ref="CK33">SUM(BF3:BH5*$BI$38:$BK$40)+SUM(BF32:BH34*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="30:89">
+    <row r="34" spans="30:88">
       <c r="AH34">
         <f t="array" ref="AH34">SUM(A4:C6*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -9334,12 +9240,8 @@
         <f t="array" ref="CJ34">SUM(BE4:BG6*$BI$38:$BK$40)+SUM(BE33:BG35*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK34">
-        <f t="array" ref="CK34">SUM(BF4:BH6*$BI$38:$BK$40)+SUM(BF33:BH35*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="30:89">
+    <row r="35" spans="30:88">
       <c r="AH35">
         <f t="array" ref="AH35">SUM(A5:C7*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -9540,12 +9442,8 @@
         <f t="array" ref="CJ35">SUM(BE5:BG7*$BI$38:$BK$40)+SUM(BE34:BG36*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK35">
-        <f t="array" ref="CK35">SUM(BF5:BH7*$BI$38:$BK$40)+SUM(BF34:BH36*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="30:89">
+    <row r="36" spans="30:88">
       <c r="AD36" s="3" t="s">
         <v>3</v>
       </c>
@@ -9752,12 +9650,8 @@
         <f t="array" ref="CJ36">SUM(BE6:BG8*$BI$38:$BK$40)+SUM(BE35:BG37*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK36">
-        <f t="array" ref="CK36">SUM(BF6:BH8*$BI$38:$BK$40)+SUM(BF35:BH37*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="30:89">
+    <row r="37" spans="30:88">
       <c r="AH37">
         <f t="array" ref="AH37">SUM(A7:C9*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -9958,12 +9852,8 @@
         <f t="array" ref="CJ37">SUM(BE7:BG9*$BI$38:$BK$40)+SUM(BE36:BG38*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK37">
-        <f t="array" ref="CK37">SUM(BF7:BH9*$BI$38:$BK$40)+SUM(BF36:BH38*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="30:89">
+    <row r="38" spans="30:88">
       <c r="AD38">
         <v>0.52650277421093949</v>
       </c>
@@ -10182,12 +10072,8 @@
         <f t="array" ref="CJ38">SUM(BE8:BG10*$BI$38:$BK$40)+SUM(BE37:BG39*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK38">
-        <f t="array" ref="CK38">SUM(BF8:BH10*$BI$38:$BK$40)+SUM(BF37:BH39*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="30:89">
+    <row r="39" spans="30:88">
       <c r="AD39">
         <v>0.67879194550467037</v>
       </c>
@@ -10406,12 +10292,8 @@
         <f t="array" ref="CJ39">SUM(BE9:BG11*$BI$38:$BK$40)+SUM(BE38:BG40*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK39">
-        <f t="array" ref="CK39">SUM(BF9:BH11*$BI$38:$BK$40)+SUM(BF38:BH40*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="30:89">
+    <row r="40" spans="30:88">
       <c r="AD40">
         <v>0.15683313231014728</v>
       </c>
@@ -10630,12 +10512,8 @@
         <f t="array" ref="CJ40">SUM(BE10:BG12*$BI$38:$BK$40)+SUM(BE39:BG41*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK40">
-        <f t="array" ref="CK40">SUM(BF10:BH12*$BI$38:$BK$40)+SUM(BF39:BH41*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="30:89">
+    <row r="41" spans="30:88">
       <c r="AH41">
         <f t="array" ref="AH41">SUM(A11:C13*$AD$38:$AF$40)</f>
         <v>1.3541230284115331</v>
@@ -10836,12 +10714,8 @@
         <f t="array" ref="CJ41">SUM(BE11:BG13*$BI$38:$BK$40)+SUM(BE40:BG42*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK41">
-        <f t="array" ref="CK41">SUM(BF11:BH13*$BI$38:$BK$40)+SUM(BF40:BH42*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="30:89">
+    <row r="42" spans="30:88">
       <c r="AH42">
         <f t="array" ref="AH42">SUM(A12:C14*$AD$38:$AF$40)</f>
         <v>0.81492150426237664</v>
@@ -11051,12 +10925,8 @@
         <f t="array" ref="CJ42">SUM(BE12:BG14*$BI$38:$BK$40)+SUM(BE41:BG43*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK42">
-        <f t="array" ref="CK42">SUM(BF12:BH14*$BI$38:$BK$40)+SUM(BF41:BH43*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="30:89">
+    <row r="43" spans="30:88">
       <c r="AH43">
         <f t="array" ref="AH43">SUM(A13:C15*$AD$38:$AF$40)</f>
         <v>0.11468953936637652</v>
@@ -11266,12 +11136,8 @@
         <f t="array" ref="CJ43">SUM(BE13:BG15*$BI$38:$BK$40)+SUM(BE42:BG44*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK43">
-        <f t="array" ref="CK43">SUM(BF13:BH15*$BI$38:$BK$40)+SUM(BF42:BH44*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="30:89">
+    <row r="44" spans="30:88">
       <c r="AH44">
         <f t="array" ref="AH44">SUM(A14:C16*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -11481,12 +11347,8 @@
         <f t="array" ref="CJ44">SUM(BE14:BG16*$BI$38:$BK$40)+SUM(BE43:BG45*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK44">
-        <f t="array" ref="CK44">SUM(BF14:BH16*$BI$38:$BK$40)+SUM(BF43:BH45*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="30:89">
+    <row r="45" spans="30:88">
       <c r="AH45">
         <f t="array" ref="AH45">SUM(A15:C17*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -11687,12 +11549,8 @@
         <f t="array" ref="CJ45">SUM(BE15:BG17*$BI$38:$BK$40)+SUM(BE44:BG46*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK45">
-        <f t="array" ref="CK45">SUM(BF15:BH17*$BI$38:$BK$40)+SUM(BF44:BH46*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="30:89">
+    <row r="46" spans="30:88">
       <c r="AH46">
         <f t="array" ref="AH46">SUM(A16:C18*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -11893,12 +11751,8 @@
         <f t="array" ref="CJ46">SUM(BE16:BG18*$BI$38:$BK$40)+SUM(BE45:BG47*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK46">
-        <f t="array" ref="CK46">SUM(BF16:BH18*$BI$38:$BK$40)+SUM(BF45:BH47*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="30:89">
+    <row r="47" spans="30:88">
       <c r="AH47">
         <f t="array" ref="AH47">SUM(A17:C19*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -12099,12 +11953,8 @@
         <f t="array" ref="CJ47">SUM(BE17:BG19*$BI$38:$BK$40)+SUM(BE46:BG48*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK47">
-        <f t="array" ref="CK47">SUM(BF17:BH19*$BI$38:$BK$40)+SUM(BF46:BH48*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="30:89">
+    <row r="48" spans="30:88">
       <c r="AH48">
         <f t="array" ref="AH48">SUM(A18:C20*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -12305,12 +12155,8 @@
         <f t="array" ref="CJ48">SUM(BE18:BG20*$BI$38:$BK$40)+SUM(BE47:BG49*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK48">
-        <f t="array" ref="CK48">SUM(BF18:BH20*$BI$38:$BK$40)+SUM(BF47:BH49*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="34:89">
+    <row r="49" spans="34:88">
       <c r="AH49">
         <f t="array" ref="AH49">SUM(A19:C21*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -12511,12 +12357,8 @@
         <f t="array" ref="CJ49">SUM(BE19:BG21*$BI$38:$BK$40)+SUM(BE48:BG50*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK49">
-        <f t="array" ref="CK49">SUM(BF19:BH21*$BI$38:$BK$40)+SUM(BF48:BH50*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="34:89">
+    <row r="50" spans="34:88">
       <c r="AH50">
         <f t="array" ref="AH50">SUM(A20:C22*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -12717,12 +12559,8 @@
         <f t="array" ref="CJ50">SUM(BE20:BG22*$BI$38:$BK$40)+SUM(BE49:BG51*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK50">
-        <f t="array" ref="CK50">SUM(BF20:BH22*$BI$38:$BK$40)+SUM(BF49:BH51*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="34:89">
+    <row r="51" spans="34:88">
       <c r="AH51">
         <f t="array" ref="AH51">SUM(A21:C23*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -12923,12 +12761,8 @@
         <f t="array" ref="CJ51">SUM(BE21:BG23*$BI$38:$BK$40)+SUM(BE50:BG52*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK51">
-        <f t="array" ref="CK51">SUM(BF21:BH23*$BI$38:$BK$40)+SUM(BF50:BH52*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="34:89">
+    <row r="52" spans="34:88">
       <c r="AH52">
         <f t="array" ref="AH52">SUM(A22:C24*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13129,12 +12963,8 @@
         <f t="array" ref="CJ52">SUM(BE22:BG24*$BI$38:$BK$40)+SUM(BE51:BG53*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK52">
-        <f t="array" ref="CK52">SUM(BF22:BH24*$BI$38:$BK$40)+SUM(BF51:BH53*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="34:89">
+    <row r="53" spans="34:88">
       <c r="AH53">
         <f t="array" ref="AH53">SUM(A23:C25*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13335,12 +13165,8 @@
         <f t="array" ref="CJ53">SUM(BE23:BG25*$BI$38:$BK$40)+SUM(BE52:BG54*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK53">
-        <f t="array" ref="CK53">SUM(BF23:BH25*$BI$38:$BK$40)+SUM(BF52:BH54*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="34:89">
+    <row r="54" spans="34:88">
       <c r="AH54">
         <f t="array" ref="AH54">SUM(A24:C26*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13541,12 +13367,8 @@
         <f t="array" ref="CJ54">SUM(BE24:BG26*$BI$38:$BK$40)+SUM(BE53:BG55*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK54">
-        <f t="array" ref="CK54">SUM(BF24:BH26*$BI$38:$BK$40)+SUM(BF53:BH55*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="34:89">
+    <row r="55" spans="34:88">
       <c r="AH55">
         <f t="array" ref="AH55">SUM(A25:C27*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13747,12 +13569,8 @@
         <f t="array" ref="CJ55">SUM(BE25:BG27*$BI$38:$BK$40)+SUM(BE54:BG56*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK55">
-        <f t="array" ref="CK55">SUM(BF25:BH27*$BI$38:$BK$40)+SUM(BF54:BH56*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="34:89">
+    <row r="56" spans="34:88">
       <c r="AH56">
         <f t="array" ref="AH56">SUM(A26:C28*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -13953,12 +13771,8 @@
         <f t="array" ref="CJ56">SUM(BE26:BG28*$BI$38:$BK$40)+SUM(BE55:BG57*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK56">
-        <f t="array" ref="CK56">SUM(BF26:BH28*$BI$38:$BK$40)+SUM(BF55:BH57*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="34:89">
+    <row r="57" spans="34:88">
       <c r="AH57">
         <f t="array" ref="AH57">SUM(A27:C29*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -14095,8 +13909,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM33:CK56 BM4:CK27">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="BM33:CJ56 BM4:CJ27">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14116,29 +13930,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AV56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="25" width="3.1640625" customWidth="1"/>
-    <col min="27" max="51" width="2.83203125" customWidth="1"/>
-    <col min="52" max="53" width="4.1640625" customWidth="1"/>
+    <col min="1" max="24" width="3.1640625" customWidth="1"/>
+    <col min="26" max="49" width="2.83203125" customWidth="1"/>
+    <col min="50" max="51" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:48">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:48">
       <c r="A4">
         <v>0</v>
       </c>
@@ -14211,63 +14025,56 @@
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
+      <c r="Z4">
         <f>MAX(A4:B5)</f>
         <v>0</v>
       </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4:AY4" si="0">MAX(C4:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <f t="shared" si="0"/>
+      <c r="AB4">
+        <f>MAX(C4:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f>MAX(E4:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f>MAX(G4:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>MAX(I4:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f>MAX(K4:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f>MAX(M4:N5)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>MAX(O4:P5)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f>MAX(Q4:R5)</f>
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <f>MAX(S4:T5)</f>
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <f>MAX(U4:V5)</f>
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <f>MAX(W4:X5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:48">
       <c r="A5">
         <v>0</v>
       </c>
@@ -14340,11 +14147,8 @@
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:48">
       <c r="A6">
         <v>0</v>
       </c>
@@ -14417,63 +14221,56 @@
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" ref="AA6:AA26" si="1">MAX(A6:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" ref="AC6:AC26" si="2">MAX(C6:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" ref="AE6:AE26" si="3">MAX(E6:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" ref="AG6:AG26" si="4">MAX(G6:H7)</f>
+      <c r="Z6">
+        <f>MAX(A6:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f>MAX(C6:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f>MAX(E6:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>MAX(G6:H7)</f>
         <v>0.43168500558315326</v>
       </c>
-      <c r="AI6">
-        <f t="shared" ref="AI6:AI26" si="5">MAX(I6:J7)</f>
+      <c r="AH6">
+        <f>MAX(I6:J7)</f>
         <v>1.4317042774867599</v>
       </c>
-      <c r="AK6">
-        <f t="shared" ref="AK6:AK26" si="6">MAX(K6:L7)</f>
+      <c r="AJ6">
+        <f>MAX(K6:L7)</f>
         <v>1.7146196218152143</v>
       </c>
-      <c r="AM6">
-        <f t="shared" ref="AM6:AM26" si="7">MAX(M6:N7)</f>
+      <c r="AL6">
+        <f>MAX(M6:N7)</f>
         <v>1.4325579761954466</v>
       </c>
-      <c r="AO6">
-        <f t="shared" ref="AO6:AO26" si="8">MAX(O6:P7)</f>
+      <c r="AN6">
+        <f>MAX(O6:P7)</f>
         <v>0.36716499482735165</v>
       </c>
-      <c r="AQ6">
-        <f t="shared" ref="AQ6:AQ26" si="9">MAX(Q6:R7)</f>
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <f t="shared" ref="AS6:AS26" si="10">MAX(S6:T7)</f>
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU26" si="11">MAX(U6:V7)</f>
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" ref="AW6:AW26" si="12">MAX(W6:X7)</f>
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <f t="shared" ref="AY6:AY26" si="13">MAX(Y6:Z7)</f>
+      <c r="AP6">
+        <f>MAX(Q6:R7)</f>
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <f>MAX(S6:T7)</f>
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <f>MAX(U6:V7)</f>
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <f>MAX(W6:X7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:48">
       <c r="A7">
         <v>0</v>
       </c>
@@ -14546,11 +14343,8 @@
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:48">
       <c r="A8">
         <v>1.0090450204523707</v>
       </c>
@@ -14623,63 +14417,56 @@
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" ref="AA8:AA28" si="14">MAX(A8:B9)</f>
+      <c r="Z8">
+        <f>MAX(A8:B9)</f>
         <v>7.9484743012059162</v>
       </c>
-      <c r="AC8">
-        <f t="shared" ref="AC8:AC28" si="15">MAX(C8:D9)</f>
+      <c r="AB8">
+        <f>MAX(C8:D9)</f>
         <v>13.201792571505241</v>
       </c>
-      <c r="AE8">
-        <f t="shared" ref="AE8:AE28" si="16">MAX(E8:F9)</f>
+      <c r="AD8">
+        <f>MAX(E8:F9)</f>
         <v>14.64848943162788</v>
       </c>
-      <c r="AG8">
-        <f t="shared" ref="AG8:AG28" si="17">MAX(G8:H9)</f>
+      <c r="AF8">
+        <f>MAX(G8:H9)</f>
         <v>15.533425943201657</v>
       </c>
-      <c r="AI8">
-        <f t="shared" ref="AI8:AI28" si="18">MAX(I8:J9)</f>
+      <c r="AH8">
+        <f>MAX(I8:J9)</f>
         <v>18.85304409041056</v>
       </c>
-      <c r="AK8">
-        <f t="shared" ref="AK8:AK28" si="19">MAX(K8:L9)</f>
+      <c r="AJ8">
+        <f>MAX(K8:L9)</f>
         <v>20.578869120233456</v>
       </c>
-      <c r="AM8">
-        <f t="shared" ref="AM8:AM28" si="20">MAX(M8:N9)</f>
+      <c r="AL8">
+        <f>MAX(M8:N9)</f>
         <v>20.094276346011512</v>
       </c>
-      <c r="AO8">
-        <f t="shared" ref="AO8:AO28" si="21">MAX(O8:P9)</f>
+      <c r="AN8">
+        <f>MAX(O8:P9)</f>
         <v>14.849284613462824</v>
       </c>
-      <c r="AQ8">
-        <f t="shared" ref="AQ8:AQ28" si="22">MAX(Q8:R9)</f>
+      <c r="AP8">
+        <f>MAX(Q8:R9)</f>
         <v>5.3126179293429967</v>
       </c>
-      <c r="AS8">
-        <f t="shared" ref="AS8:AS28" si="23">MAX(S8:T9)</f>
+      <c r="AR8">
+        <f>MAX(S8:T9)</f>
         <v>0.55619043006317692</v>
       </c>
-      <c r="AU8">
-        <f t="shared" ref="AU8:AU28" si="24">MAX(U8:V9)</f>
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" ref="AW8:AW28" si="25">MAX(W8:X9)</f>
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" ref="AY8:AY28" si="26">MAX(Y8:Z9)</f>
+      <c r="AT8">
+        <f>MAX(U8:V9)</f>
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <f>MAX(W8:X9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:48">
       <c r="A9">
         <v>4.6240150806173599</v>
       </c>
@@ -14752,11 +14539,8 @@
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:48">
       <c r="A10">
         <v>11.225482828221564</v>
       </c>
@@ -14829,63 +14613,56 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" ref="AA10:AA30" si="27">MAX(A10:B11)</f>
+      <c r="Z10">
+        <f>MAX(A10:B11)</f>
         <v>23.714079541210168</v>
       </c>
-      <c r="AC10">
-        <f t="shared" ref="AC10:AC30" si="28">MAX(C10:D11)</f>
+      <c r="AB10">
+        <f>MAX(C10:D11)</f>
         <v>31.992729995432711</v>
       </c>
-      <c r="AE10">
-        <f t="shared" ref="AE10:AE30" si="29">MAX(E10:F11)</f>
+      <c r="AD10">
+        <f>MAX(E10:F11)</f>
         <v>33.262146378605095</v>
       </c>
-      <c r="AG10">
-        <f t="shared" ref="AG10:AG30" si="30">MAX(G10:H11)</f>
+      <c r="AF10">
+        <f>MAX(G10:H11)</f>
         <v>32.377597381340408</v>
       </c>
-      <c r="AI10">
-        <f t="shared" ref="AI10:AI30" si="31">MAX(I10:J11)</f>
+      <c r="AH10">
+        <f>MAX(I10:J11)</f>
         <v>29.929296399992197</v>
       </c>
-      <c r="AK10">
-        <f t="shared" ref="AK10:AK30" si="32">MAX(K10:L11)</f>
+      <c r="AJ10">
+        <f>MAX(K10:L11)</f>
         <v>30.845708256465596</v>
       </c>
-      <c r="AM10">
-        <f t="shared" ref="AM10:AM30" si="33">MAX(M10:N11)</f>
+      <c r="AL10">
+        <f>MAX(M10:N11)</f>
         <v>33.734237891290682</v>
       </c>
-      <c r="AO10">
-        <f t="shared" ref="AO10:AO30" si="34">MAX(O10:P11)</f>
+      <c r="AN10">
+        <f>MAX(O10:P11)</f>
         <v>34.961394918586109</v>
       </c>
-      <c r="AQ10">
-        <f t="shared" ref="AQ10:AQ30" si="35">MAX(Q10:R11)</f>
+      <c r="AP10">
+        <f>MAX(Q10:R11)</f>
         <v>25.739626771646947</v>
       </c>
-      <c r="AS10">
-        <f t="shared" ref="AS10:AS30" si="36">MAX(S10:T11)</f>
+      <c r="AR10">
+        <f>MAX(S10:T11)</f>
         <v>6.9807394930777029</v>
       </c>
-      <c r="AU10">
-        <f t="shared" ref="AU10:AU30" si="37">MAX(U10:V11)</f>
+      <c r="AT10">
+        <f>MAX(U10:V11)</f>
         <v>0.35592425660454419</v>
       </c>
-      <c r="AW10">
-        <f t="shared" ref="AW10:AW30" si="38">MAX(W10:X11)</f>
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <f t="shared" ref="AY10:AY30" si="39">MAX(Y10:Z11)</f>
+      <c r="AV10">
+        <f>MAX(W10:X11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:48">
       <c r="A11">
         <v>16.315194078660689</v>
       </c>
@@ -14958,11 +14735,8 @@
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:48">
       <c r="A12">
         <v>16.099485776787024</v>
       </c>
@@ -15035,63 +14809,56 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" ref="AA12:AA32" si="40">MAX(A12:B13)</f>
+      <c r="Z12">
+        <f>MAX(A12:B13)</f>
         <v>22.752459856817172</v>
       </c>
-      <c r="AC12">
-        <f t="shared" ref="AC12:AC32" si="41">MAX(C12:D13)</f>
+      <c r="AB12">
+        <f>MAX(C12:D13)</f>
         <v>27.883526773742801</v>
       </c>
-      <c r="AE12">
-        <f t="shared" ref="AE12:AE32" si="42">MAX(E12:F13)</f>
+      <c r="AD12">
+        <f>MAX(E12:F13)</f>
         <v>27.429026594292736</v>
       </c>
-      <c r="AG12">
-        <f t="shared" ref="AG12:AG32" si="43">MAX(G12:H13)</f>
+      <c r="AF12">
+        <f>MAX(G12:H13)</f>
         <v>25.844282430364125</v>
       </c>
-      <c r="AI12">
-        <f t="shared" ref="AI12:AI32" si="44">MAX(I12:J13)</f>
+      <c r="AH12">
+        <f>MAX(I12:J13)</f>
         <v>21.506238308458833</v>
       </c>
-      <c r="AK12">
-        <f t="shared" ref="AK12:AK32" si="45">MAX(K12:L13)</f>
+      <c r="AJ12">
+        <f>MAX(K12:L13)</f>
         <v>20.168264402501006</v>
       </c>
-      <c r="AM12">
-        <f t="shared" ref="AM12:AM32" si="46">MAX(M12:N13)</f>
+      <c r="AL12">
+        <f>MAX(M12:N13)</f>
         <v>25.845075464090151</v>
       </c>
-      <c r="AO12">
-        <f t="shared" ref="AO12:AO32" si="47">MAX(O12:P13)</f>
+      <c r="AN12">
+        <f>MAX(O12:P13)</f>
         <v>35.747427921618453</v>
       </c>
-      <c r="AQ12">
-        <f t="shared" ref="AQ12:AQ32" si="48">MAX(Q12:R13)</f>
+      <c r="AP12">
+        <f>MAX(Q12:R13)</f>
         <v>36.106115859376189</v>
       </c>
-      <c r="AS12">
-        <f t="shared" ref="AS12:AS32" si="49">MAX(S12:T13)</f>
+      <c r="AR12">
+        <f>MAX(S12:T13)</f>
         <v>21.760949687079247</v>
       </c>
-      <c r="AU12">
-        <f t="shared" ref="AU12:AU32" si="50">MAX(U12:V13)</f>
+      <c r="AT12">
+        <f>MAX(U12:V13)</f>
         <v>3.0212478731275914</v>
       </c>
-      <c r="AW12">
-        <f t="shared" ref="AW12:AW32" si="51">MAX(W12:X13)</f>
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" ref="AY12:AY32" si="52">MAX(Y12:Z13)</f>
+      <c r="AV12">
+        <f>MAX(W12:X13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:48">
       <c r="A13">
         <v>10.155747031611575</v>
       </c>
@@ -15164,11 +14931,8 @@
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:48">
       <c r="A14">
         <v>4.1807302427797177</v>
       </c>
@@ -15241,63 +15005,56 @@
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" ref="AA14:AA34" si="53">MAX(A14:B15)</f>
+      <c r="Z14">
+        <f>MAX(A14:B15)</f>
         <v>5.4240962596931936</v>
       </c>
-      <c r="AC14">
-        <f t="shared" ref="AC14:AC34" si="54">MAX(C14:D15)</f>
+      <c r="AB14">
+        <f>MAX(C14:D15)</f>
         <v>5.6225941846098522</v>
       </c>
-      <c r="AE14">
-        <f t="shared" ref="AE14:AE34" si="55">MAX(E14:F15)</f>
+      <c r="AD14">
+        <f>MAX(E14:F15)</f>
         <v>4.1399966051075801</v>
       </c>
-      <c r="AG14">
-        <f t="shared" ref="AG14:AG34" si="56">MAX(G14:H15)</f>
+      <c r="AF14">
+        <f>MAX(G14:H15)</f>
         <v>3.4565970188275896</v>
       </c>
-      <c r="AI14">
-        <f t="shared" ref="AI14:AI34" si="57">MAX(I14:J15)</f>
+      <c r="AH14">
+        <f>MAX(I14:J15)</f>
         <v>2.0034077127214793</v>
       </c>
-      <c r="AK14">
-        <f t="shared" ref="AK14:AK34" si="58">MAX(K14:L15)</f>
+      <c r="AJ14">
+        <f>MAX(K14:L15)</f>
         <v>3.8671723255821222</v>
       </c>
-      <c r="AM14">
-        <f t="shared" ref="AM14:AM34" si="59">MAX(M14:N15)</f>
+      <c r="AL14">
+        <f>MAX(M14:N15)</f>
         <v>8.0509177409678063</v>
       </c>
-      <c r="AO14">
-        <f t="shared" ref="AO14:AO34" si="60">MAX(O14:P15)</f>
+      <c r="AN14">
+        <f>MAX(O14:P15)</f>
         <v>25.401805319083856</v>
       </c>
-      <c r="AQ14">
-        <f t="shared" ref="AQ14:AQ34" si="61">MAX(Q14:R15)</f>
+      <c r="AP14">
+        <f>MAX(Q14:R15)</f>
         <v>37.481971440956414</v>
       </c>
-      <c r="AS14">
-        <f t="shared" ref="AS14:AS34" si="62">MAX(S14:T15)</f>
+      <c r="AR14">
+        <f>MAX(S14:T15)</f>
         <v>31.644193924183718</v>
       </c>
-      <c r="AU14">
-        <f t="shared" ref="AU14:AU34" si="63">MAX(U14:V15)</f>
+      <c r="AT14">
+        <f>MAX(U14:V15)</f>
         <v>7.1950479232148608</v>
       </c>
-      <c r="AW14">
-        <f t="shared" ref="AW14:AW34" si="64">MAX(W14:X15)</f>
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" ref="AY14:AY34" si="65">MAX(Y14:Z15)</f>
+      <c r="AV14">
+        <f>MAX(W14:X15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:48">
       <c r="A15">
         <v>0.56433231112935456</v>
       </c>
@@ -15370,11 +15127,8 @@
       <c r="X15">
         <v>0</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:48">
       <c r="A16">
         <v>0</v>
       </c>
@@ -15447,63 +15201,56 @@
       <c r="X16">
         <v>0</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" ref="AA16:AA36" si="66">MAX(A16:B17)</f>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" ref="AC16:AC36" si="67">MAX(C16:D17)</f>
+      <c r="Z16">
+        <f>MAX(A16:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f>MAX(C16:D17)</f>
         <v>0.16466334375405228</v>
       </c>
-      <c r="AE16">
-        <f t="shared" ref="AE16:AE36" si="68">MAX(E16:F17)</f>
+      <c r="AD16">
+        <f>MAX(E16:F17)</f>
         <v>2.5302923577011387</v>
       </c>
-      <c r="AG16">
-        <f t="shared" ref="AG16:AG36" si="69">MAX(G16:H17)</f>
+      <c r="AF16">
+        <f>MAX(G16:H17)</f>
         <v>7.7656962529954843</v>
       </c>
-      <c r="AI16">
-        <f t="shared" ref="AI16:AI36" si="70">MAX(I16:J17)</f>
+      <c r="AH16">
+        <f>MAX(I16:J17)</f>
         <v>16.523503889616826</v>
       </c>
-      <c r="AK16">
-        <f t="shared" ref="AK16:AK36" si="71">MAX(K16:L17)</f>
+      <c r="AJ16">
+        <f>MAX(K16:L17)</f>
         <v>25.291622948607692</v>
       </c>
-      <c r="AM16">
-        <f t="shared" ref="AM16:AM36" si="72">MAX(M16:N17)</f>
+      <c r="AL16">
+        <f>MAX(M16:N17)</f>
         <v>29.114634388505792</v>
       </c>
-      <c r="AO16">
-        <f t="shared" ref="AO16:AO36" si="73">MAX(O16:P17)</f>
+      <c r="AN16">
+        <f>MAX(O16:P17)</f>
         <v>36.694429328824462</v>
       </c>
-      <c r="AQ16">
-        <f t="shared" ref="AQ16:AQ36" si="74">MAX(Q16:R17)</f>
+      <c r="AP16">
+        <f>MAX(Q16:R17)</f>
         <v>42.072862718291631</v>
       </c>
-      <c r="AS16">
-        <f t="shared" ref="AS16:AS36" si="75">MAX(S16:T17)</f>
+      <c r="AR16">
+        <f>MAX(S16:T17)</f>
         <v>36.326130609666095</v>
       </c>
-      <c r="AU16">
-        <f t="shared" ref="AU16:AU36" si="76">MAX(U16:V17)</f>
+      <c r="AT16">
+        <f>MAX(U16:V17)</f>
         <v>11.270402025640575</v>
       </c>
-      <c r="AW16">
-        <f t="shared" ref="AW16:AW36" si="77">MAX(W16:X17)</f>
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" ref="AY16:AY36" si="78">MAX(Y16:Z17)</f>
+      <c r="AV16">
+        <f>MAX(W16:X17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:48">
       <c r="A17">
         <v>0</v>
       </c>
@@ -15576,11 +15323,8 @@
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:48">
       <c r="A18">
         <v>0</v>
       </c>
@@ -15653,63 +15397,56 @@
       <c r="X18">
         <v>0</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" ref="AA18:AA38" si="79">MAX(A18:B19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" ref="AC18:AC38" si="80">MAX(C18:D19)</f>
+      <c r="Z18">
+        <f>MAX(A18:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f>MAX(C18:D19)</f>
         <v>4.1947927416833135</v>
       </c>
-      <c r="AE18">
-        <f t="shared" ref="AE18:AE38" si="81">MAX(E18:F19)</f>
+      <c r="AD18">
+        <f>MAX(E18:F19)</f>
         <v>15.736880093537994</v>
       </c>
-      <c r="AG18">
-        <f t="shared" ref="AG18:AG38" si="82">MAX(G18:H19)</f>
+      <c r="AF18">
+        <f>MAX(G18:H19)</f>
         <v>25.703144340315752</v>
       </c>
-      <c r="AI18">
-        <f t="shared" ref="AI18:AI38" si="83">MAX(I18:J19)</f>
+      <c r="AH18">
+        <f>MAX(I18:J19)</f>
         <v>29.474334608255909</v>
       </c>
-      <c r="AK18">
-        <f t="shared" ref="AK18:AK38" si="84">MAX(K18:L19)</f>
+      <c r="AJ18">
+        <f>MAX(K18:L19)</f>
         <v>32.002335013862542</v>
       </c>
-      <c r="AM18">
-        <f t="shared" ref="AM18:AM38" si="85">MAX(M18:N19)</f>
+      <c r="AL18">
+        <f>MAX(M18:N19)</f>
         <v>32.991842161860077</v>
       </c>
-      <c r="AO18">
-        <f t="shared" ref="AO18:AO38" si="86">MAX(O18:P19)</f>
+      <c r="AN18">
+        <f>MAX(O18:P19)</f>
         <v>36.691275979021199</v>
       </c>
-      <c r="AQ18">
-        <f t="shared" ref="AQ18:AQ38" si="87">MAX(Q18:R19)</f>
+      <c r="AP18">
+        <f>MAX(Q18:R19)</f>
         <v>41.551651782870557</v>
       </c>
-      <c r="AS18">
-        <f t="shared" ref="AS18:AS38" si="88">MAX(S18:T19)</f>
+      <c r="AR18">
+        <f>MAX(S18:T19)</f>
         <v>36.19797267568476</v>
       </c>
-      <c r="AU18">
-        <f t="shared" ref="AU18:AU38" si="89">MAX(U18:V19)</f>
+      <c r="AT18">
+        <f>MAX(U18:V19)</f>
         <v>11.994259959892926</v>
       </c>
-      <c r="AW18">
-        <f t="shared" ref="AW18:AW38" si="90">MAX(W18:X19)</f>
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <f t="shared" ref="AY18:AY38" si="91">MAX(Y18:Z19)</f>
+      <c r="AV18">
+        <f>MAX(W18:X19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:48">
       <c r="A19">
         <v>0</v>
       </c>
@@ -15782,11 +15519,8 @@
       <c r="X19">
         <v>0</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:48">
       <c r="A20">
         <v>0</v>
       </c>
@@ -15859,63 +15593,56 @@
       <c r="X20">
         <v>0</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" ref="AA20:AA40" si="92">MAX(A20:B21)</f>
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" ref="AC20:AC40" si="93">MAX(C20:D21)</f>
+      <c r="Z20">
+        <f>MAX(A20:B21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f>MAX(C20:D21)</f>
         <v>6.4458225160269169</v>
       </c>
-      <c r="AE20">
-        <f t="shared" ref="AE20:AE40" si="94">MAX(E20:F21)</f>
+      <c r="AD20">
+        <f>MAX(E20:F21)</f>
         <v>21.368202378207961</v>
       </c>
-      <c r="AG20">
-        <f t="shared" ref="AG20:AG40" si="95">MAX(G20:H21)</f>
+      <c r="AF20">
+        <f>MAX(G20:H21)</f>
         <v>27.003016771940942</v>
       </c>
-      <c r="AI20">
-        <f t="shared" ref="AI20:AI40" si="96">MAX(I20:J21)</f>
+      <c r="AH20">
+        <f>MAX(I20:J21)</f>
         <v>25.926275696079291</v>
       </c>
-      <c r="AK20">
-        <f t="shared" ref="AK20:AK40" si="97">MAX(K20:L21)</f>
+      <c r="AJ20">
+        <f>MAX(K20:L21)</f>
         <v>20.572870321411209</v>
       </c>
-      <c r="AM20">
-        <f t="shared" ref="AM20:AM40" si="98">MAX(M20:N21)</f>
+      <c r="AL20">
+        <f>MAX(M20:N21)</f>
         <v>15.19656674837028</v>
       </c>
-      <c r="AO20">
-        <f t="shared" ref="AO20:AO40" si="99">MAX(O20:P21)</f>
+      <c r="AN20">
+        <f>MAX(O20:P21)</f>
         <v>21.970946283949917</v>
       </c>
-      <c r="AQ20">
-        <f t="shared" ref="AQ20:AQ40" si="100">MAX(Q20:R21)</f>
+      <c r="AP20">
+        <f>MAX(Q20:R21)</f>
         <v>34.691497527808991</v>
       </c>
-      <c r="AS20">
-        <f t="shared" ref="AS20:AS40" si="101">MAX(S20:T21)</f>
+      <c r="AR20">
+        <f>MAX(S20:T21)</f>
         <v>31.667127514809287</v>
       </c>
-      <c r="AU20">
-        <f t="shared" ref="AU20:AU40" si="102">MAX(U20:V21)</f>
+      <c r="AT20">
+        <f>MAX(U20:V21)</f>
         <v>8.900851800896298</v>
       </c>
-      <c r="AW20">
-        <f t="shared" ref="AW20:AW40" si="103">MAX(W20:X21)</f>
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <f t="shared" ref="AY20:AY40" si="104">MAX(Y20:Z21)</f>
+      <c r="AV20">
+        <f>MAX(W20:X21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:48">
       <c r="A21">
         <v>0</v>
       </c>
@@ -15988,11 +15715,8 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:48">
       <c r="A22">
         <v>0</v>
       </c>
@@ -16065,63 +15789,56 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" ref="AA22:AA42" si="105">MAX(A22:B23)</f>
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" ref="AC22:AC42" si="106">MAX(C22:D23)</f>
+      <c r="Z22">
+        <f>MAX(A22:B23)</f>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f>MAX(C22:D23)</f>
         <v>4.3137206055552149</v>
       </c>
-      <c r="AE22">
-        <f t="shared" ref="AE22:AE42" si="107">MAX(E22:F23)</f>
+      <c r="AD22">
+        <f>MAX(E22:F23)</f>
         <v>13.049282632549327</v>
       </c>
-      <c r="AG22">
-        <f t="shared" ref="AG22:AG42" si="108">MAX(G22:H23)</f>
+      <c r="AF22">
+        <f>MAX(G22:H23)</f>
         <v>12.565201531541929</v>
       </c>
-      <c r="AI22">
-        <f t="shared" ref="AI22:AI42" si="109">MAX(I22:J23)</f>
+      <c r="AH22">
+        <f>MAX(I22:J23)</f>
         <v>6.0225080775018744</v>
       </c>
-      <c r="AK22">
-        <f t="shared" ref="AK22:AK42" si="110">MAX(K22:L23)</f>
+      <c r="AJ22">
+        <f>MAX(K22:L23)</f>
         <v>1.9770957413661787</v>
       </c>
-      <c r="AM22">
-        <f t="shared" ref="AM22:AM42" si="111">MAX(M22:N23)</f>
+      <c r="AL22">
+        <f>MAX(M22:N23)</f>
         <v>6.759271906744317</v>
       </c>
-      <c r="AO22">
-        <f t="shared" ref="AO22:AO42" si="112">MAX(O22:P23)</f>
+      <c r="AN22">
+        <f>MAX(O22:P23)</f>
         <v>25.193329692949057</v>
       </c>
-      <c r="AQ22">
-        <f t="shared" ref="AQ22:AQ42" si="113">MAX(Q22:R23)</f>
+      <c r="AP22">
+        <f>MAX(Q22:R23)</f>
         <v>31.188199244979334</v>
       </c>
-      <c r="AS22">
-        <f t="shared" ref="AS22:AS42" si="114">MAX(S22:T23)</f>
+      <c r="AR22">
+        <f>MAX(S22:T23)</f>
         <v>24.439288996354232</v>
       </c>
-      <c r="AU22">
-        <f t="shared" ref="AU22:AU42" si="115">MAX(U22:V23)</f>
+      <c r="AT22">
+        <f>MAX(U22:V23)</f>
         <v>4.8002148218494778</v>
       </c>
-      <c r="AW22">
-        <f t="shared" ref="AW22:AW42" si="116">MAX(W22:X23)</f>
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <f t="shared" ref="AY22:AY42" si="117">MAX(Y22:Z23)</f>
+      <c r="AV22">
+        <f>MAX(W22:X23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:48">
       <c r="A23">
         <v>0</v>
       </c>
@@ -16194,11 +15911,8 @@
       <c r="X23">
         <v>0</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:48">
       <c r="A24">
         <v>0</v>
       </c>
@@ -16271,63 +15985,56 @@
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" ref="AA24:AA44" si="118">MAX(A24:B25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" ref="AC24:AC44" si="119">MAX(C24:D25)</f>
+      <c r="Z24">
+        <f>MAX(A24:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f>MAX(C24:D25)</f>
         <v>0.37839653920778699</v>
       </c>
-      <c r="AE24">
-        <f t="shared" ref="AE24:AE44" si="120">MAX(E24:F25)</f>
+      <c r="AD24">
+        <f>MAX(E24:F25)</f>
         <v>0.96597449462268536</v>
       </c>
-      <c r="AG24">
-        <f t="shared" ref="AG24:AG44" si="121">MAX(G24:H25)</f>
+      <c r="AF24">
+        <f>MAX(G24:H25)</f>
         <v>0.4918470766988724</v>
       </c>
-      <c r="AI24">
-        <f t="shared" ref="AI24:AI44" si="122">MAX(I24:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" ref="AK24:AK44" si="123">MAX(K24:L25)</f>
+      <c r="AH24">
+        <f>MAX(I24:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <f>MAX(K24:L25)</f>
         <v>1.3694688186304413</v>
       </c>
-      <c r="AM24">
-        <f t="shared" ref="AM24:AM44" si="124">MAX(M24:N25)</f>
+      <c r="AL24">
+        <f>MAX(M24:N25)</f>
         <v>15.388289086047786</v>
       </c>
-      <c r="AO24">
-        <f t="shared" ref="AO24:AO44" si="125">MAX(O24:P25)</f>
+      <c r="AN24">
+        <f>MAX(O24:P25)</f>
         <v>30.112844788046385</v>
       </c>
-      <c r="AQ24">
-        <f t="shared" ref="AQ24:AQ44" si="126">MAX(Q24:R25)</f>
+      <c r="AP24">
+        <f>MAX(Q24:R25)</f>
         <v>30.925986597684272</v>
       </c>
-      <c r="AS24">
-        <f t="shared" ref="AS24:AS44" si="127">MAX(S24:T25)</f>
+      <c r="AR24">
+        <f>MAX(S24:T25)</f>
         <v>14.124200457960978</v>
       </c>
-      <c r="AU24">
-        <f t="shared" ref="AU24:AU44" si="128">MAX(U24:V25)</f>
+      <c r="AT24">
+        <f>MAX(U24:V25)</f>
         <v>1.0754724012683909</v>
       </c>
-      <c r="AW24">
-        <f t="shared" ref="AW24:AW44" si="129">MAX(W24:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <f t="shared" ref="AY24:AY44" si="130">MAX(Y24:Z25)</f>
+      <c r="AV24">
+        <f>MAX(W24:X25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:48">
       <c r="A25">
         <v>0</v>
       </c>
@@ -16400,11 +16107,8 @@
       <c r="X25">
         <v>0</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:48">
       <c r="A26">
         <v>0</v>
       </c>
@@ -16477,63 +16181,56 @@
       <c r="X26">
         <v>0</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" ref="AA26:AA46" si="131">MAX(A26:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" ref="AC26:AC46" si="132">MAX(C26:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" ref="AE26:AE46" si="133">MAX(E26:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" ref="AG26:AG46" si="134">MAX(G26:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" ref="AI26:AI46" si="135">MAX(I26:J27)</f>
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <f t="shared" ref="AK26:AK46" si="136">MAX(K26:L27)</f>
+      <c r="Z26">
+        <f>MAX(A26:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f>MAX(C26:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f>MAX(E26:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <f>MAX(G26:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <f>MAX(I26:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <f>MAX(K26:L27)</f>
         <v>2.6864053651642088</v>
       </c>
-      <c r="AM26">
-        <f t="shared" ref="AM26:AM46" si="137">MAX(M26:N27)</f>
+      <c r="AL26">
+        <f>MAX(M26:N27)</f>
         <v>17.800323977873802</v>
       </c>
-      <c r="AO26">
-        <f t="shared" ref="AO26:AO46" si="138">MAX(O26:P27)</f>
+      <c r="AN26">
+        <f>MAX(O26:P27)</f>
         <v>26.816718874377479</v>
       </c>
-      <c r="AQ26">
-        <f t="shared" ref="AQ26:AQ46" si="139">MAX(Q26:R27)</f>
+      <c r="AP26">
+        <f>MAX(Q26:R27)</f>
         <v>21.460097064415983</v>
       </c>
-      <c r="AS26">
-        <f t="shared" ref="AS26:AS46" si="140">MAX(S26:T27)</f>
+      <c r="AR26">
+        <f>MAX(S26:T27)</f>
         <v>4.7979484206162004</v>
       </c>
-      <c r="AU26">
-        <f t="shared" ref="AU26:AU46" si="141">MAX(U26:V27)</f>
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <f t="shared" ref="AW26:AW46" si="142">MAX(W26:X27)</f>
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <f t="shared" ref="AY26:AY46" si="143">MAX(Y26:Z27)</f>
+      <c r="AT26">
+        <f>MAX(U26:V27)</f>
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <f>MAX(W26:X27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:48">
       <c r="A27">
         <v>0</v>
       </c>
@@ -16606,11 +16303,8 @@
       <c r="X27">
         <v>0</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:48">
       <c r="A33">
         <v>0</v>
       </c>
@@ -16683,63 +16377,56 @@
       <c r="X33">
         <v>0</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
+      <c r="Z33">
         <f>MAX(A33:B34)</f>
         <v>0</v>
       </c>
-      <c r="AC33">
-        <f t="shared" ref="AC33" si="144">MAX(C33:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" ref="AE33" si="145">MAX(E33:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" ref="AG33" si="146">MAX(G33:H34)</f>
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" ref="AI33" si="147">MAX(I33:J34)</f>
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <f t="shared" ref="AK33" si="148">MAX(K33:L34)</f>
-        <v>0</v>
-      </c>
-      <c r="AM33">
-        <f t="shared" ref="AM33" si="149">MAX(M33:N34)</f>
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <f t="shared" ref="AO33" si="150">MAX(O33:P34)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <f t="shared" ref="AQ33" si="151">MAX(Q33:R34)</f>
-        <v>0</v>
-      </c>
-      <c r="AS33">
-        <f t="shared" ref="AS33" si="152">MAX(S33:T34)</f>
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <f t="shared" ref="AU33" si="153">MAX(U33:V34)</f>
-        <v>0</v>
-      </c>
-      <c r="AW33">
-        <f t="shared" ref="AW33" si="154">MAX(W33:X34)</f>
-        <v>0</v>
-      </c>
-      <c r="AY33">
-        <f t="shared" ref="AY33" si="155">MAX(Y33:Z34)</f>
+      <c r="AB33">
+        <f>MAX(C33:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f>MAX(E33:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <f>MAX(G33:H34)</f>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <f>MAX(I33:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <f>MAX(K33:L34)</f>
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <f>MAX(M33:N34)</f>
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <f>MAX(O33:P34)</f>
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <f>MAX(Q33:R34)</f>
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <f>MAX(S33:T34)</f>
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <f>MAX(U33:V34)</f>
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <f>MAX(W33:X34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:48">
       <c r="A34">
         <v>0</v>
       </c>
@@ -16812,11 +16499,8 @@
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:48">
       <c r="A35">
         <v>0</v>
       </c>
@@ -16889,63 +16573,56 @@
       <c r="X35">
         <v>0</v>
       </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" ref="AA35" si="156">MAX(A35:B36)</f>
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" ref="AC35" si="157">MAX(C35:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" ref="AE35" si="158">MAX(E35:F36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" ref="AG35" si="159">MAX(G35:H36)</f>
+      <c r="Z35">
+        <f>MAX(A35:B36)</f>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f>MAX(C35:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f>MAX(E35:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <f>MAX(G35:H36)</f>
         <v>0.50831698437727213</v>
       </c>
-      <c r="AI35">
-        <f t="shared" ref="AI35" si="160">MAX(I35:J36)</f>
+      <c r="AH35">
+        <f>MAX(I35:J36)</f>
         <v>1.4711792845188807</v>
       </c>
-      <c r="AK35">
-        <f t="shared" ref="AK35" si="161">MAX(K35:L36)</f>
+      <c r="AJ35">
+        <f>MAX(K35:L36)</f>
         <v>1.8652760026791628</v>
       </c>
-      <c r="AM35">
-        <f t="shared" ref="AM35" si="162">MAX(M35:N36)</f>
+      <c r="AL35">
+        <f>MAX(M35:N36)</f>
         <v>1.5100033166476128</v>
       </c>
-      <c r="AO35">
-        <f t="shared" ref="AO35" si="163">MAX(O35:P36)</f>
+      <c r="AN35">
+        <f>MAX(O35:P36)</f>
         <v>0.4517647135076619</v>
       </c>
-      <c r="AQ35">
-        <f t="shared" ref="AQ35" si="164">MAX(Q35:R36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS35">
-        <f t="shared" ref="AS35" si="165">MAX(S35:T36)</f>
-        <v>0</v>
-      </c>
-      <c r="AU35">
-        <f t="shared" ref="AU35" si="166">MAX(U35:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="AW35">
-        <f t="shared" ref="AW35" si="167">MAX(W35:X36)</f>
-        <v>0</v>
-      </c>
-      <c r="AY35">
-        <f t="shared" ref="AY35" si="168">MAX(Y35:Z36)</f>
+      <c r="AP35">
+        <f>MAX(Q35:R36)</f>
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <f>MAX(S35:T36)</f>
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <f>MAX(U35:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <f>MAX(W35:X36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:48">
       <c r="A36">
         <v>0</v>
       </c>
@@ -17018,11 +16695,8 @@
       <c r="X36">
         <v>0</v>
       </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:48">
       <c r="A37">
         <v>1.096009502339562</v>
       </c>
@@ -17095,63 +16769,56 @@
       <c r="X37">
         <v>0</v>
       </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" ref="AA37" si="169">MAX(A37:B38)</f>
+      <c r="Z37">
+        <f>MAX(A37:B38)</f>
         <v>8.5248041681862432</v>
       </c>
-      <c r="AC37">
-        <f t="shared" ref="AC37" si="170">MAX(C37:D38)</f>
+      <c r="AB37">
+        <f>MAX(C37:D38)</f>
         <v>13.542165441633424</v>
       </c>
-      <c r="AE37">
-        <f t="shared" ref="AE37" si="171">MAX(E37:F38)</f>
+      <c r="AD37">
+        <f>MAX(E37:F38)</f>
         <v>14.828259915776112</v>
       </c>
-      <c r="AG37">
-        <f t="shared" ref="AG37" si="172">MAX(G37:H38)</f>
+      <c r="AF37">
+        <f>MAX(G37:H38)</f>
         <v>16.020988019725664</v>
       </c>
-      <c r="AI37">
-        <f t="shared" ref="AI37" si="173">MAX(I37:J38)</f>
+      <c r="AH37">
+        <f>MAX(I37:J38)</f>
         <v>19.317480242393167</v>
       </c>
-      <c r="AK37">
-        <f t="shared" ref="AK37" si="174">MAX(K37:L38)</f>
+      <c r="AJ37">
+        <f>MAX(K37:L38)</f>
         <v>20.901067441758361</v>
       </c>
-      <c r="AM37">
-        <f t="shared" ref="AM37" si="175">MAX(M37:N38)</f>
+      <c r="AL37">
+        <f>MAX(M37:N38)</f>
         <v>20.217416045079101</v>
       </c>
-      <c r="AO37">
-        <f t="shared" ref="AO37" si="176">MAX(O37:P38)</f>
+      <c r="AN37">
+        <f>MAX(O37:P38)</f>
         <v>14.44412132388663</v>
       </c>
-      <c r="AQ37">
-        <f t="shared" ref="AQ37" si="177">MAX(Q37:R38)</f>
+      <c r="AP37">
+        <f>MAX(Q37:R38)</f>
         <v>5.2613872505944599</v>
       </c>
-      <c r="AS37">
-        <f t="shared" ref="AS37" si="178">MAX(S37:T38)</f>
+      <c r="AR37">
+        <f>MAX(S37:T38)</f>
         <v>0.62794633804413991</v>
       </c>
-      <c r="AU37">
-        <f t="shared" ref="AU37" si="179">MAX(U37:V38)</f>
-        <v>0</v>
-      </c>
-      <c r="AW37">
-        <f t="shared" ref="AW37" si="180">MAX(W37:X38)</f>
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <f t="shared" ref="AY37" si="181">MAX(Y37:Z38)</f>
+      <c r="AT37">
+        <f>MAX(U37:V38)</f>
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <f>MAX(W37:X38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:48">
       <c r="A38">
         <v>5.0159040561652546</v>
       </c>
@@ -17224,11 +16891,8 @@
       <c r="X38">
         <v>0</v>
       </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:48">
       <c r="A39">
         <v>12.012366041126377</v>
       </c>
@@ -17301,63 +16965,56 @@
       <c r="X39">
         <v>0</v>
       </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" ref="AA39" si="182">MAX(A39:B40)</f>
+      <c r="Z39">
+        <f>MAX(A39:B40)</f>
         <v>24.737202228639759</v>
       </c>
-      <c r="AC39">
-        <f t="shared" ref="AC39" si="183">MAX(C39:D40)</f>
+      <c r="AB39">
+        <f>MAX(C39:D40)</f>
         <v>32.256323265313142</v>
       </c>
-      <c r="AE39">
-        <f t="shared" ref="AE39" si="184">MAX(E39:F40)</f>
+      <c r="AD39">
+        <f>MAX(E39:F40)</f>
         <v>32.92067947286926</v>
       </c>
-      <c r="AG39">
-        <f t="shared" ref="AG39" si="185">MAX(G39:H40)</f>
+      <c r="AF39">
+        <f>MAX(G39:H40)</f>
         <v>31.898807344728542</v>
       </c>
-      <c r="AI39">
-        <f t="shared" ref="AI39" si="186">MAX(I39:J40)</f>
+      <c r="AH39">
+        <f>MAX(I39:J40)</f>
         <v>29.796393812044766</v>
       </c>
-      <c r="AK39">
-        <f t="shared" ref="AK39" si="187">MAX(K39:L40)</f>
+      <c r="AJ39">
+        <f>MAX(K39:L40)</f>
         <v>31.049747018120982</v>
       </c>
-      <c r="AM39">
-        <f t="shared" ref="AM39" si="188">MAX(M39:N40)</f>
+      <c r="AL39">
+        <f>MAX(M39:N40)</f>
         <v>33.569751681031505</v>
       </c>
-      <c r="AO39">
-        <f t="shared" ref="AO39" si="189">MAX(O39:P40)</f>
+      <c r="AN39">
+        <f>MAX(O39:P40)</f>
         <v>34.141589310174325</v>
       </c>
-      <c r="AQ39">
-        <f t="shared" ref="AQ39" si="190">MAX(Q39:R40)</f>
+      <c r="AP39">
+        <f>MAX(Q39:R40)</f>
         <v>24.298892572495994</v>
       </c>
-      <c r="AS39">
-        <f t="shared" ref="AS39" si="191">MAX(S39:T40)</f>
+      <c r="AR39">
+        <f>MAX(S39:T40)</f>
         <v>6.7354735415357396</v>
       </c>
-      <c r="AU39">
-        <f t="shared" ref="AU39" si="192">MAX(U39:V40)</f>
+      <c r="AT39">
+        <f>MAX(U39:V40)</f>
         <v>0.38628791996680112</v>
       </c>
-      <c r="AW39">
-        <f t="shared" ref="AW39" si="193">MAX(W39:X40)</f>
-        <v>0</v>
-      </c>
-      <c r="AY39">
-        <f t="shared" ref="AY39" si="194">MAX(Y39:Z40)</f>
+      <c r="AV39">
+        <f>MAX(W39:X40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:48">
       <c r="A40">
         <v>17.438220499868045</v>
       </c>
@@ -17430,11 +17087,8 @@
       <c r="X40">
         <v>0</v>
       </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:48">
       <c r="A41">
         <v>17.193110859555073</v>
       </c>
@@ -17507,63 +17161,56 @@
       <c r="X41">
         <v>0</v>
       </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" ref="AA41" si="195">MAX(A41:B42)</f>
+      <c r="Z41">
+        <f>MAX(A41:B42)</f>
         <v>23.404997353542512</v>
       </c>
-      <c r="AC41">
-        <f t="shared" ref="AC41" si="196">MAX(C41:D42)</f>
+      <c r="AB41">
+        <f>MAX(C41:D42)</f>
         <v>27.183423252520331</v>
       </c>
-      <c r="AE41">
-        <f t="shared" ref="AE41" si="197">MAX(E41:F42)</f>
+      <c r="AD41">
+        <f>MAX(E41:F42)</f>
         <v>26.604307701710106</v>
       </c>
-      <c r="AG41">
-        <f t="shared" ref="AG41" si="198">MAX(G41:H42)</f>
+      <c r="AF41">
+        <f>MAX(G41:H42)</f>
         <v>24.427916988743082</v>
       </c>
-      <c r="AI41">
-        <f t="shared" ref="AI41" si="199">MAX(I41:J42)</f>
+      <c r="AH41">
+        <f>MAX(I41:J42)</f>
         <v>20.024906794823913</v>
       </c>
-      <c r="AK41">
-        <f t="shared" ref="AK41" si="200">MAX(K41:L42)</f>
+      <c r="AJ41">
+        <f>MAX(K41:L42)</f>
         <v>18.910126588015519</v>
       </c>
-      <c r="AM41">
-        <f t="shared" ref="AM41" si="201">MAX(M41:N42)</f>
+      <c r="AL41">
+        <f>MAX(M41:N42)</f>
         <v>25.465764063883974</v>
       </c>
-      <c r="AO41">
-        <f t="shared" ref="AO41" si="202">MAX(O41:P42)</f>
+      <c r="AN41">
+        <f>MAX(O41:P42)</f>
         <v>34.475986631095651</v>
       </c>
-      <c r="AQ41">
-        <f t="shared" ref="AQ41" si="203">MAX(Q41:R42)</f>
+      <c r="AP41">
+        <f>MAX(Q41:R42)</f>
         <v>34.627667864916745</v>
       </c>
-      <c r="AS41">
-        <f t="shared" ref="AS41" si="204">MAX(S41:T42)</f>
+      <c r="AR41">
+        <f>MAX(S41:T42)</f>
         <v>19.973172801015078</v>
       </c>
-      <c r="AU41">
-        <f t="shared" ref="AU41" si="205">MAX(U41:V42)</f>
+      <c r="AT41">
+        <f>MAX(U41:V42)</f>
         <v>2.8870572057944424</v>
       </c>
-      <c r="AW41">
-        <f t="shared" ref="AW41" si="206">MAX(W41:X42)</f>
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <f t="shared" ref="AY41" si="207">MAX(Y41:Z42)</f>
+      <c r="AV41">
+        <f>MAX(W41:X42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:48">
       <c r="A42">
         <v>10.40272527151031</v>
       </c>
@@ -17636,11 +17283,8 @@
       <c r="X42">
         <v>0</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:48">
       <c r="A43">
         <v>4.0257344948502869</v>
       </c>
@@ -17713,63 +17357,56 @@
       <c r="X43">
         <v>0</v>
       </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <f t="shared" ref="AA43" si="208">MAX(A43:B44)</f>
+      <c r="Z43">
+        <f>MAX(A43:B44)</f>
         <v>4.9362975372505007</v>
       </c>
-      <c r="AC43">
-        <f t="shared" ref="AC43" si="209">MAX(C43:D44)</f>
+      <c r="AB43">
+        <f>MAX(C43:D44)</f>
         <v>4.6085400578132933</v>
       </c>
-      <c r="AE43">
-        <f t="shared" ref="AE43" si="210">MAX(E43:F44)</f>
+      <c r="AD43">
+        <f>MAX(E43:F44)</f>
         <v>3.4349377363893501</v>
       </c>
-      <c r="AG43">
-        <f t="shared" ref="AG43" si="211">MAX(G43:H44)</f>
+      <c r="AF43">
+        <f>MAX(G43:H44)</f>
         <v>2.658593324704281</v>
       </c>
-      <c r="AI43">
-        <f t="shared" ref="AI43" si="212">MAX(I43:J44)</f>
+      <c r="AH43">
+        <f>MAX(I43:J44)</f>
         <v>1.8521694580981223</v>
       </c>
-      <c r="AK43">
-        <f t="shared" ref="AK43" si="213">MAX(K43:L44)</f>
+      <c r="AJ43">
+        <f>MAX(K43:L44)</f>
         <v>4.0940115795742997</v>
       </c>
-      <c r="AM43">
-        <f t="shared" ref="AM43" si="214">MAX(M43:N44)</f>
+      <c r="AL43">
+        <f>MAX(M43:N44)</f>
         <v>9.3594206285015158</v>
       </c>
-      <c r="AO43">
-        <f t="shared" ref="AO43" si="215">MAX(O43:P44)</f>
+      <c r="AN43">
+        <f>MAX(O43:P44)</f>
         <v>26.829517795776592</v>
       </c>
-      <c r="AQ43">
-        <f t="shared" ref="AQ43" si="216">MAX(Q43:R44)</f>
+      <c r="AP43">
+        <f>MAX(Q43:R44)</f>
         <v>36.519021978647707</v>
       </c>
-      <c r="AS43">
-        <f t="shared" ref="AS43" si="217">MAX(S43:T44)</f>
+      <c r="AR43">
+        <f>MAX(S43:T44)</f>
         <v>29.0651365031813</v>
       </c>
-      <c r="AU43">
-        <f t="shared" ref="AU43" si="218">MAX(U43:V44)</f>
+      <c r="AT43">
+        <f>MAX(U43:V44)</f>
         <v>6.4316939772986963</v>
       </c>
-      <c r="AW43">
-        <f t="shared" ref="AW43" si="219">MAX(W43:X44)</f>
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <f t="shared" ref="AY43" si="220">MAX(Y43:Z44)</f>
+      <c r="AV43">
+        <f>MAX(W43:X44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:48">
       <c r="A44">
         <v>0.5154361688952761</v>
       </c>
@@ -17842,11 +17479,8 @@
       <c r="X44">
         <v>0</v>
       </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:48">
       <c r="A45">
         <v>0</v>
       </c>
@@ -17919,63 +17553,56 @@
       <c r="X45">
         <v>0</v>
       </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <f t="shared" ref="AA45" si="221">MAX(A45:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" ref="AC45" si="222">MAX(C45:D46)</f>
+      <c r="Z45">
+        <f>MAX(A45:B46)</f>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f>MAX(C45:D46)</f>
         <v>0.19389409697348189</v>
       </c>
-      <c r="AE45">
-        <f t="shared" ref="AE45" si="223">MAX(E45:F46)</f>
+      <c r="AD45">
+        <f>MAX(E45:F46)</f>
         <v>2.826416050278115</v>
       </c>
-      <c r="AG45">
-        <f t="shared" ref="AG45" si="224">MAX(G45:H46)</f>
+      <c r="AF45">
+        <f>MAX(G45:H46)</f>
         <v>8.4632602782974224</v>
       </c>
-      <c r="AI45">
-        <f t="shared" ref="AI45" si="225">MAX(I45:J46)</f>
+      <c r="AH45">
+        <f>MAX(I45:J46)</f>
         <v>17.611727712850708</v>
       </c>
-      <c r="AK45">
-        <f t="shared" ref="AK45" si="226">MAX(K45:L46)</f>
+      <c r="AJ45">
+        <f>MAX(K45:L46)</f>
         <v>26.226114185533813</v>
       </c>
-      <c r="AM45">
-        <f t="shared" ref="AM45" si="227">MAX(M45:N46)</f>
+      <c r="AL45">
+        <f>MAX(M45:N46)</f>
         <v>30.181989266854224</v>
       </c>
-      <c r="AO45">
-        <f t="shared" ref="AO45" si="228">MAX(O45:P46)</f>
+      <c r="AN45">
+        <f>MAX(O45:P46)</f>
         <v>37.617586070917149</v>
       </c>
-      <c r="AQ45">
-        <f t="shared" ref="AQ45" si="229">MAX(Q45:R46)</f>
+      <c r="AP45">
+        <f>MAX(Q45:R46)</f>
         <v>42.15919905255852</v>
       </c>
-      <c r="AS45">
-        <f t="shared" ref="AS45" si="230">MAX(S45:T46)</f>
+      <c r="AR45">
+        <f>MAX(S45:T46)</f>
         <v>33.614745233718978</v>
       </c>
-      <c r="AU45">
-        <f t="shared" ref="AU45" si="231">MAX(U45:V46)</f>
+      <c r="AT45">
+        <f>MAX(U45:V46)</f>
         <v>9.9605354993172632</v>
       </c>
-      <c r="AW45">
-        <f t="shared" ref="AW45" si="232">MAX(W45:X46)</f>
-        <v>0</v>
-      </c>
-      <c r="AY45">
-        <f t="shared" ref="AY45" si="233">MAX(Y45:Z46)</f>
+      <c r="AV45">
+        <f>MAX(W45:X46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:48">
       <c r="A46">
         <v>0</v>
       </c>
@@ -18048,11 +17675,8 @@
       <c r="X46">
         <v>0</v>
       </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:48">
       <c r="A47">
         <v>0</v>
       </c>
@@ -18125,63 +17749,56 @@
       <c r="X47">
         <v>0</v>
       </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <f t="shared" ref="AA47" si="234">MAX(A47:B48)</f>
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" ref="AC47" si="235">MAX(C47:D48)</f>
+      <c r="Z47">
+        <f>MAX(A47:B48)</f>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f>MAX(C47:D48)</f>
         <v>4.8671588876067222</v>
       </c>
-      <c r="AE47">
-        <f t="shared" ref="AE47" si="236">MAX(E47:F48)</f>
+      <c r="AD47">
+        <f>MAX(E47:F48)</f>
         <v>16.813851842840705</v>
       </c>
-      <c r="AG47">
-        <f t="shared" ref="AG47" si="237">MAX(G47:H48)</f>
+      <c r="AF47">
+        <f>MAX(G47:H48)</f>
         <v>26.643171277741608</v>
       </c>
-      <c r="AI47">
-        <f t="shared" ref="AI47" si="238">MAX(I47:J48)</f>
+      <c r="AH47">
+        <f>MAX(I47:J48)</f>
         <v>29.714617157701849</v>
       </c>
-      <c r="AK47">
-        <f t="shared" ref="AK47" si="239">MAX(K47:L48)</f>
+      <c r="AJ47">
+        <f>MAX(K47:L48)</f>
         <v>32.45322656806632</v>
       </c>
-      <c r="AM47">
-        <f t="shared" ref="AM47" si="240">MAX(M47:N48)</f>
+      <c r="AL47">
+        <f>MAX(M47:N48)</f>
         <v>32.924975088986976</v>
       </c>
-      <c r="AO47">
-        <f t="shared" ref="AO47" si="241">MAX(O47:P48)</f>
+      <c r="AN47">
+        <f>MAX(O47:P48)</f>
         <v>36.956170686321471</v>
       </c>
-      <c r="AQ47">
-        <f t="shared" ref="AQ47" si="242">MAX(Q47:R48)</f>
+      <c r="AP47">
+        <f>MAX(Q47:R48)</f>
         <v>41.214520599794071</v>
       </c>
-      <c r="AS47">
-        <f t="shared" ref="AS47" si="243">MAX(S47:T48)</f>
+      <c r="AR47">
+        <f>MAX(S47:T48)</f>
         <v>33.328086379058739</v>
       </c>
-      <c r="AU47">
-        <f t="shared" ref="AU47" si="244">MAX(U47:V48)</f>
+      <c r="AT47">
+        <f>MAX(U47:V48)</f>
         <v>10.207566360137617</v>
       </c>
-      <c r="AW47">
-        <f t="shared" ref="AW47" si="245">MAX(W47:X48)</f>
-        <v>0</v>
-      </c>
-      <c r="AY47">
-        <f t="shared" ref="AY47" si="246">MAX(Y47:Z48)</f>
+      <c r="AV47">
+        <f>MAX(W47:X48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:48">
       <c r="A48">
         <v>0</v>
       </c>
@@ -18254,11 +17871,8 @@
       <c r="X48">
         <v>0</v>
       </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:48">
       <c r="A49">
         <v>0</v>
       </c>
@@ -18331,63 +17945,56 @@
       <c r="X49">
         <v>0</v>
       </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <f t="shared" ref="AA49" si="247">MAX(A49:B50)</f>
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <f t="shared" ref="AC49" si="248">MAX(C49:D50)</f>
+      <c r="Z49">
+        <f>MAX(A49:B50)</f>
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <f>MAX(C49:D50)</f>
         <v>7.8245768225024701</v>
       </c>
-      <c r="AE49">
-        <f t="shared" ref="AE49" si="249">MAX(E49:F50)</f>
+      <c r="AD49">
+        <f>MAX(E49:F50)</f>
         <v>22.236091546208517</v>
       </c>
-      <c r="AG49">
-        <f t="shared" ref="AG49" si="250">MAX(G49:H50)</f>
+      <c r="AF49">
+        <f>MAX(G49:H50)</f>
         <v>26.922179193579876</v>
       </c>
-      <c r="AI49">
-        <f t="shared" ref="AI49" si="251">MAX(I49:J50)</f>
+      <c r="AH49">
+        <f>MAX(I49:J50)</f>
         <v>25.356023183665279</v>
       </c>
-      <c r="AK49">
-        <f t="shared" ref="AK49" si="252">MAX(K49:L50)</f>
+      <c r="AJ49">
+        <f>MAX(K49:L50)</f>
         <v>19.041443662765541</v>
       </c>
-      <c r="AM49">
-        <f t="shared" ref="AM49" si="253">MAX(M49:N50)</f>
+      <c r="AL49">
+        <f>MAX(M49:N50)</f>
         <v>13.252407379358676</v>
       </c>
-      <c r="AO49">
-        <f t="shared" ref="AO49" si="254">MAX(O49:P50)</f>
+      <c r="AN49">
+        <f>MAX(O49:P50)</f>
         <v>22.206984344444777</v>
       </c>
-      <c r="AQ49">
-        <f t="shared" ref="AQ49" si="255">MAX(Q49:R50)</f>
+      <c r="AP49">
+        <f>MAX(Q49:R50)</f>
         <v>32.91244410250745</v>
       </c>
-      <c r="AS49">
-        <f t="shared" ref="AS49" si="256">MAX(S49:T50)</f>
+      <c r="AR49">
+        <f>MAX(S49:T50)</f>
         <v>29.029639414720894</v>
       </c>
-      <c r="AU49">
-        <f t="shared" ref="AU49" si="257">MAX(U49:V50)</f>
+      <c r="AT49">
+        <f>MAX(U49:V50)</f>
         <v>7.3164929273548642</v>
       </c>
-      <c r="AW49">
-        <f t="shared" ref="AW49" si="258">MAX(W49:X50)</f>
-        <v>0</v>
-      </c>
-      <c r="AY49">
-        <f t="shared" ref="AY49" si="259">MAX(Y49:Z50)</f>
+      <c r="AV49">
+        <f>MAX(W49:X50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:48">
       <c r="A50">
         <v>0</v>
       </c>
@@ -18460,11 +18067,8 @@
       <c r="X50">
         <v>0</v>
       </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:48">
       <c r="A51">
         <v>0</v>
       </c>
@@ -18537,63 +18141,56 @@
       <c r="X51">
         <v>0</v>
       </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <f t="shared" ref="AA51" si="260">MAX(A51:B52)</f>
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" ref="AC51" si="261">MAX(C51:D52)</f>
+      <c r="Z51">
+        <f>MAX(A51:B52)</f>
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <f>MAX(C51:D52)</f>
         <v>5.2881971419328879</v>
       </c>
-      <c r="AE51">
-        <f t="shared" ref="AE51" si="262">MAX(E51:F52)</f>
+      <c r="AD51">
+        <f>MAX(E51:F52)</f>
         <v>12.471574881998556</v>
       </c>
-      <c r="AG51">
-        <f t="shared" ref="AG51" si="263">MAX(G51:H52)</f>
+      <c r="AF51">
+        <f>MAX(G51:H52)</f>
         <v>11.056183188117641</v>
       </c>
-      <c r="AI51">
-        <f t="shared" ref="AI51" si="264">MAX(I51:J52)</f>
+      <c r="AH51">
+        <f>MAX(I51:J52)</f>
         <v>4.604787805602685</v>
       </c>
-      <c r="AK51">
-        <f t="shared" ref="AK51" si="265">MAX(K51:L52)</f>
+      <c r="AJ51">
+        <f>MAX(K51:L52)</f>
         <v>1.2971676092255335</v>
       </c>
-      <c r="AM51">
-        <f t="shared" ref="AM51" si="266">MAX(M51:N52)</f>
+      <c r="AL51">
+        <f>MAX(M51:N52)</f>
         <v>7.9520727832933957</v>
       </c>
-      <c r="AO51">
-        <f t="shared" ref="AO51" si="267">MAX(O51:P52)</f>
+      <c r="AN51">
+        <f>MAX(O51:P52)</f>
         <v>26.33880598381101</v>
       </c>
-      <c r="AQ51">
-        <f t="shared" ref="AQ51" si="268">MAX(Q51:R52)</f>
+      <c r="AP51">
+        <f>MAX(Q51:R52)</f>
         <v>30.86698513518493</v>
       </c>
-      <c r="AS51">
-        <f t="shared" ref="AS51" si="269">MAX(S51:T52)</f>
+      <c r="AR51">
+        <f>MAX(S51:T52)</f>
         <v>22.075855235142271</v>
       </c>
-      <c r="AU51">
-        <f t="shared" ref="AU51" si="270">MAX(U51:V52)</f>
+      <c r="AT51">
+        <f>MAX(U51:V52)</f>
         <v>3.6552517133085738</v>
       </c>
-      <c r="AW51">
-        <f t="shared" ref="AW51" si="271">MAX(W51:X52)</f>
-        <v>0</v>
-      </c>
-      <c r="AY51">
-        <f t="shared" ref="AY51" si="272">MAX(Y51:Z52)</f>
+      <c r="AV51">
+        <f>MAX(W51:X52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:48">
       <c r="A52">
         <v>0</v>
       </c>
@@ -18666,11 +18263,8 @@
       <c r="X52">
         <v>0</v>
       </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:48">
       <c r="A53">
         <v>0</v>
       </c>
@@ -18743,63 +18337,56 @@
       <c r="X53">
         <v>0</v>
       </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <f t="shared" ref="AA53" si="273">MAX(A53:B54)</f>
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <f t="shared" ref="AC53" si="274">MAX(C53:D54)</f>
+      <c r="Z53">
+        <f>MAX(A53:B54)</f>
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <f>MAX(C53:D54)</f>
         <v>0.50896123341568766</v>
       </c>
-      <c r="AE53">
-        <f t="shared" ref="AE53" si="275">MAX(E53:F54)</f>
+      <c r="AD53">
+        <f>MAX(E53:F54)</f>
         <v>0.79741152585673492</v>
       </c>
-      <c r="AG53">
-        <f t="shared" ref="AG53" si="276">MAX(G53:H54)</f>
+      <c r="AF53">
+        <f>MAX(G53:H54)</f>
         <v>0.33217932523177468</v>
       </c>
-      <c r="AI53">
-        <f t="shared" ref="AI53" si="277">MAX(I53:J54)</f>
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <f t="shared" ref="AK53" si="278">MAX(K53:L54)</f>
+      <c r="AH53">
+        <f>MAX(I53:J54)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <f>MAX(K53:L54)</f>
         <v>1.7158617863318357</v>
       </c>
-      <c r="AM53">
-        <f t="shared" ref="AM53" si="279">MAX(M53:N54)</f>
+      <c r="AL53">
+        <f>MAX(M53:N54)</f>
         <v>17.068802058176665</v>
       </c>
-      <c r="AO53">
-        <f t="shared" ref="AO53" si="280">MAX(O53:P54)</f>
+      <c r="AN53">
+        <f>MAX(O53:P54)</f>
         <v>29.749243450439501</v>
       </c>
-      <c r="AQ53">
-        <f t="shared" ref="AQ53" si="281">MAX(Q53:R54)</f>
+      <c r="AP53">
+        <f>MAX(Q53:R54)</f>
         <v>29.787581996182315</v>
       </c>
-      <c r="AS53">
-        <f t="shared" ref="AS53" si="282">MAX(S53:T54)</f>
+      <c r="AR53">
+        <f>MAX(S53:T54)</f>
         <v>11.879170115474352</v>
       </c>
-      <c r="AU53">
-        <f t="shared" ref="AU53" si="283">MAX(U53:V54)</f>
+      <c r="AT53">
+        <f>MAX(U53:V54)</f>
         <v>0.63070121055169737</v>
       </c>
-      <c r="AW53">
-        <f t="shared" ref="AW53" si="284">MAX(W53:X54)</f>
-        <v>0</v>
-      </c>
-      <c r="AY53">
-        <f t="shared" ref="AY53" si="285">MAX(Y53:Z54)</f>
+      <c r="AV53">
+        <f>MAX(W53:X54)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:48">
       <c r="A54">
         <v>0</v>
       </c>
@@ -18872,11 +18459,8 @@
       <c r="X54">
         <v>0</v>
       </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:48">
       <c r="A55">
         <v>0</v>
       </c>
@@ -18949,63 +18533,56 @@
       <c r="X55">
         <v>0</v>
       </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <f t="shared" ref="AA55" si="286">MAX(A55:B56)</f>
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <f t="shared" ref="AC55" si="287">MAX(C55:D56)</f>
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <f t="shared" ref="AE55" si="288">MAX(E55:F56)</f>
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <f t="shared" ref="AG55" si="289">MAX(G55:H56)</f>
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <f t="shared" ref="AI55" si="290">MAX(I55:J56)</f>
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <f t="shared" ref="AK55" si="291">MAX(K55:L56)</f>
+      <c r="Z55">
+        <f>MAX(A55:B56)</f>
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <f>MAX(C55:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <f>MAX(E55:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <f>MAX(G55:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <f>MAX(I55:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <f>MAX(K55:L56)</f>
         <v>3.6960272322801382</v>
       </c>
-      <c r="AM55">
-        <f t="shared" ref="AM55" si="292">MAX(M55:N56)</f>
+      <c r="AL55">
+        <f>MAX(M55:N56)</f>
         <v>19.140485805516704</v>
       </c>
-      <c r="AO55">
-        <f t="shared" ref="AO55" si="293">MAX(O55:P56)</f>
+      <c r="AN55">
+        <f>MAX(O55:P56)</f>
         <v>26.128574094634168</v>
       </c>
-      <c r="AQ55">
-        <f t="shared" ref="AQ55" si="294">MAX(Q55:R56)</f>
+      <c r="AP55">
+        <f>MAX(Q55:R56)</f>
         <v>18.925405995949212</v>
       </c>
-      <c r="AS55">
-        <f t="shared" ref="AS55" si="295">MAX(S55:T56)</f>
+      <c r="AR55">
+        <f>MAX(S55:T56)</f>
         <v>3.4691552857970294</v>
       </c>
-      <c r="AU55">
-        <f t="shared" ref="AU55" si="296">MAX(U55:V56)</f>
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <f t="shared" ref="AW55" si="297">MAX(W55:X56)</f>
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <f t="shared" ref="AY55" si="298">MAX(Y55:Z56)</f>
+      <c r="AT55">
+        <f>MAX(U55:V56)</f>
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <f>MAX(W55:X56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:48">
       <c r="A56">
         <v>0</v>
       </c>
@@ -19078,13 +18655,10 @@
       <c r="X56">
         <v>0</v>
       </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A33:Y56 A4:Y27">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="A33:X56 A4:X27">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19093,8 +18667,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AY27">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="Z4:AW27">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19103,8 +18677,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA33:AY55">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Z33:AW55">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19124,42 +18698,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BA55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+      <selection activeCell="AY4" sqref="AY4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="25" width="2.83203125" customWidth="1"/>
-    <col min="26" max="28" width="4.1640625" customWidth="1"/>
-    <col min="29" max="51" width="3.6640625" customWidth="1"/>
-    <col min="52" max="52" width="4.1640625" customWidth="1"/>
+    <col min="1" max="24" width="2.83203125" customWidth="1"/>
+    <col min="25" max="27" width="4.1640625" customWidth="1"/>
+    <col min="28" max="50" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:53">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BD1" s="3"/>
+      <c r="BA1" s="3"/>
     </row>
-    <row r="2" spans="1:56">
-      <c r="AB2" s="4" t="s">
+    <row r="2" spans="1:53">
+      <c r="AA2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:53">
       <c r="A4">
         <v>0</v>
       </c>
@@ -19196,54 +18769,48 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
+      <c r="AA4">
         <v>0.5837521573679082</v>
       </c>
-      <c r="AD4">
+      <c r="AC4">
         <v>0.59357721841280431</v>
       </c>
-      <c r="AF4">
+      <c r="AE4">
         <v>0.77077078307025415</v>
       </c>
-      <c r="AH4">
+      <c r="AG4">
         <v>2.3712407352139642E-2</v>
       </c>
-      <c r="AJ4">
+      <c r="AI4">
         <v>0.18993960973294088</v>
       </c>
-      <c r="AL4">
+      <c r="AK4">
         <v>0.81180870745283984</v>
       </c>
-      <c r="AN4">
+      <c r="AM4">
         <v>0.80418740149046875</v>
       </c>
-      <c r="AP4">
+      <c r="AO4">
         <v>0.93236123651012681</v>
       </c>
-      <c r="AR4">
+      <c r="AQ4">
         <v>0.94613102100689195</v>
       </c>
-      <c r="AT4">
+      <c r="AS4">
         <v>0.57271514600785511</v>
       </c>
-      <c r="AV4">
+      <c r="AU4">
         <v>0.28274328875893762</v>
       </c>
-      <c r="AX4">
+      <c r="AW4">
         <v>0.40746679906794869</v>
       </c>
-      <c r="AZ4">
-        <v>0.45601621126176828</v>
-      </c>
-      <c r="BB4" s="1">
-        <f>SUMPRODUCT(AB4:AZ26,A4:Y26)+SUMPRODUCT(AB33:AZ55,A33:Y55)</f>
+      <c r="AY4" s="1">
+        <f>SUMPRODUCT(AA4:AW26,A4:W26)+SUMPRODUCT(AA33:AW55,A33:W55)</f>
         <v>1814.9177220747999</v>
       </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:53">
       <c r="A6">
         <v>0</v>
       </c>
@@ -19280,50 +18847,44 @@
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
+      <c r="AA6">
         <v>0.11055883060908467</v>
       </c>
-      <c r="AD6">
+      <c r="AC6">
         <v>0.78417051719584274</v>
       </c>
-      <c r="AF6">
+      <c r="AE6">
         <v>0.96123066222237308</v>
       </c>
-      <c r="AH6">
+      <c r="AG6">
         <v>0.42350375782472938</v>
       </c>
-      <c r="AJ6">
+      <c r="AI6">
         <v>0.70030719987988466</v>
       </c>
-      <c r="AL6">
+      <c r="AK6">
         <v>9.3935571101174453E-2</v>
       </c>
-      <c r="AN6">
+      <c r="AM6">
         <v>0.74354285200222092</v>
       </c>
-      <c r="AP6">
+      <c r="AO6">
         <v>0.22631339473171841</v>
       </c>
-      <c r="AR6">
+      <c r="AQ6">
         <v>0.629134753771461</v>
       </c>
-      <c r="AT6">
+      <c r="AS6">
         <v>0.9300856063576759</v>
       </c>
-      <c r="AV6">
+      <c r="AU6">
         <v>0.74079856996856974</v>
       </c>
-      <c r="AX6">
+      <c r="AW6">
         <v>0.27847568037433779</v>
       </c>
-      <c r="AZ6">
-        <v>0.99788452624072421</v>
-      </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:53">
       <c r="A8">
         <v>7.9484743012059162</v>
       </c>
@@ -19360,50 +18921,44 @@
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
+      <c r="AA8">
         <v>0.96078533498146113</v>
       </c>
-      <c r="AD8">
+      <c r="AC8">
         <v>0.50938176018735026</v>
       </c>
-      <c r="AF8">
+      <c r="AE8">
         <v>0.38913687054589075</v>
       </c>
-      <c r="AH8">
+      <c r="AG8">
         <v>0.31163445639237441</v>
       </c>
-      <c r="AJ8">
+      <c r="AI8">
         <v>0.28210443450472555</v>
       </c>
-      <c r="AL8">
+      <c r="AK8">
         <v>0.60756277281140036</v>
       </c>
-      <c r="AN8">
+      <c r="AM8">
         <v>0.90251659822221608</v>
       </c>
-      <c r="AP8">
+      <c r="AO8">
         <v>0.1288273511744048</v>
       </c>
-      <c r="AR8">
+      <c r="AQ8">
         <v>0.50748996125450208</v>
       </c>
-      <c r="AT8">
+      <c r="AS8">
         <v>0.60038348392131902</v>
       </c>
-      <c r="AV8">
+      <c r="AU8">
         <v>0.31919874132113613</v>
       </c>
-      <c r="AX8">
+      <c r="AW8">
         <v>9.1002281319052747E-2</v>
       </c>
-      <c r="AZ8">
-        <v>0.12151386777108597</v>
-      </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:53">
       <c r="A10">
         <v>23.714079541210168</v>
       </c>
@@ -19440,50 +18995,44 @@
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
+      <c r="AA10">
         <v>0.139464355046518</v>
       </c>
-      <c r="AD10">
+      <c r="AC10">
         <v>0.12699746332816886</v>
       </c>
-      <c r="AF10">
+      <c r="AE10">
         <v>0.42260498828798121</v>
       </c>
-      <c r="AH10">
+      <c r="AG10">
         <v>2.5264009475689853E-2</v>
       </c>
-      <c r="AJ10">
+      <c r="AI10">
         <v>0.56735826258301936</v>
       </c>
-      <c r="AL10">
+      <c r="AK10">
         <v>0.84123491672001682</v>
       </c>
-      <c r="AN10">
+      <c r="AM10">
         <v>0.85874614142893368</v>
       </c>
-      <c r="AP10">
+      <c r="AO10">
         <v>0.91244625291710024</v>
       </c>
-      <c r="AR10">
+      <c r="AQ10">
         <v>0.42972625482333338</v>
       </c>
-      <c r="AT10">
+      <c r="AS10">
         <v>0.80089327923354636</v>
       </c>
-      <c r="AV10">
+      <c r="AU10">
         <v>0.96636067826493977</v>
       </c>
-      <c r="AX10">
+      <c r="AW10">
         <v>0.54400226051835654</v>
       </c>
-      <c r="AZ10">
-        <v>0.29766403805957964</v>
-      </c>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:53">
       <c r="A12">
         <v>22.752459856817172</v>
       </c>
@@ -19520,50 +19069,44 @@
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
+      <c r="AA12">
         <v>0.15229903264255629</v>
       </c>
-      <c r="AD12">
+      <c r="AC12">
         <v>0.17719170156224151</v>
       </c>
-      <c r="AF12">
+      <c r="AE12">
         <v>0.59499980980331324</v>
       </c>
-      <c r="AH12">
+      <c r="AG12">
         <v>0.6284270651501902</v>
       </c>
-      <c r="AJ12">
+      <c r="AI12">
         <v>0.18136714663712394</v>
       </c>
-      <c r="AL12">
+      <c r="AK12">
         <v>0.92500439891299213</v>
       </c>
-      <c r="AN12">
+      <c r="AM12">
         <v>0.43251299300644463</v>
       </c>
-      <c r="AP12">
+      <c r="AO12">
         <v>0.89792363094693717</v>
       </c>
-      <c r="AR12">
+      <c r="AQ12">
         <v>0.53203857945197075</v>
       </c>
-      <c r="AT12">
+      <c r="AS12">
         <v>0.40838869761899088</v>
       </c>
-      <c r="AV12">
+      <c r="AU12">
         <v>0.17042330582923526</v>
       </c>
-      <c r="AX12">
+      <c r="AW12">
         <v>0.50442441083972633</v>
       </c>
-      <c r="AZ12">
-        <v>0.11076347635583872</v>
-      </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:53">
       <c r="A14">
         <v>5.4240962596931936</v>
       </c>
@@ -19600,50 +19143,44 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
+      <c r="AA14">
         <v>0.31364204434193366</v>
       </c>
-      <c r="AD14">
+      <c r="AC14">
         <v>0.48758625561082114</v>
       </c>
-      <c r="AF14">
+      <c r="AE14">
         <v>0.48403390080149733</v>
       </c>
-      <c r="AH14">
+      <c r="AG14">
         <v>4.2469134317829282E-2</v>
       </c>
-      <c r="AJ14">
+      <c r="AI14">
         <v>0.78157096054764186</v>
       </c>
-      <c r="AL14">
+      <c r="AK14">
         <v>2.9494715000552008E-2</v>
       </c>
-      <c r="AN14">
+      <c r="AM14">
         <v>0.87997367590879638</v>
       </c>
-      <c r="AP14">
+      <c r="AO14">
         <v>1.999225433781282E-2</v>
       </c>
-      <c r="AR14">
+      <c r="AQ14">
         <v>0.7349233543740582</v>
       </c>
-      <c r="AT14">
+      <c r="AS14">
         <v>0.16320872417262078</v>
       </c>
-      <c r="AV14">
+      <c r="AU14">
         <v>0.18598334761672863</v>
       </c>
-      <c r="AX14">
+      <c r="AW14">
         <v>0.17373455265365545</v>
       </c>
-      <c r="AZ14">
-        <v>2.3605439822707686E-2</v>
-      </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:53">
       <c r="A16">
         <v>0</v>
       </c>
@@ -19680,50 +19217,44 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
+      <c r="AA16">
         <v>0.32165237461251606</v>
       </c>
-      <c r="AD16">
+      <c r="AC16">
         <v>0.23775123496417172</v>
       </c>
-      <c r="AF16">
+      <c r="AE16">
         <v>3.2312378486417992E-2</v>
       </c>
-      <c r="AH16">
+      <c r="AG16">
         <v>0.20400724732789843</v>
       </c>
-      <c r="AJ16">
+      <c r="AI16">
         <v>0.93314300946162754</v>
       </c>
-      <c r="AL16">
+      <c r="AK16">
         <v>0.49693086419250898</v>
       </c>
-      <c r="AN16">
+      <c r="AM16">
         <v>1.0525356064842728E-2</v>
       </c>
-      <c r="AP16">
+      <c r="AO16">
         <v>0.96269744786976363</v>
       </c>
-      <c r="AR16">
+      <c r="AQ16">
         <v>0.47286373540142357</v>
       </c>
-      <c r="AT16">
+      <c r="AS16">
         <v>0.39244621553859493</v>
       </c>
-      <c r="AV16">
+      <c r="AU16">
         <v>0.31131368342707411</v>
       </c>
-      <c r="AX16">
+      <c r="AW16">
         <v>4.3058060217683214E-2</v>
       </c>
-      <c r="AZ16">
-        <v>0.2545382137449389</v>
-      </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:49">
       <c r="A18">
         <v>0</v>
       </c>
@@ -19760,50 +19291,44 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
+      <c r="AA18">
         <v>0.34682083128461438</v>
       </c>
-      <c r="AD18">
+      <c r="AC18">
         <v>0.30191584059428478</v>
       </c>
-      <c r="AF18">
+      <c r="AE18">
         <v>0.77582003973947178</v>
       </c>
-      <c r="AH18">
+      <c r="AG18">
         <v>0.69267713551838894</v>
       </c>
-      <c r="AJ18">
+      <c r="AI18">
         <v>0.24353514248337527</v>
       </c>
-      <c r="AL18">
+      <c r="AK18">
         <v>0.48696779270157209</v>
       </c>
-      <c r="AN18">
+      <c r="AM18">
         <v>0.27810442540866642</v>
       </c>
-      <c r="AP18">
+      <c r="AO18">
         <v>6.1622575686552938E-3</v>
       </c>
-      <c r="AR18">
+      <c r="AQ18">
         <v>0.57889949894462978</v>
       </c>
-      <c r="AT18">
+      <c r="AS18">
         <v>0.24173084835122194</v>
       </c>
-      <c r="AV18">
+      <c r="AU18">
         <v>0.9696367813694925</v>
       </c>
-      <c r="AX18">
+      <c r="AW18">
         <v>0.93270517170972389</v>
       </c>
-      <c r="AZ18">
-        <v>0.7853924012925958</v>
-      </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:49">
       <c r="A20">
         <v>0</v>
       </c>
@@ -19840,50 +19365,44 @@
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
+      <c r="AA20">
         <v>0.98073088343709425</v>
       </c>
-      <c r="AD20">
+      <c r="AC20">
         <v>0.32817347666986085</v>
       </c>
-      <c r="AF20">
+      <c r="AE20">
         <v>0.78804607988783526</v>
       </c>
-      <c r="AH20">
+      <c r="AG20">
         <v>0.75772396201334435</v>
       </c>
-      <c r="AJ20">
+      <c r="AI20">
         <v>0.68449583019081073</v>
       </c>
-      <c r="AL20">
+      <c r="AK20">
         <v>0.72812810833585606</v>
       </c>
-      <c r="AN20">
+      <c r="AM20">
         <v>0.34702091986819572</v>
       </c>
-      <c r="AP20">
+      <c r="AO20">
         <v>1.5960857384115346E-2</v>
       </c>
-      <c r="AR20">
+      <c r="AQ20">
         <v>0.89273517125771085</v>
       </c>
-      <c r="AT20">
+      <c r="AS20">
         <v>0.97872963873814678</v>
       </c>
-      <c r="AV20">
+      <c r="AU20">
         <v>0.45348830584485089</v>
       </c>
-      <c r="AX20">
+      <c r="AW20">
         <v>0.66580334173803202</v>
       </c>
-      <c r="AZ20">
-        <v>0.70137004323189511</v>
-      </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:49">
       <c r="A22">
         <v>0</v>
       </c>
@@ -19920,50 +19439,44 @@
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
+      <c r="AA22">
         <v>0.82236386600463529</v>
       </c>
-      <c r="AD22">
+      <c r="AC22">
         <v>0.82808274567796814</v>
       </c>
-      <c r="AF22">
+      <c r="AE22">
         <v>0.33123176625168782</v>
       </c>
-      <c r="AH22">
+      <c r="AG22">
         <v>0.1638637204597031</v>
       </c>
-      <c r="AJ22">
+      <c r="AI22">
         <v>0.84047788438630566</v>
       </c>
-      <c r="AL22">
+      <c r="AK22">
         <v>0.90233157595058699</v>
       </c>
-      <c r="AN22">
+      <c r="AM22">
         <v>0.80749550438816686</v>
       </c>
-      <c r="AP22">
+      <c r="AO22">
         <v>0.36826978602152061</v>
       </c>
-      <c r="AR22">
+      <c r="AQ22">
         <v>0.73728392920762942</v>
       </c>
-      <c r="AT22">
+      <c r="AS22">
         <v>0.95064329121328295</v>
       </c>
-      <c r="AV22">
+      <c r="AU22">
         <v>0.40621297070634621</v>
       </c>
-      <c r="AX22">
+      <c r="AW22">
         <v>0.25396415787032511</v>
       </c>
-      <c r="AZ22">
-        <v>0.14069301372140253</v>
-      </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:49">
       <c r="A24">
         <v>0</v>
       </c>
@@ -20000,50 +19513,44 @@
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
+      <c r="AA24">
         <v>0.95496272281351069</v>
       </c>
-      <c r="AD24">
+      <c r="AC24">
         <v>0.32233146151537484</v>
       </c>
-      <c r="AF24">
+      <c r="AE24">
         <v>0.16307642574796755</v>
       </c>
-      <c r="AH24">
+      <c r="AG24">
         <v>0.49446079040847624</v>
       </c>
-      <c r="AJ24">
+      <c r="AI24">
         <v>7.6757388213135713E-2</v>
       </c>
-      <c r="AL24">
+      <c r="AK24">
         <v>0.63281019498481517</v>
       </c>
-      <c r="AN24">
+      <c r="AM24">
         <v>0.56370277274367719</v>
       </c>
-      <c r="AP24">
+      <c r="AO24">
         <v>0.36808471169648782</v>
       </c>
-      <c r="AR24">
+      <c r="AQ24">
         <v>0.45406819419430133</v>
       </c>
-      <c r="AT24">
+      <c r="AS24">
         <v>0.1645299637414086</v>
       </c>
-      <c r="AV24">
+      <c r="AU24">
         <v>0.68701911360008505</v>
       </c>
-      <c r="AX24">
+      <c r="AW24">
         <v>0.38469911663613543</v>
       </c>
-      <c r="AZ24">
-        <v>0.27364551997092634</v>
-      </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:49">
       <c r="A26">
         <v>0</v>
       </c>
@@ -20080,50 +19587,44 @@
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
+      <c r="AA26">
         <v>0.77862672875862771</v>
       </c>
-      <c r="AD26">
+      <c r="AC26">
         <v>0.31516726971965592</v>
       </c>
-      <c r="AF26">
+      <c r="AE26">
         <v>0.97164919477768663</v>
       </c>
-      <c r="AH26">
+      <c r="AG26">
         <v>0.66325227229117822</v>
       </c>
-      <c r="AJ26">
+      <c r="AI26">
         <v>0.60921366246287123</v>
       </c>
-      <c r="AL26">
+      <c r="AK26">
         <v>0.38562646242733833</v>
       </c>
-      <c r="AN26">
+      <c r="AM26">
         <v>9.7534208158065683E-2</v>
       </c>
-      <c r="AP26">
+      <c r="AO26">
         <v>1.0784944018047748E-2</v>
       </c>
-      <c r="AR26">
+      <c r="AQ26">
         <v>3.3840035885299713E-3</v>
       </c>
-      <c r="AT26">
+      <c r="AS26">
         <v>0.19329762214993429</v>
       </c>
-      <c r="AV26">
+      <c r="AU26">
         <v>0.71837106749307067</v>
       </c>
-      <c r="AX26">
+      <c r="AW26">
         <v>0.64915277430259266</v>
       </c>
-      <c r="AZ26">
-        <v>0.41137274022015569</v>
-      </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:49">
       <c r="A33">
         <v>0</v>
       </c>
@@ -20160,50 +19661,44 @@
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
+      <c r="AA33">
         <v>1.128354151341493E-3</v>
       </c>
-      <c r="AD33">
+      <c r="AC33">
         <v>0.14928721786311461</v>
       </c>
-      <c r="AF33">
+      <c r="AE33">
         <v>1.3825442856979731E-2</v>
       </c>
-      <c r="AH33">
+      <c r="AG33">
         <v>5.8093497817489403E-2</v>
       </c>
-      <c r="AJ33">
+      <c r="AI33">
         <v>0.89718728128492253</v>
       </c>
-      <c r="AL33">
+      <c r="AK33">
         <v>0.85179399127034738</v>
       </c>
-      <c r="AN33">
+      <c r="AM33">
         <v>0.76800018544429516</v>
       </c>
-      <c r="AP33">
+      <c r="AO33">
         <v>0.41823803568144158</v>
       </c>
-      <c r="AR33">
+      <c r="AQ33">
         <v>0.88744533915704116</v>
       </c>
-      <c r="AT33">
+      <c r="AS33">
         <v>0.77187331159452588</v>
       </c>
-      <c r="AV33">
+      <c r="AU33">
         <v>0.89002643799774583</v>
       </c>
-      <c r="AX33">
+      <c r="AW33">
         <v>0.91325139153308965</v>
       </c>
-      <c r="AZ33">
-        <v>0.12418678017957829</v>
-      </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:49">
       <c r="A35">
         <v>0</v>
       </c>
@@ -20240,50 +19735,44 @@
       <c r="W35">
         <v>0</v>
       </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
+      <c r="AA35">
         <v>0.70324717564530892</v>
       </c>
-      <c r="AD35">
+      <c r="AC35">
         <v>0.37287938758036732</v>
       </c>
-      <c r="AF35">
+      <c r="AE35">
         <v>0.35764805886064388</v>
       </c>
-      <c r="AH35">
+      <c r="AG35">
         <v>0.9151391070648659</v>
       </c>
-      <c r="AJ35">
+      <c r="AI35">
         <v>0.29370902799127396</v>
       </c>
-      <c r="AL35">
+      <c r="AK35">
         <v>0.40732465334168477</v>
       </c>
-      <c r="AN35">
+      <c r="AM35">
         <v>0.3279653165782056</v>
       </c>
-      <c r="AP35">
+      <c r="AO35">
         <v>0.6799179965919474</v>
       </c>
-      <c r="AR35">
+      <c r="AQ35">
         <v>6.6720132678095734E-2</v>
       </c>
-      <c r="AT35">
+      <c r="AS35">
         <v>0.27986479565124645</v>
       </c>
-      <c r="AV35">
+      <c r="AU35">
         <v>0.63698684715931786</v>
       </c>
-      <c r="AX35">
+      <c r="AW35">
         <v>0.43532400885457911</v>
       </c>
-      <c r="AZ35">
-        <v>6.4584170053752499E-2</v>
-      </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:49">
       <c r="A37">
         <v>8.5248041681862432</v>
       </c>
@@ -20320,50 +19809,44 @@
       <c r="W37">
         <v>0</v>
       </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
+      <c r="AA37">
         <v>0.86026515025261874</v>
       </c>
-      <c r="AD37">
+      <c r="AC37">
         <v>0.95951819842605623</v>
       </c>
-      <c r="AF37">
+      <c r="AE37">
         <v>0.98993668103585819</v>
       </c>
-      <c r="AH37">
+      <c r="AG37">
         <v>0.23176888059634415</v>
       </c>
-      <c r="AJ37">
+      <c r="AI37">
         <v>0.7385269012060155</v>
       </c>
-      <c r="AL37">
+      <c r="AK37">
         <v>0.20939559444157163</v>
       </c>
-      <c r="AN37">
+      <c r="AM37">
         <v>0.5694904702949839</v>
       </c>
-      <c r="AP37">
+      <c r="AO37">
         <v>0.3025320057808748</v>
       </c>
-      <c r="AR37">
+      <c r="AQ37">
         <v>0.24452641347158111</v>
       </c>
-      <c r="AT37">
+      <c r="AS37">
         <v>0.51992810809767553</v>
       </c>
-      <c r="AV37">
+      <c r="AU37">
         <v>0.8167600402540045</v>
       </c>
-      <c r="AX37">
+      <c r="AW37">
         <v>5.5681037380499121E-2</v>
       </c>
-      <c r="AZ37">
-        <v>0.9257179186330543</v>
-      </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:49">
       <c r="A39">
         <v>24.737202228639759</v>
       </c>
@@ -20400,50 +19883,44 @@
       <c r="W39">
         <v>0</v>
       </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
+      <c r="AA39">
         <v>0.26508193502739053</v>
       </c>
-      <c r="AD39">
+      <c r="AC39">
         <v>7.160292903639065E-2</v>
       </c>
-      <c r="AF39">
+      <c r="AE39">
         <v>0.50296713371873991</v>
       </c>
-      <c r="AH39">
+      <c r="AG39">
         <v>0.98792443866507451</v>
       </c>
-      <c r="AJ39">
+      <c r="AI39">
         <v>0.11105024750618397</v>
       </c>
-      <c r="AL39">
+      <c r="AK39">
         <v>0.60125996950504279</v>
       </c>
-      <c r="AN39">
+      <c r="AM39">
         <v>0.376478510952448</v>
       </c>
-      <c r="AP39">
+      <c r="AO39">
         <v>2.2903487797969913E-2</v>
       </c>
-      <c r="AR39">
+      <c r="AQ39">
         <v>0.94586441063057425</v>
       </c>
-      <c r="AT39">
+      <c r="AS39">
         <v>0.70504758238269338</v>
       </c>
-      <c r="AV39">
+      <c r="AU39">
         <v>0.1000271238851641</v>
       </c>
-      <c r="AX39">
+      <c r="AW39">
         <v>0.23085916443426491</v>
       </c>
-      <c r="AZ39">
-        <v>0.39343496649046428</v>
-      </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:49">
       <c r="A41">
         <v>23.404997353542512</v>
       </c>
@@ -20480,50 +19957,44 @@
       <c r="W41">
         <v>0</v>
       </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
+      <c r="AA41">
         <v>0.765375405130307</v>
       </c>
-      <c r="AD41">
+      <c r="AC41">
         <v>6.7913044281753265E-3</v>
       </c>
-      <c r="AF41">
+      <c r="AE41">
         <v>0.27851867011925835</v>
       </c>
-      <c r="AH41">
+      <c r="AG41">
         <v>0.14272794016978196</v>
       </c>
-      <c r="AJ41">
+      <c r="AI41">
         <v>0.98474942220312278</v>
       </c>
-      <c r="AL41">
+      <c r="AK41">
         <v>0.7745315869747792</v>
       </c>
-      <c r="AN41">
+      <c r="AM41">
         <v>0.61846063128547701</v>
       </c>
-      <c r="AP41">
+      <c r="AO41">
         <v>0.11216165054088167</v>
       </c>
-      <c r="AR41">
+      <c r="AQ41">
         <v>0.41302752638300555</v>
       </c>
-      <c r="AT41">
+      <c r="AS41">
         <v>0.49745554367929035</v>
       </c>
-      <c r="AV41">
+      <c r="AU41">
         <v>0.31270625604754709</v>
       </c>
-      <c r="AX41">
+      <c r="AW41">
         <v>0.22865534185813852</v>
       </c>
-      <c r="AZ41">
-        <v>2.7567833346226478E-2</v>
-      </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:49">
       <c r="A43">
         <v>4.9362975372505007</v>
       </c>
@@ -20560,50 +20031,44 @@
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
+      <c r="AA43">
         <v>0.50650739073488249</v>
       </c>
-      <c r="AD43">
+      <c r="AC43">
         <v>0.81279537985648775</v>
       </c>
-      <c r="AF43">
+      <c r="AE43">
         <v>0.52560989926891222</v>
       </c>
-      <c r="AH43">
+      <c r="AG43">
         <v>3.1009282058962473E-2</v>
       </c>
-      <c r="AJ43">
+      <c r="AI43">
         <v>0.24762234409150985</v>
       </c>
-      <c r="AL43">
+      <c r="AK43">
         <v>0.67204616452827348</v>
       </c>
-      <c r="AN43">
+      <c r="AM43">
         <v>0.61624402162631819</v>
       </c>
-      <c r="AP43">
+      <c r="AO43">
         <v>0.71741822860458826</v>
       </c>
-      <c r="AR43">
+      <c r="AQ43">
         <v>0.82326281733354689</v>
       </c>
-      <c r="AT43">
+      <c r="AS43">
         <v>3.0053395950482398E-2</v>
       </c>
-      <c r="AV43">
+      <c r="AU43">
         <v>0.36161330892203525</v>
       </c>
-      <c r="AX43">
+      <c r="AW43">
         <v>0.61498184250698229</v>
       </c>
-      <c r="AZ43">
-        <v>0.60881116157338266</v>
-      </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:49">
       <c r="A45">
         <v>0</v>
       </c>
@@ -20640,50 +20105,44 @@
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
+      <c r="AA45">
         <v>0.95067552774089892</v>
       </c>
-      <c r="AD45">
+      <c r="AC45">
         <v>0.81609060866601468</v>
       </c>
-      <c r="AF45">
+      <c r="AE45">
         <v>0.62983613370886016</v>
       </c>
-      <c r="AH45">
+      <c r="AG45">
         <v>0.24683400229492869</v>
       </c>
-      <c r="AJ45">
+      <c r="AI45">
         <v>0.98631416513884862</v>
       </c>
-      <c r="AL45">
+      <c r="AK45">
         <v>0.3524372813256802</v>
       </c>
-      <c r="AN45">
+      <c r="AM45">
         <v>0.97153960107621762</v>
       </c>
-      <c r="AP45">
+      <c r="AO45">
         <v>0.99490026665824849</v>
       </c>
-      <c r="AR45">
+      <c r="AQ45">
         <v>3.6715811184512281E-3</v>
       </c>
-      <c r="AT45">
+      <c r="AS45">
         <v>0.20353961351428596</v>
       </c>
-      <c r="AV45">
+      <c r="AU45">
         <v>0.72125898805680633</v>
       </c>
-      <c r="AX45">
+      <c r="AW45">
         <v>0.22348484303550786</v>
       </c>
-      <c r="AZ45">
-        <v>0.86678537201906625</v>
-      </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:49">
       <c r="A47">
         <v>0</v>
       </c>
@@ -20720,50 +20179,44 @@
       <c r="W47">
         <v>0</v>
       </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
+      <c r="AA47">
         <v>0.23119629182279788</v>
       </c>
-      <c r="AD47">
+      <c r="AC47">
         <v>0.39432103028789178</v>
       </c>
-      <c r="AF47">
+      <c r="AE47">
         <v>0.97817037734523682</v>
       </c>
-      <c r="AH47">
+      <c r="AG47">
         <v>0.91701295791408766</v>
       </c>
-      <c r="AJ47">
+      <c r="AI47">
         <v>0.57085521296928221</v>
       </c>
-      <c r="AL47">
+      <c r="AK47">
         <v>0.97866763192477479</v>
       </c>
-      <c r="AN47">
+      <c r="AM47">
         <v>1.3060150590342934E-2</v>
       </c>
-      <c r="AP47">
+      <c r="AO47">
         <v>0.61154495250170027</v>
       </c>
-      <c r="AR47">
+      <c r="AQ47">
         <v>0.24089192402435722</v>
       </c>
-      <c r="AT47">
+      <c r="AS47">
         <v>0.23608705521859685</v>
       </c>
-      <c r="AV47">
+      <c r="AU47">
         <v>0.82357341554894092</v>
       </c>
-      <c r="AX47">
+      <c r="AW47">
         <v>0.57344604728700688</v>
       </c>
-      <c r="AZ47">
-        <v>0.4757472817415962</v>
-      </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:49">
       <c r="A49">
         <v>0</v>
       </c>
@@ -20800,50 +20253,44 @@
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
+      <c r="AA49">
         <v>0.96111753282695178</v>
       </c>
-      <c r="AD49">
+      <c r="AC49">
         <v>0.43195566179276712</v>
       </c>
-      <c r="AF49">
+      <c r="AE49">
         <v>0.9543674134784953</v>
       </c>
-      <c r="AH49">
+      <c r="AG49">
         <v>0.89256518971538312</v>
       </c>
-      <c r="AJ49">
+      <c r="AI49">
         <v>0.64664731216751969</v>
       </c>
-      <c r="AL49">
+      <c r="AK49">
         <v>0.22478272554312828</v>
       </c>
-      <c r="AN49">
+      <c r="AM49">
         <v>0.59944080645971076</v>
       </c>
-      <c r="AP49">
+      <c r="AO49">
         <v>0.89769321294161508</v>
       </c>
-      <c r="AR49">
+      <c r="AQ49">
         <v>0.78547871735431085</v>
       </c>
-      <c r="AT49">
+      <c r="AS49">
         <v>0.80910245030315231</v>
       </c>
-      <c r="AV49">
+      <c r="AU49">
         <v>0.69671600656332655</v>
       </c>
-      <c r="AX49">
+      <c r="AW49">
         <v>0.47000067757653485</v>
       </c>
-      <c r="AZ49">
-        <v>0.57301548705157823</v>
-      </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:49">
       <c r="A51">
         <v>0</v>
       </c>
@@ -20880,50 +20327,44 @@
       <c r="W51">
         <v>0</v>
       </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
+      <c r="AA51">
         <v>0.45318144310652686</v>
       </c>
-      <c r="AD51">
+      <c r="AC51">
         <v>0.75497569468509551</v>
       </c>
-      <c r="AF51">
+      <c r="AE51">
         <v>0.6138557367035492</v>
       </c>
-      <c r="AH51">
+      <c r="AG51">
         <v>0.7187719286036085</v>
       </c>
-      <c r="AJ51">
+      <c r="AI51">
         <v>0.39460123852144813</v>
       </c>
-      <c r="AL51">
+      <c r="AK51">
         <v>0.50638947631406417</v>
       </c>
-      <c r="AN51">
+      <c r="AM51">
         <v>0.33547637125151875</v>
       </c>
-      <c r="AP51">
+      <c r="AO51">
         <v>0.65941495736426003</v>
       </c>
-      <c r="AR51">
+      <c r="AQ51">
         <v>0.76194391583749477</v>
       </c>
-      <c r="AT51">
+      <c r="AS51">
         <v>0.15584722749730895</v>
       </c>
-      <c r="AV51">
+      <c r="AU51">
         <v>0.58548188763599118</v>
       </c>
-      <c r="AX51">
+      <c r="AW51">
         <v>7.7413689172764144E-2</v>
       </c>
-      <c r="AZ51">
-        <v>0.47084842990016917</v>
-      </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:49">
       <c r="A53">
         <v>0</v>
       </c>
@@ -20960,50 +20401,44 @@
       <c r="W53">
         <v>0</v>
       </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
+      <c r="AA53">
         <v>0.31619475956427956</v>
       </c>
-      <c r="AD53">
+      <c r="AC53">
         <v>0.21466890931588933</v>
       </c>
-      <c r="AF53">
+      <c r="AE53">
         <v>0.55765301823152302</v>
       </c>
-      <c r="AH53">
+      <c r="AG53">
         <v>0.97235693808314905</v>
       </c>
-      <c r="AJ53">
+      <c r="AI53">
         <v>0.15338383393370059</v>
       </c>
-      <c r="AL53">
+      <c r="AK53">
         <v>0.34909107889705004</v>
       </c>
-      <c r="AN53">
+      <c r="AM53">
         <v>0.86693801437310081</v>
       </c>
-      <c r="AP53">
+      <c r="AO53">
         <v>0.99585943769296226</v>
       </c>
-      <c r="AR53">
+      <c r="AQ53">
         <v>0.23577480402097406</v>
       </c>
-      <c r="AT53">
+      <c r="AS53">
         <v>0.94335348038935085</v>
       </c>
-      <c r="AV53">
+      <c r="AU53">
         <v>0.96414270821830694</v>
       </c>
-      <c r="AX53">
+      <c r="AW53">
         <v>0.37972480495552341</v>
       </c>
-      <c r="AZ53">
-        <v>0.33449439821404614</v>
-      </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:49">
       <c r="A55">
         <v>0</v>
       </c>
@@ -21040,52 +20475,46 @@
       <c r="W55">
         <v>0</v>
       </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
+      <c r="AA55">
         <v>0.90635295352609024</v>
       </c>
-      <c r="AD55">
+      <c r="AC55">
         <v>0.52326504879196001</v>
       </c>
-      <c r="AF55">
+      <c r="AE55">
         <v>0.71081254968662744</v>
       </c>
-      <c r="AH55">
+      <c r="AG55">
         <v>0.31386502263634153</v>
       </c>
-      <c r="AJ55">
+      <c r="AI55">
         <v>0.69122785475977955</v>
       </c>
-      <c r="AL55">
+      <c r="AK55">
         <v>0.36025085501523402</v>
       </c>
-      <c r="AN55">
+      <c r="AM55">
         <v>0.4864273561912601</v>
       </c>
-      <c r="AP55">
+      <c r="AO55">
         <v>0.2588136503216435</v>
       </c>
-      <c r="AR55">
+      <c r="AQ55">
         <v>0.31217169269405687</v>
       </c>
-      <c r="AT55">
+      <c r="AS55">
         <v>0.93041638997182319</v>
       </c>
-      <c r="AV55">
+      <c r="AU55">
         <v>2.925286186074294E-2</v>
       </c>
-      <c r="AX55">
+      <c r="AW55">
         <v>0.23087015583751236</v>
-      </c>
-      <c r="AZ55">
-        <v>0.86842391434777921</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:Y27">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A4:X27">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21094,8 +20523,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:Y55">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="A33:X55">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21115,14 +20544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EP57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:EM57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11:AF13"/>
+      <selection activeCell="EK4" sqref="EK4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="28" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" customWidth="1"/>
@@ -21130,14 +20559,13 @@
     <col min="34" max="59" width="2.6640625" customWidth="1"/>
     <col min="60" max="60" width="3.6640625" customWidth="1"/>
     <col min="61" max="64" width="4.33203125" customWidth="1"/>
-    <col min="65" max="89" width="3.1640625" customWidth="1"/>
-    <col min="91" max="115" width="2.83203125" customWidth="1"/>
-    <col min="116" max="118" width="4.1640625" customWidth="1"/>
-    <col min="119" max="141" width="3.6640625" customWidth="1"/>
-    <col min="142" max="142" width="4.1640625" customWidth="1"/>
+    <col min="65" max="88" width="3.1640625" customWidth="1"/>
+    <col min="90" max="113" width="2.83203125" customWidth="1"/>
+    <col min="114" max="116" width="4.1640625" customWidth="1"/>
+    <col min="117" max="139" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146">
+    <row r="1" spans="1:143">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -21147,18 +20575,18 @@
       <c r="BM1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="EK1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="EP1" s="3"/>
+      <c r="EM1" s="3"/>
     </row>
-    <row r="2" spans="1:146">
+    <row r="2" spans="1:143">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -21243,14 +20671,14 @@
       <c r="AB2" s="2">
         <v>0</v>
       </c>
-      <c r="DN2" s="4" t="s">
+      <c r="DL2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="EN2" s="4" t="s">
+      <c r="EK2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:146">
+    <row r="3" spans="1:143">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -21440,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:146">
+    <row r="4" spans="1:143">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -21725,107 +21153,96 @@
         <f t="array" ref="CJ4">SUM(BE3:BG5*$BI$11:$BK$13)+SUM(BE32:BG34*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK4">
-        <f t="array" ref="CK4">SUM(BF3:BH5*$BI$11:$BK$13)+SUM(BF32:BH34*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM4">
+      <c r="CL4">
         <f>MAX(BM4:BN5)</f>
         <v>0</v>
       </c>
-      <c r="CO4">
-        <f t="shared" ref="CO4:DK4" si="0">MAX(BO4:BP5)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <f t="shared" si="0"/>
+      <c r="CN4">
+        <f>MAX(BO4:BP5)</f>
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <f>MAX(BQ4:BR5)</f>
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <f>MAX(BS4:BT5)</f>
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <f>MAX(BU4:BV5)</f>
         <v>2.0983352593769435</v>
       </c>
-      <c r="CW4">
-        <f t="shared" si="0"/>
+      <c r="CV4">
+        <f>MAX(BW4:BX5)</f>
         <v>9.5449549762808417</v>
       </c>
-      <c r="CY4">
-        <f t="shared" si="0"/>
+      <c r="CX4">
+        <f>MAX(BY4:BZ5)</f>
         <v>10.728878894104952</v>
       </c>
-      <c r="DA4">
-        <f t="shared" si="0"/>
+      <c r="CZ4">
+        <f>MAX(CA4:CB5)</f>
         <v>4.9726422577077596</v>
       </c>
-      <c r="DC4">
-        <f t="shared" si="0"/>
+      <c r="DB4">
+        <f>MAX(CC4:CD5)</f>
         <v>0.39391033783320117</v>
       </c>
-      <c r="DE4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="DG4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="DI4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="DK4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="DD4">
+        <f>MAX(CE4:CF5)</f>
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <f>MAX(CG4:CH5)</f>
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <f>MAX(CI4:CJ5)</f>
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0.5837521573679082</v>
       </c>
       <c r="DN4">
-        <v>0.5837521573679082</v>
+        <v>0.59357721841280431</v>
       </c>
       <c r="DP4">
-        <v>0.59357721841280431</v>
+        <v>0.77077078307025415</v>
       </c>
       <c r="DR4">
-        <v>0.77077078307025415</v>
+        <v>2.3712407352139642E-2</v>
       </c>
       <c r="DT4">
-        <v>2.3712407352139642E-2</v>
+        <v>0.18993960973294088</v>
       </c>
       <c r="DV4">
-        <v>0.18993960973294088</v>
+        <v>0.81180870745283984</v>
       </c>
       <c r="DX4">
-        <v>0.81180870745283984</v>
+        <v>0.80418740149046875</v>
       </c>
       <c r="DZ4">
-        <v>0.80418740149046875</v>
+        <v>0.93236123651012681</v>
       </c>
       <c r="EB4">
-        <v>0.93236123651012681</v>
+        <v>0.94613102100689195</v>
       </c>
       <c r="ED4">
-        <v>0.94613102100689195</v>
+        <v>0.57271514600785511</v>
       </c>
       <c r="EF4">
-        <v>0.57271514600785511</v>
+        <v>0.28274328875893762</v>
       </c>
       <c r="EH4">
-        <v>0.28274328875893762</v>
-      </c>
-      <c r="EJ4">
         <v>0.40746679906794869</v>
       </c>
-      <c r="EL4">
-        <v>0.45601621126176828</v>
-      </c>
-      <c r="EN4" s="1">
-        <f>SUMPRODUCT(DN4:EL26,CM4:DK26)+SUMPRODUCT(DN33:EL55,CM33:DK55)</f>
+      <c r="EK4" s="1">
+        <f>SUMPRODUCT(DL4:EI26,CL4:DI26)+SUMPRODUCT(DL33:EI55,CL33:DI55)</f>
         <v>2269.8504340161039</v>
       </c>
     </row>
-    <row r="5" spans="1:146">
+    <row r="5" spans="1:143">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -22110,12 +21527,8 @@
         <f t="array" ref="CJ5">SUM(BE4:BG6*$BI$11:$BK$13)+SUM(BE33:BG35*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK5">
-        <f t="array" ref="CK5">SUM(BF4:BH6*$BI$11:$BK$13)+SUM(BF33:BH35*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:146">
+    <row r="6" spans="1:143">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -22400,103 +21813,92 @@
         <f t="array" ref="CJ6">SUM(BE5:BG7*$BI$11:$BK$13)+SUM(BE34:BG36*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK6">
-        <f t="array" ref="CK6">SUM(BF5:BH7*$BI$11:$BK$13)+SUM(BF34:BH36*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <f t="shared" ref="CM6:CM26" si="1">MAX(BM6:BN7)</f>
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <f t="shared" ref="CO6:CO26" si="2">MAX(BO6:BP7)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <f t="shared" ref="CQ6:CQ26" si="3">MAX(BQ6:BR7)</f>
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <f t="shared" ref="CS6:CS26" si="4">MAX(BS6:BT7)</f>
+      <c r="CL6">
+        <f>MAX(BM6:BN7)</f>
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <f>MAX(BO6:BP7)</f>
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <f>MAX(BQ6:BR7)</f>
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <f>MAX(BS6:BT7)</f>
         <v>1.429857240802513</v>
       </c>
-      <c r="CU6">
-        <f t="shared" ref="CU6:CU26" si="5">MAX(BU6:BV7)</f>
+      <c r="CT6">
+        <f>MAX(BU6:BV7)</f>
         <v>10.049840572424706</v>
       </c>
-      <c r="CW6">
-        <f t="shared" ref="CW6:CW26" si="6">MAX(BW6:BX7)</f>
+      <c r="CV6">
+        <f>MAX(BW6:BX7)</f>
         <v>28.97279521895841</v>
       </c>
-      <c r="CY6">
-        <f t="shared" ref="CY6:CY26" si="7">MAX(BY6:BZ7)</f>
+      <c r="CX6">
+        <f>MAX(BY6:BZ7)</f>
         <v>32.61374976151987</v>
       </c>
-      <c r="DA6">
-        <f t="shared" ref="DA6:DA26" si="8">MAX(CA6:CB7)</f>
+      <c r="CZ6">
+        <f>MAX(CA6:CB7)</f>
         <v>19.33581137225838</v>
       </c>
-      <c r="DC6">
-        <f t="shared" ref="DC6:DC26" si="9">MAX(CC6:CD7)</f>
+      <c r="DB6">
+        <f>MAX(CC6:CD7)</f>
         <v>2.8370090345309742</v>
       </c>
-      <c r="DE6">
-        <f t="shared" ref="DE6:DE26" si="10">MAX(CE6:CF7)</f>
+      <c r="DD6">
+        <f>MAX(CE6:CF7)</f>
         <v>0.12990525106975348</v>
       </c>
-      <c r="DG6">
-        <f t="shared" ref="DG6:DG26" si="11">MAX(CG6:CH7)</f>
-        <v>0</v>
-      </c>
-      <c r="DI6">
-        <f t="shared" ref="DI6:DI26" si="12">MAX(CI6:CJ7)</f>
-        <v>0</v>
-      </c>
-      <c r="DK6">
-        <f t="shared" ref="DK6:DK26" si="13">MAX(CK6:CL7)</f>
-        <v>0</v>
+      <c r="DF6">
+        <f>MAX(CG6:CH7)</f>
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <f>MAX(CI6:CJ7)</f>
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0.11055883060908467</v>
       </c>
       <c r="DN6">
-        <v>0.11055883060908467</v>
+        <v>0.78417051719584274</v>
       </c>
       <c r="DP6">
-        <v>0.78417051719584274</v>
+        <v>0.96123066222237308</v>
       </c>
       <c r="DR6">
-        <v>0.96123066222237308</v>
+        <v>0.42350375782472938</v>
       </c>
       <c r="DT6">
-        <v>0.42350375782472938</v>
+        <v>0.70030719987988466</v>
       </c>
       <c r="DV6">
-        <v>0.70030719987988466</v>
+        <v>9.3935571101174453E-2</v>
       </c>
       <c r="DX6">
-        <v>9.3935571101174453E-2</v>
+        <v>0.74354285200222092</v>
       </c>
       <c r="DZ6">
-        <v>0.74354285200222092</v>
+        <v>0.22631339473171841</v>
       </c>
       <c r="EB6">
-        <v>0.22631339473171841</v>
+        <v>0.629134753771461</v>
       </c>
       <c r="ED6">
-        <v>0.629134753771461</v>
+        <v>0.9300856063576759</v>
       </c>
       <c r="EF6">
-        <v>0.9300856063576759</v>
+        <v>0.74079856996856974</v>
       </c>
       <c r="EH6">
-        <v>0.74079856996856974</v>
-      </c>
-      <c r="EJ6">
         <v>0.27847568037433779</v>
       </c>
-      <c r="EL6">
-        <v>0.99788452624072421</v>
-      </c>
     </row>
-    <row r="7" spans="1:146">
+    <row r="7" spans="1:143">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -22781,12 +22183,8 @@
         <f t="array" ref="CJ7">SUM(BE6:BG8*$BI$11:$BK$13)+SUM(BE35:BG37*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK7">
-        <f t="array" ref="CK7">SUM(BF6:BH8*$BI$11:$BK$13)+SUM(BF35:BH37*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:146">
+    <row r="8" spans="1:143">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -23071,103 +22469,92 @@
         <f t="array" ref="CJ8">SUM(BE7:BG9*$BI$11:$BK$13)+SUM(BE36:BG38*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK8">
-        <f t="array" ref="CK8">SUM(BF7:BH9*$BI$11:$BK$13)+SUM(BF36:BH38*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <f t="shared" ref="CM8:CM28" si="14">MAX(BM8:BN9)</f>
-        <v>0</v>
-      </c>
-      <c r="CO8">
-        <f t="shared" ref="CO8:CO28" si="15">MAX(BO8:BP9)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ8">
-        <f t="shared" ref="CQ8:CQ28" si="16">MAX(BQ8:BR9)</f>
+      <c r="CL8">
+        <f>MAX(BM8:BN9)</f>
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <f>MAX(BO8:BP9)</f>
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <f>MAX(BQ8:BR9)</f>
         <v>0.80996560194077838</v>
       </c>
-      <c r="CS8">
-        <f t="shared" ref="CS8:CS28" si="17">MAX(BS8:BT9)</f>
+      <c r="CR8">
+        <f>MAX(BS8:BT9)</f>
         <v>9.6775860158032145</v>
       </c>
-      <c r="CU8">
-        <f t="shared" ref="CU8:CU28" si="18">MAX(BU8:BV9)</f>
+      <c r="CT8">
+        <f>MAX(BU8:BV9)</f>
         <v>27.2148248062649</v>
       </c>
-      <c r="CW8">
-        <f t="shared" ref="CW8:CW28" si="19">MAX(BW8:BX9)</f>
+      <c r="CV8">
+        <f>MAX(BW8:BX9)</f>
         <v>41.586376724192945</v>
       </c>
-      <c r="CY8">
-        <f t="shared" ref="CY8:CY28" si="20">MAX(BY8:BZ9)</f>
+      <c r="CX8">
+        <f>MAX(BY8:BZ9)</f>
         <v>43.278322783160249</v>
       </c>
-      <c r="DA8">
-        <f t="shared" ref="DA8:DA28" si="21">MAX(CA8:CB9)</f>
+      <c r="CZ8">
+        <f>MAX(CA8:CB9)</f>
         <v>33.718303124410753</v>
       </c>
-      <c r="DC8">
-        <f t="shared" ref="DC8:DC28" si="22">MAX(CC8:CD9)</f>
+      <c r="DB8">
+        <f>MAX(CC8:CD9)</f>
         <v>16.018501733191602</v>
       </c>
-      <c r="DE8">
-        <f t="shared" ref="DE8:DE28" si="23">MAX(CE8:CF9)</f>
+      <c r="DD8">
+        <f>MAX(CE8:CF9)</f>
         <v>3.1538021950465138</v>
       </c>
-      <c r="DG8">
-        <f t="shared" ref="DG8:DG28" si="24">MAX(CG8:CH9)</f>
-        <v>0</v>
-      </c>
-      <c r="DI8">
-        <f t="shared" ref="DI8:DI28" si="25">MAX(CI8:CJ9)</f>
-        <v>0</v>
-      </c>
-      <c r="DK8">
-        <f t="shared" ref="DK8:DK28" si="26">MAX(CK8:CL9)</f>
-        <v>0</v>
+      <c r="DF8">
+        <f>MAX(CG8:CH9)</f>
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <f>MAX(CI8:CJ9)</f>
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0.96078533498146113</v>
       </c>
       <c r="DN8">
-        <v>0.96078533498146113</v>
+        <v>0.50938176018735026</v>
       </c>
       <c r="DP8">
-        <v>0.50938176018735026</v>
+        <v>0.38913687054589075</v>
       </c>
       <c r="DR8">
-        <v>0.38913687054589075</v>
+        <v>0.31163445639237441</v>
       </c>
       <c r="DT8">
-        <v>0.31163445639237441</v>
+        <v>0.28210443450472555</v>
       </c>
       <c r="DV8">
-        <v>0.28210443450472555</v>
+        <v>0.60756277281140036</v>
       </c>
       <c r="DX8">
-        <v>0.60756277281140036</v>
+        <v>0.90251659822221608</v>
       </c>
       <c r="DZ8">
-        <v>0.90251659822221608</v>
+        <v>0.1288273511744048</v>
       </c>
       <c r="EB8">
-        <v>0.1288273511744048</v>
+        <v>0.50748996125450208</v>
       </c>
       <c r="ED8">
-        <v>0.50748996125450208</v>
+        <v>0.60038348392131902</v>
       </c>
       <c r="EF8">
-        <v>0.60038348392131902</v>
+        <v>0.31919874132113613</v>
       </c>
       <c r="EH8">
-        <v>0.31919874132113613</v>
-      </c>
-      <c r="EJ8">
         <v>9.1002281319052747E-2</v>
       </c>
-      <c r="EL8">
-        <v>0.12151386777108597</v>
-      </c>
     </row>
-    <row r="9" spans="1:146">
+    <row r="9" spans="1:143">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -23458,12 +22845,8 @@
         <f t="array" ref="CJ9">SUM(BE8:BG10*$BI$11:$BK$13)+SUM(BE37:BG39*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK9">
-        <f t="array" ref="CK9">SUM(BF8:BH10*$BI$11:$BK$13)+SUM(BF37:BH39*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:146">
+    <row r="10" spans="1:143">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -23748,103 +23131,92 @@
         <f t="array" ref="CJ10">SUM(BE9:BG11*$BI$11:$BK$13)+SUM(BE38:BG40*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK10">
-        <f t="array" ref="CK10">SUM(BF9:BH11*$BI$11:$BK$13)+SUM(BF38:BH40*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM10">
-        <f t="shared" ref="CM10:CM30" si="27">MAX(BM10:BN11)</f>
-        <v>0</v>
-      </c>
-      <c r="CO10">
-        <f t="shared" ref="CO10:CO30" si="28">MAX(BO10:BP11)</f>
+      <c r="CL10">
+        <f>MAX(BM10:BN11)</f>
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <f>MAX(BO10:BP11)</f>
         <v>0.14241153440716983</v>
       </c>
-      <c r="CQ10">
-        <f t="shared" ref="CQ10:CQ30" si="29">MAX(BQ10:BR11)</f>
+      <c r="CP10">
+        <f>MAX(BQ10:BR11)</f>
         <v>5.4680233100229216</v>
       </c>
-      <c r="CS10">
-        <f t="shared" ref="CS10:CS30" si="30">MAX(BS10:BT11)</f>
+      <c r="CR10">
+        <f>MAX(BS10:BT11)</f>
         <v>24.052210662836298</v>
       </c>
-      <c r="CU10">
-        <f t="shared" ref="CU10:CU30" si="31">MAX(BU10:BV11)</f>
+      <c r="CT10">
+        <f>MAX(BU10:BV11)</f>
         <v>41.011623258943658</v>
       </c>
-      <c r="CW10">
-        <f t="shared" ref="CW10:CW30" si="32">MAX(BW10:BX11)</f>
+      <c r="CV10">
+        <f>MAX(BW10:BX11)</f>
         <v>43.460275173406849</v>
       </c>
-      <c r="CY10">
-        <f t="shared" ref="CY10:CY30" si="33">MAX(BY10:BZ11)</f>
+      <c r="CX10">
+        <f>MAX(BY10:BZ11)</f>
         <v>42.8272010457367</v>
       </c>
-      <c r="DA10">
-        <f t="shared" ref="DA10:DA30" si="34">MAX(CA10:CB11)</f>
+      <c r="CZ10">
+        <f>MAX(CA10:CB11)</f>
         <v>37.666146465218347</v>
       </c>
-      <c r="DC10">
-        <f t="shared" ref="DC10:DC30" si="35">MAX(CC10:CD11)</f>
+      <c r="DB10">
+        <f>MAX(CC10:CD11)</f>
         <v>33.789886547688667</v>
       </c>
-      <c r="DE10">
-        <f t="shared" ref="DE10:DE30" si="36">MAX(CE10:CF11)</f>
+      <c r="DD10">
+        <f>MAX(CE10:CF11)</f>
         <v>15.317159339051518</v>
       </c>
-      <c r="DG10">
-        <f t="shared" ref="DG10:DG30" si="37">MAX(CG10:CH11)</f>
+      <c r="DF10">
+        <f>MAX(CG10:CH11)</f>
         <v>1.3405803352167778</v>
       </c>
-      <c r="DI10">
-        <f t="shared" ref="DI10:DI30" si="38">MAX(CI10:CJ11)</f>
+      <c r="DH10">
+        <f>MAX(CI10:CJ11)</f>
         <v>1.0476229924980119E-2</v>
       </c>
-      <c r="DK10">
-        <f t="shared" ref="DK10:DK30" si="39">MAX(CK10:CL11)</f>
-        <v>0</v>
+      <c r="DL10">
+        <v>0.139464355046518</v>
       </c>
       <c r="DN10">
-        <v>0.139464355046518</v>
+        <v>0.12699746332816886</v>
       </c>
       <c r="DP10">
-        <v>0.12699746332816886</v>
+        <v>0.42260498828798121</v>
       </c>
       <c r="DR10">
-        <v>0.42260498828798121</v>
+        <v>2.5264009475689853E-2</v>
       </c>
       <c r="DT10">
-        <v>2.5264009475689853E-2</v>
+        <v>0.56735826258301936</v>
       </c>
       <c r="DV10">
-        <v>0.56735826258301936</v>
+        <v>0.84123491672001682</v>
       </c>
       <c r="DX10">
-        <v>0.84123491672001682</v>
+        <v>0.85874614142893368</v>
       </c>
       <c r="DZ10">
-        <v>0.85874614142893368</v>
+        <v>0.91244625291710024</v>
       </c>
       <c r="EB10">
-        <v>0.91244625291710024</v>
+        <v>0.42972625482333338</v>
       </c>
       <c r="ED10">
-        <v>0.42972625482333338</v>
+        <v>0.80089327923354636</v>
       </c>
       <c r="EF10">
-        <v>0.80089327923354636</v>
+        <v>0.96636067826493977</v>
       </c>
       <c r="EH10">
-        <v>0.96636067826493977</v>
-      </c>
-      <c r="EJ10">
         <v>0.54400226051835654</v>
       </c>
-      <c r="EL10">
-        <v>0.29766403805957964</v>
-      </c>
     </row>
-    <row r="11" spans="1:146">
+    <row r="11" spans="1:143">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -24147,12 +23519,8 @@
         <f t="array" ref="CJ11">SUM(BE10:BG12*$BI$11:$BK$13)+SUM(BE39:BG41*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK11">
-        <f t="array" ref="CK11">SUM(BF10:BH12*$BI$11:$BK$13)+SUM(BF39:BH41*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:146">
+    <row r="12" spans="1:143">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -24455,103 +23823,92 @@
         <f t="array" ref="CJ12">SUM(BE11:BG13*$BI$11:$BK$13)+SUM(BE40:BG42*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK12">
-        <f t="array" ref="CK12">SUM(BF11:BH13*$BI$11:$BK$13)+SUM(BF40:BH42*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <f t="shared" ref="CM12:CM32" si="40">MAX(BM12:BN13)</f>
-        <v>0</v>
-      </c>
-      <c r="CO12">
-        <f t="shared" ref="CO12:CO32" si="41">MAX(BO12:BP13)</f>
+      <c r="CL12">
+        <f>MAX(BM12:BN13)</f>
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <f>MAX(BO12:BP13)</f>
         <v>0.61013243458235711</v>
       </c>
-      <c r="CQ12">
-        <f t="shared" ref="CQ12:CQ32" si="42">MAX(BQ12:BR13)</f>
+      <c r="CP12">
+        <f>MAX(BQ12:BR13)</f>
         <v>13.35615106453035</v>
       </c>
-      <c r="CS12">
-        <f t="shared" ref="CS12:CS32" si="43">MAX(BS12:BT13)</f>
+      <c r="CR12">
+        <f>MAX(BS12:BT13)</f>
         <v>34.353116740578635</v>
       </c>
-      <c r="CU12">
-        <f t="shared" ref="CU12:CU32" si="44">MAX(BU12:BV13)</f>
+      <c r="CT12">
+        <f>MAX(BU12:BV13)</f>
         <v>41.18844200959866</v>
       </c>
-      <c r="CW12">
-        <f t="shared" ref="CW12:CW32" si="45">MAX(BW12:BX13)</f>
+      <c r="CV12">
+        <f>MAX(BW12:BX13)</f>
         <v>38.935689614096425</v>
       </c>
-      <c r="CY12">
-        <f t="shared" ref="CY12:CY32" si="46">MAX(BY12:BZ13)</f>
+      <c r="CX12">
+        <f>MAX(BY12:BZ13)</f>
         <v>27.439690287370748</v>
       </c>
-      <c r="DA12">
-        <f t="shared" ref="DA12:DA32" si="47">MAX(CA12:CB13)</f>
+      <c r="CZ12">
+        <f>MAX(CA12:CB13)</f>
         <v>28.986650858682911</v>
       </c>
-      <c r="DC12">
-        <f t="shared" ref="DC12:DC32" si="48">MAX(CC12:CD13)</f>
+      <c r="DB12">
+        <f>MAX(CC12:CD13)</f>
         <v>34.694874696141568</v>
       </c>
-      <c r="DE12">
-        <f t="shared" ref="DE12:DE32" si="49">MAX(CE12:CF13)</f>
+      <c r="DD12">
+        <f>MAX(CE12:CF13)</f>
         <v>30.894441835461656</v>
       </c>
-      <c r="DG12">
-        <f t="shared" ref="DG12:DG32" si="50">MAX(CG12:CH13)</f>
+      <c r="DF12">
+        <f>MAX(CG12:CH13)</f>
         <v>9.2704133852269059</v>
       </c>
-      <c r="DI12">
-        <f t="shared" ref="DI12:DI32" si="51">MAX(CI12:CJ13)</f>
+      <c r="DH12">
+        <f>MAX(CI12:CJ13)</f>
         <v>0.31187956859301263</v>
       </c>
-      <c r="DK12">
-        <f t="shared" ref="DK12:DK32" si="52">MAX(CK12:CL13)</f>
-        <v>0</v>
+      <c r="DL12">
+        <v>0.15229903264255629</v>
       </c>
       <c r="DN12">
-        <v>0.15229903264255629</v>
+        <v>0.17719170156224151</v>
       </c>
       <c r="DP12">
-        <v>0.17719170156224151</v>
+        <v>0.59499980980331324</v>
       </c>
       <c r="DR12">
-        <v>0.59499980980331324</v>
+        <v>0.6284270651501902</v>
       </c>
       <c r="DT12">
-        <v>0.6284270651501902</v>
+        <v>0.18136714663712394</v>
       </c>
       <c r="DV12">
-        <v>0.18136714663712394</v>
+        <v>0.92500439891299213</v>
       </c>
       <c r="DX12">
-        <v>0.92500439891299213</v>
+        <v>0.43251299300644463</v>
       </c>
       <c r="DZ12">
-        <v>0.43251299300644463</v>
+        <v>0.89792363094693717</v>
       </c>
       <c r="EB12">
-        <v>0.89792363094693717</v>
+        <v>0.53203857945197075</v>
       </c>
       <c r="ED12">
-        <v>0.53203857945197075</v>
+        <v>0.40838869761899088</v>
       </c>
       <c r="EF12">
-        <v>0.40838869761899088</v>
+        <v>0.17042330582923526</v>
       </c>
       <c r="EH12">
-        <v>0.17042330582923526</v>
-      </c>
-      <c r="EJ12">
         <v>0.50442441083972633</v>
       </c>
-      <c r="EL12">
-        <v>0.11076347635583872</v>
-      </c>
     </row>
-    <row r="13" spans="1:146">
+    <row r="13" spans="1:143">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -24854,12 +24211,8 @@
         <f t="array" ref="CJ13">SUM(BE12:BG14*$BI$11:$BK$13)+SUM(BE41:BG43*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK13">
-        <f t="array" ref="CK13">SUM(BF12:BH14*$BI$11:$BK$13)+SUM(BF41:BH43*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:146">
+    <row r="14" spans="1:143">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -25144,103 +24497,92 @@
         <f t="array" ref="CJ14">SUM(BE13:BG15*$BI$11:$BK$13)+SUM(BE42:BG44*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK14">
-        <f t="array" ref="CK14">SUM(BF13:BH15*$BI$11:$BK$13)+SUM(BF42:BH44*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <f t="shared" ref="CM14:CM34" si="53">MAX(BM14:BN15)</f>
-        <v>0</v>
-      </c>
-      <c r="CO14">
-        <f t="shared" ref="CO14:CO34" si="54">MAX(BO14:BP15)</f>
+      <c r="CL14">
+        <f>MAX(BM14:BN15)</f>
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <f>MAX(BO14:BP15)</f>
         <v>1.325744740423155</v>
       </c>
-      <c r="CQ14">
-        <f t="shared" ref="CQ14:CQ34" si="55">MAX(BQ14:BR15)</f>
+      <c r="CP14">
+        <f>MAX(BQ14:BR15)</f>
         <v>17.584036330239105</v>
       </c>
-      <c r="CS14">
-        <f t="shared" ref="CS14:CS34" si="56">MAX(BS14:BT15)</f>
+      <c r="CR14">
+        <f>MAX(BS14:BT15)</f>
         <v>34.641511304325292</v>
       </c>
-      <c r="CU14">
-        <f t="shared" ref="CU14:CU34" si="57">MAX(BU14:BV15)</f>
+      <c r="CT14">
+        <f>MAX(BU14:BV15)</f>
         <v>34.828178660862463</v>
       </c>
-      <c r="CW14">
-        <f t="shared" ref="CW14:CW34" si="58">MAX(BW14:BX15)</f>
+      <c r="CV14">
+        <f>MAX(BW14:BX15)</f>
         <v>19.469942966941609</v>
       </c>
-      <c r="CY14">
-        <f t="shared" ref="CY14:CY34" si="59">MAX(BY14:BZ15)</f>
+      <c r="CX14">
+        <f>MAX(BY14:BZ15)</f>
         <v>6.6659920411909539</v>
       </c>
-      <c r="DA14">
-        <f t="shared" ref="DA14:DA34" si="60">MAX(CA14:CB15)</f>
+      <c r="CZ14">
+        <f>MAX(CA14:CB15)</f>
         <v>11.439836838059023</v>
       </c>
-      <c r="DC14">
-        <f t="shared" ref="DC14:DC34" si="61">MAX(CC14:CD15)</f>
+      <c r="DB14">
+        <f>MAX(CC14:CD15)</f>
         <v>33.42697707937559</v>
       </c>
-      <c r="DE14">
-        <f t="shared" ref="DE14:DE34" si="62">MAX(CE14:CF15)</f>
+      <c r="DD14">
+        <f>MAX(CE14:CF15)</f>
         <v>35.644752027634809</v>
       </c>
-      <c r="DG14">
-        <f t="shared" ref="DG14:DG34" si="63">MAX(CG14:CH15)</f>
+      <c r="DF14">
+        <f>MAX(CG14:CH15)</f>
         <v>18.848003520752805</v>
       </c>
-      <c r="DI14">
-        <f t="shared" ref="DI14:DI34" si="64">MAX(CI14:CJ15)</f>
+      <c r="DH14">
+        <f>MAX(CI14:CJ15)</f>
         <v>1.6023453289661833</v>
       </c>
-      <c r="DK14">
-        <f t="shared" ref="DK14:DK34" si="65">MAX(CK14:CL15)</f>
-        <v>0</v>
+      <c r="DL14">
+        <v>0.31364204434193366</v>
       </c>
       <c r="DN14">
-        <v>0.31364204434193366</v>
+        <v>0.48758625561082114</v>
       </c>
       <c r="DP14">
-        <v>0.48758625561082114</v>
+        <v>0.48403390080149733</v>
       </c>
       <c r="DR14">
-        <v>0.48403390080149733</v>
+        <v>4.2469134317829282E-2</v>
       </c>
       <c r="DT14">
-        <v>4.2469134317829282E-2</v>
+        <v>0.78157096054764186</v>
       </c>
       <c r="DV14">
-        <v>0.78157096054764186</v>
+        <v>2.9494715000552008E-2</v>
       </c>
       <c r="DX14">
-        <v>2.9494715000552008E-2</v>
+        <v>0.87997367590879638</v>
       </c>
       <c r="DZ14">
-        <v>0.87997367590879638</v>
+        <v>1.999225433781282E-2</v>
       </c>
       <c r="EB14">
-        <v>1.999225433781282E-2</v>
+        <v>0.7349233543740582</v>
       </c>
       <c r="ED14">
-        <v>0.7349233543740582</v>
+        <v>0.16320872417262078</v>
       </c>
       <c r="EF14">
-        <v>0.16320872417262078</v>
+        <v>0.18598334761672863</v>
       </c>
       <c r="EH14">
-        <v>0.18598334761672863</v>
-      </c>
-      <c r="EJ14">
         <v>0.17373455265365545</v>
       </c>
-      <c r="EL14">
-        <v>2.3605439822707686E-2</v>
-      </c>
     </row>
-    <row r="15" spans="1:146">
+    <row r="15" spans="1:143">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -25534,12 +24876,8 @@
         <f t="array" ref="CJ15">SUM(BE14:BG16*$BI$11:$BK$13)+SUM(BE43:BG45*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK15">
-        <f t="array" ref="CK15">SUM(BF14:BH16*$BI$11:$BK$13)+SUM(BF43:BH45*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:146">
+    <row r="16" spans="1:143">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -25833,103 +25171,92 @@
         <f t="array" ref="CJ16">SUM(BE15:BG17*$BI$11:$BK$13)+SUM(BE44:BG46*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK16">
-        <f t="array" ref="CK16">SUM(BF15:BH17*$BI$11:$BK$13)+SUM(BF44:BH46*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM16">
-        <f t="shared" ref="CM16:CM36" si="66">MAX(BM16:BN17)</f>
-        <v>0</v>
-      </c>
-      <c r="CO16">
-        <f t="shared" ref="CO16:CO36" si="67">MAX(BO16:BP17)</f>
+      <c r="CL16">
+        <f>MAX(BM16:BN17)</f>
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <f>MAX(BO16:BP17)</f>
         <v>3.4100746276877052</v>
       </c>
-      <c r="CQ16">
-        <f t="shared" ref="CQ16:CQ36" si="68">MAX(BQ16:BR17)</f>
+      <c r="CP16">
+        <f>MAX(BQ16:BR17)</f>
         <v>23.226960139506193</v>
       </c>
-      <c r="CS16">
-        <f t="shared" ref="CS16:CS36" si="69">MAX(BS16:BT17)</f>
+      <c r="CR16">
+        <f>MAX(BS16:BT17)</f>
         <v>29.414848169298629</v>
       </c>
-      <c r="CU16">
-        <f t="shared" ref="CU16:CU36" si="70">MAX(BU16:BV17)</f>
+      <c r="CT16">
+        <f>MAX(BU16:BV17)</f>
         <v>20.830072078949065</v>
       </c>
-      <c r="CW16">
-        <f t="shared" ref="CW16:CW36" si="71">MAX(BW16:BX17)</f>
+      <c r="CV16">
+        <f>MAX(BW16:BX17)</f>
         <v>3.6389393863064892</v>
       </c>
-      <c r="CY16">
-        <f t="shared" ref="CY16:CY36" si="72">MAX(BY16:BZ17)</f>
+      <c r="CX16">
+        <f>MAX(BY16:BZ17)</f>
         <v>2.231251297598372</v>
       </c>
-      <c r="DA16">
-        <f t="shared" ref="DA16:DA36" si="73">MAX(CA16:CB17)</f>
+      <c r="CZ16">
+        <f>MAX(CA16:CB17)</f>
         <v>13.340913212541521</v>
       </c>
-      <c r="DC16">
-        <f t="shared" ref="DC16:DC36" si="74">MAX(CC16:CD17)</f>
+      <c r="DB16">
+        <f>MAX(CC16:CD17)</f>
         <v>33.36628893880286</v>
       </c>
-      <c r="DE16">
-        <f t="shared" ref="DE16:DE36" si="75">MAX(CE16:CF17)</f>
+      <c r="DD16">
+        <f>MAX(CE16:CF17)</f>
         <v>36.047852954680579</v>
       </c>
-      <c r="DG16">
-        <f t="shared" ref="DG16:DG36" si="76">MAX(CG16:CH17)</f>
+      <c r="DF16">
+        <f>MAX(CG16:CH17)</f>
         <v>20.301741044363574</v>
       </c>
-      <c r="DI16">
-        <f t="shared" ref="DI16:DI36" si="77">MAX(CI16:CJ17)</f>
+      <c r="DH16">
+        <f>MAX(CI16:CJ17)</f>
         <v>2.2070717497114662</v>
       </c>
-      <c r="DK16">
-        <f t="shared" ref="DK16:DK36" si="78">MAX(CK16:CL17)</f>
-        <v>0</v>
+      <c r="DL16">
+        <v>0.32165237461251606</v>
       </c>
       <c r="DN16">
-        <v>0.32165237461251606</v>
+        <v>0.23775123496417172</v>
       </c>
       <c r="DP16">
-        <v>0.23775123496417172</v>
+        <v>3.2312378486417992E-2</v>
       </c>
       <c r="DR16">
-        <v>3.2312378486417992E-2</v>
+        <v>0.20400724732789843</v>
       </c>
       <c r="DT16">
-        <v>0.20400724732789843</v>
+        <v>0.93314300946162754</v>
       </c>
       <c r="DV16">
-        <v>0.93314300946162754</v>
+        <v>0.49693086419250898</v>
       </c>
       <c r="DX16">
-        <v>0.49693086419250898</v>
+        <v>1.0525356064842728E-2</v>
       </c>
       <c r="DZ16">
-        <v>1.0525356064842728E-2</v>
+        <v>0.96269744786976363</v>
       </c>
       <c r="EB16">
-        <v>0.96269744786976363</v>
+        <v>0.47286373540142357</v>
       </c>
       <c r="ED16">
-        <v>0.47286373540142357</v>
+        <v>0.39244621553859493</v>
       </c>
       <c r="EF16">
-        <v>0.39244621553859493</v>
+        <v>0.31131368342707411</v>
       </c>
       <c r="EH16">
-        <v>0.31131368342707411</v>
-      </c>
-      <c r="EJ16">
         <v>4.3058060217683214E-2</v>
       </c>
-      <c r="EL16">
-        <v>0.2545382137449389</v>
-      </c>
     </row>
-    <row r="17" spans="1:142">
+    <row r="17" spans="1:138">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -26223,12 +25550,8 @@
         <f t="array" ref="CJ17">SUM(BE16:BG18*$BI$11:$BK$13)+SUM(BE45:BG47*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK17">
-        <f t="array" ref="CK17">SUM(BF16:BH18*$BI$11:$BK$13)+SUM(BF45:BH47*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:142">
+    <row r="18" spans="1:138">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -26513,103 +25836,92 @@
         <f t="array" ref="CJ18">SUM(BE17:BG19*$BI$11:$BK$13)+SUM(BE46:BG48*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK18">
-        <f t="array" ref="CK18">SUM(BF17:BH19*$BI$11:$BK$13)+SUM(BF46:BH48*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM18">
-        <f t="shared" ref="CM18:CM38" si="79">MAX(BM18:BN19)</f>
-        <v>0</v>
-      </c>
-      <c r="CO18">
-        <f t="shared" ref="CO18:CO38" si="80">MAX(BO18:BP19)</f>
+      <c r="CL18">
+        <f>MAX(BM18:BN19)</f>
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <f>MAX(BO18:BP19)</f>
         <v>4.9672851593778091</v>
       </c>
-      <c r="CQ18">
-        <f t="shared" ref="CQ18:CQ38" si="81">MAX(BQ18:BR19)</f>
+      <c r="CP18">
+        <f>MAX(BQ18:BR19)</f>
         <v>28.236923769916643</v>
       </c>
-      <c r="CS18">
-        <f t="shared" ref="CS18:CS38" si="82">MAX(BS18:BT19)</f>
+      <c r="CR18">
+        <f>MAX(BS18:BT19)</f>
         <v>32.014054584791729</v>
       </c>
-      <c r="CU18">
-        <f t="shared" ref="CU18:CU38" si="83">MAX(BU18:BV19)</f>
+      <c r="CT18">
+        <f>MAX(BU18:BV19)</f>
         <v>17.039216902916845</v>
       </c>
-      <c r="CW18">
-        <f t="shared" ref="CW18:CW38" si="84">MAX(BW18:BX19)</f>
+      <c r="CV18">
+        <f>MAX(BW18:BX19)</f>
         <v>5.4688087537464787</v>
       </c>
-      <c r="CY18">
-        <f t="shared" ref="CY18:CY38" si="85">MAX(BY18:BZ19)</f>
+      <c r="CX18">
+        <f>MAX(BY18:BZ19)</f>
         <v>14.929590693743297</v>
       </c>
-      <c r="DA18">
-        <f t="shared" ref="DA18:DA38" si="86">MAX(CA18:CB19)</f>
+      <c r="CZ18">
+        <f>MAX(CA18:CB19)</f>
         <v>31.094010480355188</v>
       </c>
-      <c r="DC18">
-        <f t="shared" ref="DC18:DC38" si="87">MAX(CC18:CD19)</f>
+      <c r="DB18">
+        <f>MAX(CC18:CD19)</f>
         <v>37.107088960243082</v>
       </c>
-      <c r="DE18">
-        <f t="shared" ref="DE18:DE38" si="88">MAX(CE18:CF19)</f>
+      <c r="DD18">
+        <f>MAX(CE18:CF19)</f>
         <v>34.93652775977003</v>
       </c>
-      <c r="DG18">
-        <f t="shared" ref="DG18:DG38" si="89">MAX(CG18:CH19)</f>
+      <c r="DF18">
+        <f>MAX(CG18:CH19)</f>
         <v>15.309302964681649</v>
       </c>
-      <c r="DI18">
-        <f t="shared" ref="DI18:DI38" si="90">MAX(CI18:CJ19)</f>
+      <c r="DH18">
+        <f>MAX(CI18:CJ19)</f>
         <v>1.1710196988749579</v>
       </c>
-      <c r="DK18">
-        <f t="shared" ref="DK18:DK38" si="91">MAX(CK18:CL19)</f>
-        <v>0</v>
+      <c r="DL18">
+        <v>0.34682083128461438</v>
       </c>
       <c r="DN18">
-        <v>0.34682083128461438</v>
+        <v>0.30191584059428478</v>
       </c>
       <c r="DP18">
-        <v>0.30191584059428478</v>
+        <v>0.77582003973947178</v>
       </c>
       <c r="DR18">
-        <v>0.77582003973947178</v>
+        <v>0.69267713551838894</v>
       </c>
       <c r="DT18">
-        <v>0.69267713551838894</v>
+        <v>0.24353514248337527</v>
       </c>
       <c r="DV18">
-        <v>0.24353514248337527</v>
+        <v>0.48696779270157209</v>
       </c>
       <c r="DX18">
-        <v>0.48696779270157209</v>
+        <v>0.27810442540866642</v>
       </c>
       <c r="DZ18">
-        <v>0.27810442540866642</v>
+        <v>6.1622575686552938E-3</v>
       </c>
       <c r="EB18">
-        <v>6.1622575686552938E-3</v>
+        <v>0.57889949894462978</v>
       </c>
       <c r="ED18">
-        <v>0.57889949894462978</v>
+        <v>0.24173084835122194</v>
       </c>
       <c r="EF18">
-        <v>0.24173084835122194</v>
+        <v>0.9696367813694925</v>
       </c>
       <c r="EH18">
-        <v>0.9696367813694925</v>
-      </c>
-      <c r="EJ18">
         <v>0.93270517170972389</v>
       </c>
-      <c r="EL18">
-        <v>0.7853924012925958</v>
-      </c>
     </row>
-    <row r="19" spans="1:142">
+    <row r="19" spans="1:138">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -26894,12 +26206,8 @@
         <f t="array" ref="CJ19">SUM(BE18:BG20*$BI$11:$BK$13)+SUM(BE47:BG49*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK19">
-        <f t="array" ref="CK19">SUM(BF18:BH20*$BI$11:$BK$13)+SUM(BF47:BH49*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:142">
+    <row r="20" spans="1:138">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -27184,103 +26492,92 @@
         <f t="array" ref="CJ20">SUM(BE19:BG21*$BI$11:$BK$13)+SUM(BE48:BG50*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK20">
-        <f t="array" ref="CK20">SUM(BF19:BH21*$BI$11:$BK$13)+SUM(BF48:BH50*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM20">
-        <f t="shared" ref="CM20:CM40" si="92">MAX(BM20:BN21)</f>
-        <v>0</v>
-      </c>
-      <c r="CO20">
-        <f t="shared" ref="CO20:CO40" si="93">MAX(BO20:BP21)</f>
+      <c r="CL20">
+        <f>MAX(BM20:BN21)</f>
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <f>MAX(BO20:BP21)</f>
         <v>4.7052692558375195</v>
       </c>
-      <c r="CQ20">
-        <f t="shared" ref="CQ20:CQ40" si="94">MAX(BQ20:BR21)</f>
+      <c r="CP20">
+        <f>MAX(BQ20:BR21)</f>
         <v>28.099958429822323</v>
       </c>
-      <c r="CS20">
-        <f t="shared" ref="CS20:CS40" si="95">MAX(BS20:BT21)</f>
+      <c r="CR20">
+        <f>MAX(BS20:BT21)</f>
         <v>36.744958642100201</v>
       </c>
-      <c r="CU20">
-        <f t="shared" ref="CU20:CU40" si="96">MAX(BU20:BV21)</f>
+      <c r="CT20">
+        <f>MAX(BU20:BV21)</f>
         <v>30.663335398699584</v>
       </c>
-      <c r="CW20">
-        <f t="shared" ref="CW20:CW40" si="97">MAX(BW20:BX21)</f>
+      <c r="CV20">
+        <f>MAX(BW20:BX21)</f>
         <v>29.22659613490633</v>
       </c>
-      <c r="CY20">
-        <f t="shared" ref="CY20:CY40" si="98">MAX(BY20:BZ21)</f>
+      <c r="CX20">
+        <f>MAX(BY20:BZ21)</f>
         <v>36.47554459274042</v>
       </c>
-      <c r="DA20">
-        <f t="shared" ref="DA20:DA40" si="99">MAX(CA20:CB21)</f>
+      <c r="CZ20">
+        <f>MAX(CA20:CB21)</f>
         <v>41.228065339950319</v>
       </c>
-      <c r="DC20">
-        <f t="shared" ref="DC20:DC40" si="100">MAX(CC20:CD21)</f>
+      <c r="DB20">
+        <f>MAX(CC20:CD21)</f>
         <v>40.002270392453831</v>
       </c>
-      <c r="DE20">
-        <f t="shared" ref="DE20:DE40" si="101">MAX(CE20:CF21)</f>
+      <c r="DD20">
+        <f>MAX(CE20:CF21)</f>
         <v>25.101419867922047</v>
       </c>
-      <c r="DG20">
-        <f t="shared" ref="DG20:DG40" si="102">MAX(CG20:CH21)</f>
+      <c r="DF20">
+        <f>MAX(CG20:CH21)</f>
         <v>5.9994505854013003</v>
       </c>
-      <c r="DI20">
-        <f t="shared" ref="DI20:DI40" si="103">MAX(CI20:CJ21)</f>
+      <c r="DH20">
+        <f>MAX(CI20:CJ21)</f>
         <v>0.11071774402396983</v>
       </c>
-      <c r="DK20">
-        <f t="shared" ref="DK20:DK40" si="104">MAX(CK20:CL21)</f>
-        <v>0</v>
+      <c r="DL20">
+        <v>0.98073088343709425</v>
       </c>
       <c r="DN20">
-        <v>0.98073088343709425</v>
+        <v>0.32817347666986085</v>
       </c>
       <c r="DP20">
-        <v>0.32817347666986085</v>
+        <v>0.78804607988783526</v>
       </c>
       <c r="DR20">
-        <v>0.78804607988783526</v>
+        <v>0.75772396201334435</v>
       </c>
       <c r="DT20">
-        <v>0.75772396201334435</v>
+        <v>0.68449583019081073</v>
       </c>
       <c r="DV20">
-        <v>0.68449583019081073</v>
+        <v>0.72812810833585606</v>
       </c>
       <c r="DX20">
-        <v>0.72812810833585606</v>
+        <v>0.34702091986819572</v>
       </c>
       <c r="DZ20">
-        <v>0.34702091986819572</v>
+        <v>1.5960857384115346E-2</v>
       </c>
       <c r="EB20">
-        <v>1.5960857384115346E-2</v>
+        <v>0.89273517125771085</v>
       </c>
       <c r="ED20">
-        <v>0.89273517125771085</v>
+        <v>0.97872963873814678</v>
       </c>
       <c r="EF20">
-        <v>0.97872963873814678</v>
+        <v>0.45348830584485089</v>
       </c>
       <c r="EH20">
-        <v>0.45348830584485089</v>
-      </c>
-      <c r="EJ20">
         <v>0.66580334173803202</v>
       </c>
-      <c r="EL20">
-        <v>0.70137004323189511</v>
-      </c>
     </row>
-    <row r="21" spans="1:142">
+    <row r="21" spans="1:138">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -27565,12 +26862,8 @@
         <f t="array" ref="CJ21">SUM(BE20:BG22*$BI$11:$BK$13)+SUM(BE49:BG51*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK21">
-        <f t="array" ref="CK21">SUM(BF20:BH22*$BI$11:$BK$13)+SUM(BF49:BH51*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:142">
+    <row r="22" spans="1:138">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -27855,103 +27148,92 @@
         <f t="array" ref="CJ22">SUM(BE21:BG23*$BI$11:$BK$13)+SUM(BE50:BG52*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK22">
-        <f t="array" ref="CK22">SUM(BF21:BH23*$BI$11:$BK$13)+SUM(BF50:BH52*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM22">
-        <f t="shared" ref="CM22:CM42" si="105">MAX(BM22:BN23)</f>
-        <v>0</v>
-      </c>
-      <c r="CO22">
-        <f t="shared" ref="CO22:CO42" si="106">MAX(BO22:BP23)</f>
+      <c r="CL22">
+        <f>MAX(BM22:BN23)</f>
+        <v>0</v>
+      </c>
+      <c r="CN22">
+        <f>MAX(BO22:BP23)</f>
         <v>2.4351128861781692</v>
       </c>
-      <c r="CQ22">
-        <f t="shared" ref="CQ22:CQ42" si="107">MAX(BQ22:BR23)</f>
+      <c r="CP22">
+        <f>MAX(BQ22:BR23)</f>
         <v>20.690804395633492</v>
       </c>
-      <c r="CS22">
-        <f t="shared" ref="CS22:CS42" si="108">MAX(BS22:BT23)</f>
+      <c r="CR22">
+        <f>MAX(BS22:BT23)</f>
         <v>38.219845105624913</v>
       </c>
-      <c r="CU22">
-        <f t="shared" ref="CU22:CU42" si="109">MAX(BU22:BV23)</f>
+      <c r="CT22">
+        <f>MAX(BU22:BV23)</f>
         <v>41.935187792548192</v>
       </c>
-      <c r="CW22">
-        <f t="shared" ref="CW22:CW42" si="110">MAX(BW22:BX23)</f>
+      <c r="CV22">
+        <f>MAX(BW22:BX23)</f>
         <v>43.245511782567583</v>
       </c>
-      <c r="CY22">
-        <f t="shared" ref="CY22:CY42" si="111">MAX(BY22:BZ23)</f>
+      <c r="CX22">
+        <f>MAX(BY22:BZ23)</f>
         <v>42.175392291968748</v>
       </c>
-      <c r="DA22">
-        <f t="shared" ref="DA22:DA42" si="112">MAX(CA22:CB23)</f>
+      <c r="CZ22">
+        <f>MAX(CA22:CB23)</f>
         <v>39.857212883404848</v>
       </c>
-      <c r="DC22">
-        <f t="shared" ref="DC22:DC42" si="113">MAX(CC22:CD23)</f>
+      <c r="DB22">
+        <f>MAX(CC22:CD23)</f>
         <v>30.017860988822143</v>
       </c>
-      <c r="DE22">
-        <f t="shared" ref="DE22:DE42" si="114">MAX(CE22:CF23)</f>
+      <c r="DD22">
+        <f>MAX(CE22:CF23)</f>
         <v>11.662273543721646</v>
       </c>
-      <c r="DG22">
-        <f t="shared" ref="DG22:DG42" si="115">MAX(CG22:CH23)</f>
+      <c r="DF22">
+        <f>MAX(CG22:CH23)</f>
         <v>0.664306464143819</v>
       </c>
-      <c r="DI22">
-        <f t="shared" ref="DI22:DI42" si="116">MAX(CI22:CJ23)</f>
-        <v>0</v>
-      </c>
-      <c r="DK22">
-        <f t="shared" ref="DK22:DK42" si="117">MAX(CK22:CL23)</f>
-        <v>0</v>
+      <c r="DH22">
+        <f>MAX(CI22:CJ23)</f>
+        <v>0</v>
+      </c>
+      <c r="DL22">
+        <v>0.82236386600463529</v>
       </c>
       <c r="DN22">
-        <v>0.82236386600463529</v>
+        <v>0.82808274567796814</v>
       </c>
       <c r="DP22">
-        <v>0.82808274567796814</v>
+        <v>0.33123176625168782</v>
       </c>
       <c r="DR22">
-        <v>0.33123176625168782</v>
+        <v>0.1638637204597031</v>
       </c>
       <c r="DT22">
-        <v>0.1638637204597031</v>
+        <v>0.84047788438630566</v>
       </c>
       <c r="DV22">
-        <v>0.84047788438630566</v>
+        <v>0.90233157595058699</v>
       </c>
       <c r="DX22">
-        <v>0.90233157595058699</v>
+        <v>0.80749550438816686</v>
       </c>
       <c r="DZ22">
-        <v>0.80749550438816686</v>
+        <v>0.36826978602152061</v>
       </c>
       <c r="EB22">
-        <v>0.36826978602152061</v>
+        <v>0.73728392920762942</v>
       </c>
       <c r="ED22">
-        <v>0.73728392920762942</v>
+        <v>0.95064329121328295</v>
       </c>
       <c r="EF22">
-        <v>0.95064329121328295</v>
+        <v>0.40621297070634621</v>
       </c>
       <c r="EH22">
-        <v>0.40621297070634621</v>
-      </c>
-      <c r="EJ22">
         <v>0.25396415787032511</v>
       </c>
-      <c r="EL22">
-        <v>0.14069301372140253</v>
-      </c>
     </row>
-    <row r="23" spans="1:142">
+    <row r="23" spans="1:138">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -28236,12 +27518,8 @@
         <f t="array" ref="CJ23">SUM(BE22:BG24*$BI$11:$BK$13)+SUM(BE51:BG53*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK23">
-        <f t="array" ref="CK23">SUM(BF22:BH24*$BI$11:$BK$13)+SUM(BF51:BH53*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:142">
+    <row r="24" spans="1:138">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -28526,103 +27804,92 @@
         <f t="array" ref="CJ24">SUM(BE23:BG25*$BI$11:$BK$13)+SUM(BE52:BG54*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK24">
-        <f t="array" ref="CK24">SUM(BF23:BH25*$BI$11:$BK$13)+SUM(BF52:BH54*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM24">
-        <f t="shared" ref="CM24:CM44" si="118">MAX(BM24:BN25)</f>
-        <v>0</v>
-      </c>
-      <c r="CO24">
-        <f t="shared" ref="CO24:CO44" si="119">MAX(BO24:BP25)</f>
+      <c r="CL24">
+        <f>MAX(BM24:BN25)</f>
+        <v>0</v>
+      </c>
+      <c r="CN24">
+        <f>MAX(BO24:BP25)</f>
         <v>0.40499075752919328</v>
       </c>
-      <c r="CQ24">
-        <f t="shared" ref="CQ24:CQ44" si="120">MAX(BQ24:BR25)</f>
+      <c r="CP24">
+        <f>MAX(BQ24:BR25)</f>
         <v>7.1568555224608321</v>
       </c>
-      <c r="CS24">
-        <f t="shared" ref="CS24:CS44" si="121">MAX(BS24:BT25)</f>
+      <c r="CR24">
+        <f>MAX(BS24:BT25)</f>
         <v>23.30033780589434</v>
       </c>
-      <c r="CU24">
-        <f t="shared" ref="CU24:CU44" si="122">MAX(BU24:BV25)</f>
+      <c r="CT24">
+        <f>MAX(BU24:BV25)</f>
         <v>36.119058359964086</v>
       </c>
-      <c r="CW24">
-        <f t="shared" ref="CW24:CW44" si="123">MAX(BW24:BX25)</f>
+      <c r="CV24">
+        <f>MAX(BW24:BX25)</f>
         <v>38.254476998878914</v>
       </c>
-      <c r="CY24">
-        <f t="shared" ref="CY24:CY44" si="124">MAX(BY24:BZ25)</f>
+      <c r="CX24">
+        <f>MAX(BY24:BZ25)</f>
         <v>34.108481867989255</v>
       </c>
-      <c r="DA24">
-        <f t="shared" ref="DA24:DA44" si="125">MAX(CA24:CB25)</f>
+      <c r="CZ24">
+        <f>MAX(CA24:CB25)</f>
         <v>22.928541324882382</v>
       </c>
-      <c r="DC24">
-        <f t="shared" ref="DC24:DC44" si="126">MAX(CC24:CD25)</f>
+      <c r="DB24">
+        <f>MAX(CC24:CD25)</f>
         <v>9.4653837095956685</v>
       </c>
-      <c r="DE24">
-        <f t="shared" ref="DE24:DE44" si="127">MAX(CE24:CF25)</f>
+      <c r="DD24">
+        <f>MAX(CE24:CF25)</f>
         <v>1.8089565434980226</v>
       </c>
-      <c r="DG24">
-        <f t="shared" ref="DG24:DG44" si="128">MAX(CG24:CH25)</f>
-        <v>0</v>
-      </c>
-      <c r="DI24">
-        <f t="shared" ref="DI24:DI44" si="129">MAX(CI24:CJ25)</f>
-        <v>0</v>
-      </c>
-      <c r="DK24">
-        <f t="shared" ref="DK24:DK44" si="130">MAX(CK24:CL25)</f>
-        <v>0</v>
+      <c r="DF24">
+        <f>MAX(CG24:CH25)</f>
+        <v>0</v>
+      </c>
+      <c r="DH24">
+        <f>MAX(CI24:CJ25)</f>
+        <v>0</v>
+      </c>
+      <c r="DL24">
+        <v>0.95496272281351069</v>
       </c>
       <c r="DN24">
-        <v>0.95496272281351069</v>
+        <v>0.32233146151537484</v>
       </c>
       <c r="DP24">
-        <v>0.32233146151537484</v>
+        <v>0.16307642574796755</v>
       </c>
       <c r="DR24">
-        <v>0.16307642574796755</v>
+        <v>0.49446079040847624</v>
       </c>
       <c r="DT24">
-        <v>0.49446079040847624</v>
+        <v>7.6757388213135713E-2</v>
       </c>
       <c r="DV24">
-        <v>7.6757388213135713E-2</v>
+        <v>0.63281019498481517</v>
       </c>
       <c r="DX24">
-        <v>0.63281019498481517</v>
+        <v>0.56370277274367719</v>
       </c>
       <c r="DZ24">
-        <v>0.56370277274367719</v>
+        <v>0.36808471169648782</v>
       </c>
       <c r="EB24">
-        <v>0.36808471169648782</v>
+        <v>0.45406819419430133</v>
       </c>
       <c r="ED24">
-        <v>0.45406819419430133</v>
+        <v>0.1645299637414086</v>
       </c>
       <c r="EF24">
-        <v>0.1645299637414086</v>
+        <v>0.68701911360008505</v>
       </c>
       <c r="EH24">
-        <v>0.68701911360008505</v>
-      </c>
-      <c r="EJ24">
         <v>0.38469911663613543</v>
       </c>
-      <c r="EL24">
-        <v>0.27364551997092634</v>
-      </c>
     </row>
-    <row r="25" spans="1:142">
+    <row r="25" spans="1:138">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -28907,12 +28174,8 @@
         <f t="array" ref="CJ25">SUM(BE24:BG26*$BI$11:$BK$13)+SUM(BE53:BG55*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK25">
-        <f t="array" ref="CK25">SUM(BF24:BH26*$BI$11:$BK$13)+SUM(BF53:BH55*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:142">
+    <row r="26" spans="1:138">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -29197,103 +28460,92 @@
         <f t="array" ref="CJ26">SUM(BE25:BG27*$BI$11:$BK$13)+SUM(BE54:BG56*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK26">
-        <f t="array" ref="CK26">SUM(BF25:BH27*$BI$11:$BK$13)+SUM(BF54:BH56*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
-      <c r="CM26">
-        <f t="shared" ref="CM26:CM46" si="131">MAX(BM26:BN27)</f>
-        <v>0</v>
-      </c>
-      <c r="CO26">
-        <f t="shared" ref="CO26:CO46" si="132">MAX(BO26:BP27)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ26">
-        <f t="shared" ref="CQ26:CQ46" si="133">MAX(BQ26:BR27)</f>
+      <c r="CL26">
+        <f>MAX(BM26:BN27)</f>
+        <v>0</v>
+      </c>
+      <c r="CN26">
+        <f>MAX(BO26:BP27)</f>
+        <v>0</v>
+      </c>
+      <c r="CP26">
+        <f>MAX(BQ26:BR27)</f>
         <v>0.56121788914294735</v>
       </c>
-      <c r="CS26">
-        <f t="shared" ref="CS26:CS46" si="134">MAX(BS26:BT27)</f>
+      <c r="CR26">
+        <f>MAX(BS26:BT27)</f>
         <v>3.8434014808833039</v>
       </c>
-      <c r="CU26">
-        <f t="shared" ref="CU26:CU46" si="135">MAX(BU26:BV27)</f>
+      <c r="CT26">
+        <f>MAX(BU26:BV27)</f>
         <v>10.328755903385973</v>
       </c>
-      <c r="CW26">
-        <f t="shared" ref="CW26:CW46" si="136">MAX(BW26:BX27)</f>
+      <c r="CV26">
+        <f>MAX(BW26:BX27)</f>
         <v>12.437657281799705</v>
       </c>
-      <c r="CY26">
-        <f t="shared" ref="CY26:CY46" si="137">MAX(BY26:BZ27)</f>
+      <c r="CX26">
+        <f>MAX(BY26:BZ27)</f>
         <v>10.011892379695524</v>
       </c>
-      <c r="DA26">
-        <f t="shared" ref="DA26:DA46" si="138">MAX(CA26:CB27)</f>
+      <c r="CZ26">
+        <f>MAX(CA26:CB27)</f>
         <v>4.2607074054702228</v>
       </c>
-      <c r="DC26">
-        <f t="shared" ref="DC26:DC46" si="139">MAX(CC26:CD27)</f>
+      <c r="DB26">
+        <f>MAX(CC26:CD27)</f>
         <v>0.63849021542427198</v>
       </c>
-      <c r="DE26">
-        <f t="shared" ref="DE26:DE46" si="140">MAX(CE26:CF27)</f>
-        <v>0</v>
-      </c>
-      <c r="DG26">
-        <f t="shared" ref="DG26:DG46" si="141">MAX(CG26:CH27)</f>
-        <v>0</v>
-      </c>
-      <c r="DI26">
-        <f t="shared" ref="DI26:DI46" si="142">MAX(CI26:CJ27)</f>
-        <v>0</v>
-      </c>
-      <c r="DK26">
-        <f t="shared" ref="DK26:DK46" si="143">MAX(CK26:CL27)</f>
-        <v>0</v>
+      <c r="DD26">
+        <f>MAX(CE26:CF27)</f>
+        <v>0</v>
+      </c>
+      <c r="DF26">
+        <f>MAX(CG26:CH27)</f>
+        <v>0</v>
+      </c>
+      <c r="DH26">
+        <f>MAX(CI26:CJ27)</f>
+        <v>0</v>
+      </c>
+      <c r="DL26">
+        <v>0.77862672875862771</v>
       </c>
       <c r="DN26">
-        <v>0.77862672875862771</v>
+        <v>0.31516726971965592</v>
       </c>
       <c r="DP26">
-        <v>0.31516726971965592</v>
+        <v>0.97164919477768663</v>
       </c>
       <c r="DR26">
-        <v>0.97164919477768663</v>
+        <v>0.66325227229117822</v>
       </c>
       <c r="DT26">
-        <v>0.66325227229117822</v>
+        <v>0.60921366246287123</v>
       </c>
       <c r="DV26">
-        <v>0.60921366246287123</v>
+        <v>0.38562646242733833</v>
       </c>
       <c r="DX26">
-        <v>0.38562646242733833</v>
+        <v>9.7534208158065683E-2</v>
       </c>
       <c r="DZ26">
-        <v>9.7534208158065683E-2</v>
+        <v>1.0784944018047748E-2</v>
       </c>
       <c r="EB26">
-        <v>1.0784944018047748E-2</v>
+        <v>3.3840035885299713E-3</v>
       </c>
       <c r="ED26">
-        <v>3.3840035885299713E-3</v>
+        <v>0.19329762214993429</v>
       </c>
       <c r="EF26">
-        <v>0.19329762214993429</v>
+        <v>0.71837106749307067</v>
       </c>
       <c r="EH26">
-        <v>0.71837106749307067</v>
-      </c>
-      <c r="EJ26">
         <v>0.64915277430259266</v>
       </c>
-      <c r="EL26">
-        <v>0.41137274022015569</v>
-      </c>
     </row>
-    <row r="27" spans="1:142">
+    <row r="27" spans="1:138">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -29578,12 +28830,8 @@
         <f t="array" ref="CJ27">SUM(BE26:BG28*$BI$11:$BK$13)+SUM(BE55:BG57*$BI$15:$BK$17)</f>
         <v>0</v>
       </c>
-      <c r="CK27">
-        <f t="array" ref="CK27">SUM(BF26:BH28*$BI$11:$BK$13)+SUM(BF55:BH57*$BI$15:$BK$17)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:142">
+    <row r="28" spans="1:138">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -29773,7 +29021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:142">
+    <row r="29" spans="1:138">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -29859,7 +29107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:142">
+    <row r="30" spans="1:138">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -29889,7 +29137,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="32" spans="1:142">
+    <row r="32" spans="1:138">
       <c r="AH32">
         <f t="array" ref="AH32">SUM(A2:C4*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -29995,7 +29243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="30:142">
+    <row r="33" spans="30:138">
       <c r="AH33">
         <f t="array" ref="AH33">SUM(A3:C5*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -30196,103 +29444,92 @@
         <f t="array" ref="CJ33">SUM(BE3:BG5*$BI$38:$BK$40)+SUM(BE32:BG34*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK33">
-        <f t="array" ref="CK33">SUM(BF3:BH5*$BI$38:$BK$40)+SUM(BF32:BH34*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM33">
+      <c r="CL33">
         <f>MAX(BM33:BN34)</f>
         <v>0</v>
       </c>
-      <c r="CO33">
-        <f t="shared" ref="CO33" si="144">MAX(BO33:BP34)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ33">
-        <f t="shared" ref="CQ33" si="145">MAX(BQ33:BR34)</f>
-        <v>0</v>
-      </c>
-      <c r="CS33">
-        <f t="shared" ref="CS33" si="146">MAX(BS33:BT34)</f>
-        <v>0</v>
-      </c>
-      <c r="CU33">
-        <f t="shared" ref="CU33" si="147">MAX(BU33:BV34)</f>
+      <c r="CN33">
+        <f>MAX(BO33:BP34)</f>
+        <v>0</v>
+      </c>
+      <c r="CP33">
+        <f>MAX(BQ33:BR34)</f>
+        <v>0</v>
+      </c>
+      <c r="CR33">
+        <f>MAX(BS33:BT34)</f>
+        <v>0</v>
+      </c>
+      <c r="CT33">
+        <f>MAX(BU33:BV34)</f>
         <v>2.5946191057317631</v>
       </c>
-      <c r="CW33">
-        <f t="shared" ref="CW33" si="148">MAX(BW33:BX34)</f>
+      <c r="CV33">
+        <f>MAX(BW33:BX34)</f>
         <v>9.8427545112909023</v>
       </c>
-      <c r="CY33">
-        <f t="shared" ref="CY33" si="149">MAX(BY33:BZ34)</f>
+      <c r="CX33">
+        <f>MAX(BY33:BZ34)</f>
         <v>10.461412949965624</v>
       </c>
-      <c r="DA33">
-        <f t="shared" ref="DA33" si="150">MAX(CA33:CB34)</f>
+      <c r="CZ33">
+        <f>MAX(CA33:CB34)</f>
         <v>4.8916897169177798</v>
       </c>
-      <c r="DC33">
-        <f t="shared" ref="DC33" si="151">MAX(CC33:CD34)</f>
+      <c r="DB33">
+        <f>MAX(CC33:CD34)</f>
         <v>0.41853981437736842</v>
       </c>
-      <c r="DE33">
-        <f t="shared" ref="DE33" si="152">MAX(CE33:CF34)</f>
-        <v>0</v>
-      </c>
-      <c r="DG33">
-        <f t="shared" ref="DG33" si="153">MAX(CG33:CH34)</f>
-        <v>0</v>
-      </c>
-      <c r="DI33">
-        <f t="shared" ref="DI33" si="154">MAX(CI33:CJ34)</f>
-        <v>0</v>
-      </c>
-      <c r="DK33">
-        <f t="shared" ref="DK33" si="155">MAX(CK33:CL34)</f>
-        <v>0</v>
+      <c r="DD33">
+        <f>MAX(CE33:CF34)</f>
+        <v>0</v>
+      </c>
+      <c r="DF33">
+        <f>MAX(CG33:CH34)</f>
+        <v>0</v>
+      </c>
+      <c r="DH33">
+        <f>MAX(CI33:CJ34)</f>
+        <v>0</v>
+      </c>
+      <c r="DL33">
+        <v>1.128354151341493E-3</v>
       </c>
       <c r="DN33">
-        <v>1.128354151341493E-3</v>
+        <v>0.14928721786311461</v>
       </c>
       <c r="DP33">
-        <v>0.14928721786311461</v>
+        <v>1.3825442856979731E-2</v>
       </c>
       <c r="DR33">
-        <v>1.3825442856979731E-2</v>
+        <v>5.8093497817489403E-2</v>
       </c>
       <c r="DT33">
-        <v>5.8093497817489403E-2</v>
+        <v>0.89718728128492253</v>
       </c>
       <c r="DV33">
-        <v>0.89718728128492253</v>
+        <v>0.85179399127034738</v>
       </c>
       <c r="DX33">
-        <v>0.85179399127034738</v>
+        <v>0.76800018544429516</v>
       </c>
       <c r="DZ33">
-        <v>0.76800018544429516</v>
+        <v>0.41823803568144158</v>
       </c>
       <c r="EB33">
-        <v>0.41823803568144158</v>
+        <v>0.88744533915704116</v>
       </c>
       <c r="ED33">
-        <v>0.88744533915704116</v>
+        <v>0.77187331159452588</v>
       </c>
       <c r="EF33">
-        <v>0.77187331159452588</v>
+        <v>0.89002643799774583</v>
       </c>
       <c r="EH33">
-        <v>0.89002643799774583</v>
-      </c>
-      <c r="EJ33">
         <v>0.91325139153308965</v>
       </c>
-      <c r="EL33">
-        <v>0.12418678017957829</v>
-      </c>
     </row>
-    <row r="34" spans="30:142">
+    <row r="34" spans="30:138">
       <c r="AH34">
         <f t="array" ref="AH34">SUM(A4:C6*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -30493,12 +29730,8 @@
         <f t="array" ref="CJ34">SUM(BE4:BG6*$BI$38:$BK$40)+SUM(BE33:BG35*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK34">
-        <f t="array" ref="CK34">SUM(BF4:BH6*$BI$38:$BK$40)+SUM(BF33:BH35*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="30:142">
+    <row r="35" spans="30:138">
       <c r="AH35">
         <f t="array" ref="AH35">SUM(A5:C7*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -30699,103 +29932,92 @@
         <f t="array" ref="CJ35">SUM(BE5:BG7*$BI$38:$BK$40)+SUM(BE34:BG36*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK35">
-        <f t="array" ref="CK35">SUM(BF5:BH7*$BI$38:$BK$40)+SUM(BF34:BH36*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM35">
-        <f t="shared" ref="CM35" si="156">MAX(BM35:BN36)</f>
-        <v>0</v>
-      </c>
-      <c r="CO35">
-        <f t="shared" ref="CO35" si="157">MAX(BO35:BP36)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ35">
-        <f t="shared" ref="CQ35" si="158">MAX(BQ35:BR36)</f>
-        <v>0</v>
-      </c>
-      <c r="CS35">
-        <f t="shared" ref="CS35" si="159">MAX(BS35:BT36)</f>
+      <c r="CL35">
+        <f>MAX(BM35:BN36)</f>
+        <v>0</v>
+      </c>
+      <c r="CN35">
+        <f>MAX(BO35:BP36)</f>
+        <v>0</v>
+      </c>
+      <c r="CP35">
+        <f>MAX(BQ35:BR36)</f>
+        <v>0</v>
+      </c>
+      <c r="CR35">
+        <f>MAX(BS35:BT36)</f>
         <v>1.5966229320218295</v>
       </c>
-      <c r="CU35">
-        <f t="shared" ref="CU35" si="160">MAX(BU35:BV36)</f>
+      <c r="CT35">
+        <f>MAX(BU35:BV36)</f>
         <v>11.714671329499726</v>
       </c>
-      <c r="CW35">
-        <f t="shared" ref="CW35" si="161">MAX(BW35:BX36)</f>
+      <c r="CV35">
+        <f>MAX(BW35:BX36)</f>
         <v>30.272710513077268</v>
       </c>
-      <c r="CY35">
-        <f t="shared" ref="CY35" si="162">MAX(BY35:BZ36)</f>
+      <c r="CX35">
+        <f>MAX(BY35:BZ36)</f>
         <v>32.368606224494471</v>
       </c>
-      <c r="DA35">
-        <f t="shared" ref="DA35" si="163">MAX(CA35:CB36)</f>
+      <c r="CZ35">
+        <f>MAX(CA35:CB36)</f>
         <v>18.089163648378527</v>
       </c>
-      <c r="DC35">
-        <f t="shared" ref="DC35" si="164">MAX(CC35:CD36)</f>
+      <c r="DB35">
+        <f>MAX(CC35:CD36)</f>
         <v>2.7930050379141611</v>
       </c>
-      <c r="DE35">
-        <f t="shared" ref="DE35" si="165">MAX(CE35:CF36)</f>
+      <c r="DD35">
+        <f>MAX(CE35:CF36)</f>
         <v>0.14985318563368022</v>
       </c>
-      <c r="DG35">
-        <f t="shared" ref="DG35" si="166">MAX(CG35:CH36)</f>
-        <v>0</v>
-      </c>
-      <c r="DI35">
-        <f t="shared" ref="DI35" si="167">MAX(CI35:CJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="DK35">
-        <f t="shared" ref="DK35" si="168">MAX(CK35:CL36)</f>
-        <v>0</v>
+      <c r="DF35">
+        <f>MAX(CG35:CH36)</f>
+        <v>0</v>
+      </c>
+      <c r="DH35">
+        <f>MAX(CI35:CJ36)</f>
+        <v>0</v>
+      </c>
+      <c r="DL35">
+        <v>0.70324717564530892</v>
       </c>
       <c r="DN35">
-        <v>0.70324717564530892</v>
+        <v>0.37287938758036732</v>
       </c>
       <c r="DP35">
-        <v>0.37287938758036732</v>
+        <v>0.35764805886064388</v>
       </c>
       <c r="DR35">
-        <v>0.35764805886064388</v>
+        <v>0.9151391070648659</v>
       </c>
       <c r="DT35">
-        <v>0.9151391070648659</v>
+        <v>0.29370902799127396</v>
       </c>
       <c r="DV35">
-        <v>0.29370902799127396</v>
+        <v>0.40732465334168477</v>
       </c>
       <c r="DX35">
-        <v>0.40732465334168477</v>
+        <v>0.3279653165782056</v>
       </c>
       <c r="DZ35">
-        <v>0.3279653165782056</v>
+        <v>0.6799179965919474</v>
       </c>
       <c r="EB35">
-        <v>0.6799179965919474</v>
+        <v>6.6720132678095734E-2</v>
       </c>
       <c r="ED35">
-        <v>6.6720132678095734E-2</v>
+        <v>0.27986479565124645</v>
       </c>
       <c r="EF35">
-        <v>0.27986479565124645</v>
+        <v>0.63698684715931786</v>
       </c>
       <c r="EH35">
-        <v>0.63698684715931786</v>
-      </c>
-      <c r="EJ35">
         <v>0.43532400885457911</v>
       </c>
-      <c r="EL35">
-        <v>6.4584170053752499E-2</v>
-      </c>
     </row>
-    <row r="36" spans="30:142">
+    <row r="36" spans="30:138">
       <c r="AD36" s="3" t="s">
         <v>3</v>
       </c>
@@ -31002,12 +30224,8 @@
         <f t="array" ref="CJ36">SUM(BE6:BG8*$BI$38:$BK$40)+SUM(BE35:BG37*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK36">
-        <f t="array" ref="CK36">SUM(BF6:BH8*$BI$38:$BK$40)+SUM(BF35:BH37*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="30:142">
+    <row r="37" spans="30:138">
       <c r="AH37">
         <f t="array" ref="AH37">SUM(A7:C9*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -31208,103 +30426,92 @@
         <f t="array" ref="CJ37">SUM(BE7:BG9*$BI$38:$BK$40)+SUM(BE36:BG38*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK37">
-        <f t="array" ref="CK37">SUM(BF7:BH9*$BI$38:$BK$40)+SUM(BF36:BH38*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM37">
-        <f t="shared" ref="CM37" si="169">MAX(BM37:BN38)</f>
-        <v>0</v>
-      </c>
-      <c r="CO37">
-        <f t="shared" ref="CO37" si="170">MAX(BO37:BP38)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ37">
-        <f t="shared" ref="CQ37" si="171">MAX(BQ37:BR38)</f>
+      <c r="CL37">
+        <f>MAX(BM37:BN38)</f>
+        <v>0</v>
+      </c>
+      <c r="CN37">
+        <f>MAX(BO37:BP38)</f>
+        <v>0</v>
+      </c>
+      <c r="CP37">
+        <f>MAX(BQ37:BR38)</f>
         <v>0.95374930077007525</v>
       </c>
-      <c r="CS37">
-        <f t="shared" ref="CS37" si="172">MAX(BS37:BT38)</f>
+      <c r="CR37">
+        <f>MAX(BS37:BT38)</f>
         <v>10.853849379694024</v>
       </c>
-      <c r="CU37">
-        <f t="shared" ref="CU37" si="173">MAX(BU37:BV38)</f>
+      <c r="CT37">
+        <f>MAX(BU37:BV38)</f>
         <v>28.931128760342958</v>
       </c>
-      <c r="CW37">
-        <f t="shared" ref="CW37" si="174">MAX(BW37:BX38)</f>
+      <c r="CV37">
+        <f>MAX(BW37:BX38)</f>
         <v>42.16958255271863</v>
       </c>
-      <c r="CY37">
-        <f t="shared" ref="CY37" si="175">MAX(BY37:BZ38)</f>
+      <c r="CX37">
+        <f>MAX(BY37:BZ38)</f>
         <v>42.362753568862971</v>
       </c>
-      <c r="DA37">
-        <f t="shared" ref="DA37" si="176">MAX(CA37:CB38)</f>
+      <c r="CZ37">
+        <f>MAX(CA37:CB38)</f>
         <v>31.977334037884059</v>
       </c>
-      <c r="DC37">
-        <f t="shared" ref="DC37" si="177">MAX(CC37:CD38)</f>
+      <c r="DB37">
+        <f>MAX(CC37:CD38)</f>
         <v>15.03406913579397</v>
       </c>
-      <c r="DE37">
-        <f t="shared" ref="DE37" si="178">MAX(CE37:CF38)</f>
+      <c r="DD37">
+        <f>MAX(CE37:CF38)</f>
         <v>3.2480729912493747</v>
       </c>
-      <c r="DG37">
-        <f t="shared" ref="DG37" si="179">MAX(CG37:CH38)</f>
-        <v>0</v>
-      </c>
-      <c r="DI37">
-        <f t="shared" ref="DI37" si="180">MAX(CI37:CJ38)</f>
-        <v>0</v>
-      </c>
-      <c r="DK37">
-        <f t="shared" ref="DK37" si="181">MAX(CK37:CL38)</f>
-        <v>0</v>
+      <c r="DF37">
+        <f>MAX(CG37:CH38)</f>
+        <v>0</v>
+      </c>
+      <c r="DH37">
+        <f>MAX(CI37:CJ38)</f>
+        <v>0</v>
+      </c>
+      <c r="DL37">
+        <v>0.86026515025261874</v>
       </c>
       <c r="DN37">
-        <v>0.86026515025261874</v>
+        <v>0.95951819842605623</v>
       </c>
       <c r="DP37">
-        <v>0.95951819842605623</v>
+        <v>0.98993668103585819</v>
       </c>
       <c r="DR37">
-        <v>0.98993668103585819</v>
+        <v>0.23176888059634415</v>
       </c>
       <c r="DT37">
-        <v>0.23176888059634415</v>
+        <v>0.7385269012060155</v>
       </c>
       <c r="DV37">
-        <v>0.7385269012060155</v>
+        <v>0.20939559444157163</v>
       </c>
       <c r="DX37">
-        <v>0.20939559444157163</v>
+        <v>0.5694904702949839</v>
       </c>
       <c r="DZ37">
-        <v>0.5694904702949839</v>
+        <v>0.3025320057808748</v>
       </c>
       <c r="EB37">
-        <v>0.3025320057808748</v>
+        <v>0.24452641347158111</v>
       </c>
       <c r="ED37">
-        <v>0.24452641347158111</v>
+        <v>0.51992810809767553</v>
       </c>
       <c r="EF37">
-        <v>0.51992810809767553</v>
+        <v>0.8167600402540045</v>
       </c>
       <c r="EH37">
-        <v>0.8167600402540045</v>
-      </c>
-      <c r="EJ37">
         <v>5.5681037380499121E-2</v>
       </c>
-      <c r="EL37">
-        <v>0.9257179186330543</v>
-      </c>
     </row>
-    <row r="38" spans="30:142">
+    <row r="38" spans="30:138">
       <c r="AD38">
         <v>0.52650277421093949</v>
       </c>
@@ -31523,12 +30730,8 @@
         <f t="array" ref="CJ38">SUM(BE8:BG10*$BI$38:$BK$40)+SUM(BE37:BG39*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK38">
-        <f t="array" ref="CK38">SUM(BF8:BH10*$BI$38:$BK$40)+SUM(BF37:BH39*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="30:142">
+    <row r="39" spans="30:138">
       <c r="AD39">
         <v>0.67879194550467037</v>
       </c>
@@ -31747,103 +30950,92 @@
         <f t="array" ref="CJ39">SUM(BE9:BG11*$BI$38:$BK$40)+SUM(BE38:BG40*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK39">
-        <f t="array" ref="CK39">SUM(BF9:BH11*$BI$38:$BK$40)+SUM(BF38:BH40*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM39">
-        <f t="shared" ref="CM39" si="182">MAX(BM39:BN40)</f>
-        <v>0</v>
-      </c>
-      <c r="CO39">
-        <f t="shared" ref="CO39" si="183">MAX(BO39:BP40)</f>
+      <c r="CL39">
+        <f>MAX(BM39:BN40)</f>
+        <v>0</v>
+      </c>
+      <c r="CN39">
+        <f>MAX(BO39:BP40)</f>
         <v>0.16769218475078246</v>
       </c>
-      <c r="CQ39">
-        <f t="shared" ref="CQ39" si="184">MAX(BQ39:BR40)</f>
+      <c r="CP39">
+        <f>MAX(BQ39:BR40)</f>
         <v>6.5586976825665158</v>
       </c>
-      <c r="CS39">
-        <f t="shared" ref="CS39" si="185">MAX(BS39:BT40)</f>
+      <c r="CR39">
+        <f>MAX(BS39:BT40)</f>
         <v>25.846685663192396</v>
       </c>
-      <c r="CU39">
-        <f t="shared" ref="CU39" si="186">MAX(BU39:BV40)</f>
+      <c r="CT39">
+        <f>MAX(BU39:BV40)</f>
         <v>41.472137863153051</v>
       </c>
-      <c r="CW39">
-        <f t="shared" ref="CW39" si="187">MAX(BW39:BX40)</f>
+      <c r="CV39">
+        <f>MAX(BW39:BX40)</f>
         <v>43.206482191568497</v>
       </c>
-      <c r="CY39">
-        <f t="shared" ref="CY39" si="188">MAX(BY39:BZ40)</f>
+      <c r="CX39">
+        <f>MAX(BY39:BZ40)</f>
         <v>41.694501166138977</v>
       </c>
-      <c r="DA39">
-        <f t="shared" ref="DA39" si="189">MAX(CA39:CB40)</f>
+      <c r="CZ39">
+        <f>MAX(CA39:CB40)</f>
         <v>36.457130510619471</v>
       </c>
-      <c r="DC39">
-        <f t="shared" ref="DC39" si="190">MAX(CC39:CD40)</f>
+      <c r="DB39">
+        <f>MAX(CC39:CD40)</f>
         <v>31.962452203313916</v>
       </c>
-      <c r="DE39">
-        <f t="shared" ref="DE39" si="191">MAX(CE39:CF40)</f>
+      <c r="DD39">
+        <f>MAX(CE39:CF40)</f>
         <v>14.220807524962979</v>
       </c>
-      <c r="DG39">
-        <f t="shared" ref="DG39" si="192">MAX(CG39:CH40)</f>
+      <c r="DF39">
+        <f>MAX(CG39:CH40)</f>
         <v>1.4720807524049939</v>
       </c>
-      <c r="DI39">
-        <f t="shared" ref="DI39" si="193">MAX(CI39:CJ40)</f>
+      <c r="DH39">
+        <f>MAX(CI39:CJ40)</f>
         <v>1.208493432529679E-2</v>
       </c>
-      <c r="DK39">
-        <f t="shared" ref="DK39" si="194">MAX(CK39:CL40)</f>
-        <v>0</v>
+      <c r="DL39">
+        <v>0.26508193502739053</v>
       </c>
       <c r="DN39">
-        <v>0.26508193502739053</v>
+        <v>7.160292903639065E-2</v>
       </c>
       <c r="DP39">
-        <v>7.160292903639065E-2</v>
+        <v>0.50296713371873991</v>
       </c>
       <c r="DR39">
-        <v>0.50296713371873991</v>
+        <v>0.98792443866507451</v>
       </c>
       <c r="DT39">
-        <v>0.98792443866507451</v>
+        <v>0.11105024750618397</v>
       </c>
       <c r="DV39">
-        <v>0.11105024750618397</v>
+        <v>0.60125996950504279</v>
       </c>
       <c r="DX39">
-        <v>0.60125996950504279</v>
+        <v>0.376478510952448</v>
       </c>
       <c r="DZ39">
-        <v>0.376478510952448</v>
+        <v>2.2903487797969913E-2</v>
       </c>
       <c r="EB39">
-        <v>2.2903487797969913E-2</v>
+        <v>0.94586441063057425</v>
       </c>
       <c r="ED39">
-        <v>0.94586441063057425</v>
+        <v>0.70504758238269338</v>
       </c>
       <c r="EF39">
-        <v>0.70504758238269338</v>
+        <v>0.1000271238851641</v>
       </c>
       <c r="EH39">
-        <v>0.1000271238851641</v>
-      </c>
-      <c r="EJ39">
         <v>0.23085916443426491</v>
       </c>
-      <c r="EL39">
-        <v>0.39343496649046428</v>
-      </c>
     </row>
-    <row r="40" spans="30:142">
+    <row r="40" spans="30:138">
       <c r="AD40">
         <v>0.15683313231014728</v>
       </c>
@@ -32062,12 +31254,8 @@
         <f t="array" ref="CJ40">SUM(BE10:BG12*$BI$38:$BK$40)+SUM(BE39:BG41*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK40">
-        <f t="array" ref="CK40">SUM(BF10:BH12*$BI$38:$BK$40)+SUM(BF39:BH41*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="30:142">
+    <row r="41" spans="30:138">
       <c r="AH41">
         <f t="array" ref="AH41">SUM(A11:C13*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -32268,103 +31456,92 @@
         <f t="array" ref="CJ41">SUM(BE11:BG13*$BI$38:$BK$40)+SUM(BE40:BG42*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK41">
-        <f t="array" ref="CK41">SUM(BF11:BH13*$BI$38:$BK$40)+SUM(BF40:BH42*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM41">
-        <f t="shared" ref="CM41" si="195">MAX(BM41:BN42)</f>
-        <v>0</v>
-      </c>
-      <c r="CO41">
-        <f t="shared" ref="CO41" si="196">MAX(BO41:BP42)</f>
+      <c r="CL41">
+        <f>MAX(BM41:BN42)</f>
+        <v>0</v>
+      </c>
+      <c r="CN41">
+        <f>MAX(BO41:BP42)</f>
         <v>0.80679610375403721</v>
       </c>
-      <c r="CQ41">
-        <f t="shared" ref="CQ41" si="197">MAX(BQ41:BR42)</f>
+      <c r="CP41">
+        <f>MAX(BQ41:BR42)</f>
         <v>15.274217842113625</v>
       </c>
-      <c r="CS41">
-        <f t="shared" ref="CS41" si="198">MAX(BS41:BT42)</f>
+      <c r="CR41">
+        <f>MAX(BS41:BT42)</f>
         <v>35.187775114257789</v>
       </c>
-      <c r="CU41">
-        <f t="shared" ref="CU41" si="199">MAX(BU41:BV42)</f>
+      <c r="CT41">
+        <f>MAX(BU41:BV42)</f>
         <v>40.728805992855868</v>
       </c>
-      <c r="CW41">
-        <f t="shared" ref="CW41" si="200">MAX(BW41:BX42)</f>
+      <c r="CV41">
+        <f>MAX(BW41:BX42)</f>
         <v>37.272168571329459</v>
       </c>
-      <c r="CY41">
-        <f t="shared" ref="CY41" si="201">MAX(BY41:BZ42)</f>
+      <c r="CX41">
+        <f>MAX(BY41:BZ42)</f>
         <v>25.611392168645473</v>
       </c>
-      <c r="DA41">
-        <f t="shared" ref="DA41" si="202">MAX(CA41:CB42)</f>
+      <c r="CZ41">
+        <f>MAX(CA41:CB42)</f>
         <v>28.598828176733718</v>
       </c>
-      <c r="DC41">
-        <f t="shared" ref="DC41" si="203">MAX(CC41:CD42)</f>
+      <c r="DB41">
+        <f>MAX(CC41:CD42)</f>
         <v>33.335243933974155</v>
       </c>
-      <c r="DE41">
-        <f t="shared" ref="DE41" si="204">MAX(CE41:CF42)</f>
+      <c r="DD41">
+        <f>MAX(CE41:CF42)</f>
         <v>28.558596523877164</v>
       </c>
-      <c r="DG41">
-        <f t="shared" ref="DG41" si="205">MAX(CG41:CH42)</f>
+      <c r="DF41">
+        <f>MAX(CG41:CH42)</f>
         <v>8.7273014486538401</v>
       </c>
-      <c r="DI41">
-        <f t="shared" ref="DI41" si="206">MAX(CI41:CJ42)</f>
+      <c r="DH41">
+        <f>MAX(CI41:CJ42)</f>
         <v>0.30803390601036629</v>
       </c>
-      <c r="DK41">
-        <f t="shared" ref="DK41" si="207">MAX(CK41:CL42)</f>
-        <v>0</v>
+      <c r="DL41">
+        <v>0.765375405130307</v>
       </c>
       <c r="DN41">
-        <v>0.765375405130307</v>
+        <v>6.7913044281753265E-3</v>
       </c>
       <c r="DP41">
-        <v>6.7913044281753265E-3</v>
+        <v>0.27851867011925835</v>
       </c>
       <c r="DR41">
-        <v>0.27851867011925835</v>
+        <v>0.14272794016978196</v>
       </c>
       <c r="DT41">
-        <v>0.14272794016978196</v>
+        <v>0.98474942220312278</v>
       </c>
       <c r="DV41">
-        <v>0.98474942220312278</v>
+        <v>0.7745315869747792</v>
       </c>
       <c r="DX41">
-        <v>0.7745315869747792</v>
+        <v>0.61846063128547701</v>
       </c>
       <c r="DZ41">
-        <v>0.61846063128547701</v>
+        <v>0.11216165054088167</v>
       </c>
       <c r="EB41">
-        <v>0.11216165054088167</v>
+        <v>0.41302752638300555</v>
       </c>
       <c r="ED41">
-        <v>0.41302752638300555</v>
+        <v>0.49745554367929035</v>
       </c>
       <c r="EF41">
-        <v>0.49745554367929035</v>
+        <v>0.31270625604754709</v>
       </c>
       <c r="EH41">
-        <v>0.31270625604754709</v>
-      </c>
-      <c r="EJ41">
         <v>0.22865534185813852</v>
       </c>
-      <c r="EL41">
-        <v>2.7567833346226478E-2</v>
-      </c>
     </row>
-    <row r="42" spans="30:142">
+    <row r="42" spans="30:138">
       <c r="AH42">
         <f t="array" ref="AH42">SUM(A12:C14*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -32574,12 +31751,8 @@
         <f t="array" ref="CJ42">SUM(BE12:BG14*$BI$38:$BK$40)+SUM(BE41:BG43*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK42">
-        <f t="array" ref="CK42">SUM(BF12:BH14*$BI$38:$BK$40)+SUM(BF41:BH43*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="30:142">
+    <row r="43" spans="30:138">
       <c r="AH43">
         <f t="array" ref="AH43">SUM(A13:C15*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -32789,103 +31962,92 @@
         <f t="array" ref="CJ43">SUM(BE13:BG15*$BI$38:$BK$40)+SUM(BE42:BG44*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK43">
-        <f t="array" ref="CK43">SUM(BF13:BH15*$BI$38:$BK$40)+SUM(BF42:BH44*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM43">
-        <f t="shared" ref="CM43" si="208">MAX(BM43:BN44)</f>
-        <v>0</v>
-      </c>
-      <c r="CO43">
-        <f t="shared" ref="CO43" si="209">MAX(BO43:BP44)</f>
+      <c r="CL43">
+        <f>MAX(BM43:BN44)</f>
+        <v>0</v>
+      </c>
+      <c r="CN43">
+        <f>MAX(BO43:BP44)</f>
         <v>1.7288649849144622</v>
       </c>
-      <c r="CQ43">
-        <f t="shared" ref="CQ43" si="210">MAX(BQ43:BR44)</f>
+      <c r="CP43">
+        <f>MAX(BQ43:BR44)</f>
         <v>19.411203155907334</v>
       </c>
-      <c r="CS43">
-        <f t="shared" ref="CS43" si="211">MAX(BS43:BT44)</f>
+      <c r="CR43">
+        <f>MAX(BS43:BT44)</f>
         <v>34.516038902300743</v>
       </c>
-      <c r="CU43">
-        <f t="shared" ref="CU43" si="212">MAX(BU43:BV44)</f>
+      <c r="CT43">
+        <f>MAX(BU43:BV44)</f>
         <v>33.272374889889278</v>
       </c>
-      <c r="CW43">
-        <f t="shared" ref="CW43" si="213">MAX(BW43:BX44)</f>
+      <c r="CV43">
+        <f>MAX(BW43:BX44)</f>
         <v>17.06695955462029</v>
       </c>
-      <c r="CY43">
-        <f t="shared" ref="CY43" si="214">MAX(BY43:BZ44)</f>
+      <c r="CX43">
+        <f>MAX(BY43:BZ44)</f>
         <v>5.0734462849985995</v>
       </c>
-      <c r="DA43">
-        <f t="shared" ref="DA43" si="215">MAX(CA43:CB44)</f>
+      <c r="CZ43">
+        <f>MAX(CA43:CB44)</f>
         <v>12.926871705078426</v>
       </c>
-      <c r="DC43">
-        <f t="shared" ref="DC43" si="216">MAX(CC43:CD44)</f>
+      <c r="DB43">
+        <f>MAX(CC43:CD44)</f>
         <v>33.230168087788982</v>
       </c>
-      <c r="DE43">
-        <f t="shared" ref="DE43" si="217">MAX(CE43:CF44)</f>
+      <c r="DD43">
+        <f>MAX(CE43:CF44)</f>
         <v>33.840287155201914</v>
       </c>
-      <c r="DG43">
-        <f t="shared" ref="DG43" si="218">MAX(CG43:CH44)</f>
+      <c r="DF43">
+        <f>MAX(CG43:CH44)</f>
         <v>16.787407419724193</v>
       </c>
-      <c r="DI43">
-        <f t="shared" ref="DI43" si="219">MAX(CI43:CJ44)</f>
+      <c r="DH43">
+        <f>MAX(CI43:CJ44)</f>
         <v>1.4527390909220683</v>
       </c>
-      <c r="DK43">
-        <f t="shared" ref="DK43" si="220">MAX(CK43:CL44)</f>
-        <v>0</v>
+      <c r="DL43">
+        <v>0.50650739073488249</v>
       </c>
       <c r="DN43">
-        <v>0.50650739073488249</v>
+        <v>0.81279537985648775</v>
       </c>
       <c r="DP43">
-        <v>0.81279537985648775</v>
+        <v>0.52560989926891222</v>
       </c>
       <c r="DR43">
-        <v>0.52560989926891222</v>
+        <v>3.1009282058962473E-2</v>
       </c>
       <c r="DT43">
-        <v>3.1009282058962473E-2</v>
+        <v>0.24762234409150985</v>
       </c>
       <c r="DV43">
-        <v>0.24762234409150985</v>
+        <v>0.67204616452827348</v>
       </c>
       <c r="DX43">
-        <v>0.67204616452827348</v>
+        <v>0.61624402162631819</v>
       </c>
       <c r="DZ43">
-        <v>0.61624402162631819</v>
+        <v>0.71741822860458826</v>
       </c>
       <c r="EB43">
-        <v>0.71741822860458826</v>
+        <v>0.82326281733354689</v>
       </c>
       <c r="ED43">
-        <v>0.82326281733354689</v>
+        <v>3.0053395950482398E-2</v>
       </c>
       <c r="EF43">
-        <v>3.0053395950482398E-2</v>
+        <v>0.36161330892203525</v>
       </c>
       <c r="EH43">
-        <v>0.36161330892203525</v>
-      </c>
-      <c r="EJ43">
         <v>0.61498184250698229</v>
       </c>
-      <c r="EL43">
-        <v>0.60881116157338266</v>
-      </c>
     </row>
-    <row r="44" spans="30:142">
+    <row r="44" spans="30:138">
       <c r="AH44">
         <f t="array" ref="AH44">SUM(A14:C16*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -33095,12 +32257,8 @@
         <f t="array" ref="CJ44">SUM(BE14:BG16*$BI$38:$BK$40)+SUM(BE43:BG45*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK44">
-        <f t="array" ref="CK44">SUM(BF14:BH16*$BI$38:$BK$40)+SUM(BF43:BH45*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="30:142">
+    <row r="45" spans="30:138">
       <c r="AH45">
         <f t="array" ref="AH45">SUM(A15:C17*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -33301,103 +32459,92 @@
         <f t="array" ref="CJ45">SUM(BE15:BG17*$BI$38:$BK$40)+SUM(BE44:BG46*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK45">
-        <f t="array" ref="CK45">SUM(BF15:BH17*$BI$38:$BK$40)+SUM(BF44:BH46*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM45">
-        <f t="shared" ref="CM45" si="221">MAX(BM45:BN46)</f>
-        <v>0</v>
-      </c>
-      <c r="CO45">
-        <f t="shared" ref="CO45" si="222">MAX(BO45:BP46)</f>
+      <c r="CL45">
+        <f>MAX(BM45:BN46)</f>
+        <v>0</v>
+      </c>
+      <c r="CN45">
+        <f>MAX(BO45:BP46)</f>
         <v>4.5448816072648732</v>
       </c>
-      <c r="CQ45">
-        <f t="shared" ref="CQ45" si="223">MAX(BQ45:BR46)</f>
+      <c r="CP45">
+        <f>MAX(BQ45:BR46)</f>
         <v>24.868275124353637</v>
       </c>
-      <c r="CS45">
-        <f t="shared" ref="CS45" si="224">MAX(BS45:BT46)</f>
+      <c r="CR45">
+        <f>MAX(BS45:BT46)</f>
         <v>28.456202946343048</v>
       </c>
-      <c r="CU45">
-        <f t="shared" ref="CU45" si="225">MAX(BU45:BV46)</f>
+      <c r="CT45">
+        <f>MAX(BU45:BV46)</f>
         <v>18.367092245658309</v>
       </c>
-      <c r="CW45">
-        <f t="shared" ref="CW45" si="226">MAX(BW45:BX46)</f>
+      <c r="CV45">
+        <f>MAX(BW45:BX46)</f>
         <v>2.4634339267339329</v>
       </c>
-      <c r="CY45">
-        <f t="shared" ref="CY45" si="227">MAX(BY45:BZ46)</f>
+      <c r="CX45">
+        <f>MAX(BY45:BZ46)</f>
         <v>2.5164735835154186</v>
       </c>
-      <c r="DA45">
-        <f t="shared" ref="DA45" si="228">MAX(CA45:CB46)</f>
+      <c r="CZ45">
+        <f>MAX(CA45:CB46)</f>
         <v>15.270909510357713</v>
       </c>
-      <c r="DC45">
-        <f t="shared" ref="DC45" si="229">MAX(CC45:CD46)</f>
+      <c r="DB45">
+        <f>MAX(CC45:CD46)</f>
         <v>34.422106733507597</v>
       </c>
-      <c r="DE45">
-        <f t="shared" ref="DE45" si="230">MAX(CE45:CF46)</f>
+      <c r="DD45">
+        <f>MAX(CE45:CF46)</f>
         <v>34.784865645966185</v>
       </c>
-      <c r="DG45">
-        <f t="shared" ref="DG45" si="231">MAX(CG45:CH46)</f>
+      <c r="DF45">
+        <f>MAX(CG45:CH46)</f>
         <v>18.228689605047865</v>
       </c>
-      <c r="DI45">
-        <f t="shared" ref="DI45" si="232">MAX(CI45:CJ46)</f>
+      <c r="DH45">
+        <f>MAX(CI45:CJ46)</f>
         <v>1.9327013468827228</v>
       </c>
-      <c r="DK45">
-        <f t="shared" ref="DK45" si="233">MAX(CK45:CL46)</f>
-        <v>0</v>
+      <c r="DL45">
+        <v>0.95067552774089892</v>
       </c>
       <c r="DN45">
-        <v>0.95067552774089892</v>
+        <v>0.81609060866601468</v>
       </c>
       <c r="DP45">
-        <v>0.81609060866601468</v>
+        <v>0.62983613370886016</v>
       </c>
       <c r="DR45">
-        <v>0.62983613370886016</v>
+        <v>0.24683400229492869</v>
       </c>
       <c r="DT45">
-        <v>0.24683400229492869</v>
+        <v>0.98631416513884862</v>
       </c>
       <c r="DV45">
-        <v>0.98631416513884862</v>
+        <v>0.3524372813256802</v>
       </c>
       <c r="DX45">
-        <v>0.3524372813256802</v>
+        <v>0.97153960107621762</v>
       </c>
       <c r="DZ45">
-        <v>0.97153960107621762</v>
+        <v>0.99490026665824849</v>
       </c>
       <c r="EB45">
-        <v>0.99490026665824849</v>
+        <v>3.6715811184512281E-3</v>
       </c>
       <c r="ED45">
-        <v>3.6715811184512281E-3</v>
+        <v>0.20353961351428596</v>
       </c>
       <c r="EF45">
-        <v>0.20353961351428596</v>
+        <v>0.72125898805680633</v>
       </c>
       <c r="EH45">
-        <v>0.72125898805680633</v>
-      </c>
-      <c r="EJ45">
         <v>0.22348484303550786</v>
       </c>
-      <c r="EL45">
-        <v>0.86678537201906625</v>
-      </c>
     </row>
-    <row r="46" spans="30:142">
+    <row r="46" spans="30:138">
       <c r="AH46">
         <f t="array" ref="AH46">SUM(A16:C18*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -33598,12 +32745,8 @@
         <f t="array" ref="CJ46">SUM(BE16:BG18*$BI$38:$BK$40)+SUM(BE45:BG47*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK46">
-        <f t="array" ref="CK46">SUM(BF16:BH18*$BI$38:$BK$40)+SUM(BF45:BH47*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="30:142">
+    <row r="47" spans="30:138">
       <c r="AH47">
         <f t="array" ref="AH47">SUM(A17:C19*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -33804,103 +32947,92 @@
         <f t="array" ref="CJ47">SUM(BE17:BG19*$BI$38:$BK$40)+SUM(BE46:BG48*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK47">
-        <f t="array" ref="CK47">SUM(BF17:BH19*$BI$38:$BK$40)+SUM(BF46:BH48*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM47">
-        <f t="shared" ref="CM47" si="234">MAX(BM47:BN48)</f>
-        <v>0</v>
-      </c>
-      <c r="CO47">
-        <f t="shared" ref="CO47" si="235">MAX(BO47:BP48)</f>
+      <c r="CL47">
+        <f>MAX(BM47:BN48)</f>
+        <v>0</v>
+      </c>
+      <c r="CN47">
+        <f>MAX(BO47:BP48)</f>
         <v>6.8034646106821342</v>
       </c>
-      <c r="CQ47">
-        <f t="shared" ref="CQ47" si="236">MAX(BQ47:BR48)</f>
+      <c r="CP47">
+        <f>MAX(BQ47:BR48)</f>
         <v>29.672937897809483</v>
       </c>
-      <c r="CS47">
-        <f t="shared" ref="CS47" si="237">MAX(BS47:BT48)</f>
+      <c r="CR47">
+        <f>MAX(BS47:BT48)</f>
         <v>30.498214381427818</v>
       </c>
-      <c r="CU47">
-        <f t="shared" ref="CU47" si="238">MAX(BU47:BV48)</f>
+      <c r="CT47">
+        <f>MAX(BU47:BV48)</f>
         <v>15.20650338143985</v>
       </c>
-      <c r="CW47">
-        <f t="shared" ref="CW47" si="239">MAX(BW47:BX48)</f>
+      <c r="CV47">
+        <f>MAX(BW47:BX48)</f>
         <v>6.1897711861446831</v>
       </c>
-      <c r="CY47">
-        <f t="shared" ref="CY47" si="240">MAX(BY47:BZ48)</f>
+      <c r="CX47">
+        <f>MAX(BY47:BZ48)</f>
         <v>16.437084578790746</v>
       </c>
-      <c r="DA47">
-        <f t="shared" ref="DA47" si="241">MAX(CA47:CB48)</f>
+      <c r="CZ47">
+        <f>MAX(CA47:CB48)</f>
         <v>32.735472126073489</v>
       </c>
-      <c r="DC47">
-        <f t="shared" ref="DC47" si="242">MAX(CC47:CD48)</f>
+      <c r="DB47">
+        <f>MAX(CC47:CD48)</f>
         <v>37.285653246859972</v>
       </c>
-      <c r="DE47">
-        <f t="shared" ref="DE47" si="243">MAX(CE47:CF48)</f>
+      <c r="DD47">
+        <f>MAX(CE47:CF48)</f>
         <v>33.253502301505094</v>
       </c>
-      <c r="DG47">
-        <f t="shared" ref="DG47" si="244">MAX(CG47:CH48)</f>
+      <c r="DF47">
+        <f>MAX(CG47:CH48)</f>
         <v>13.105128056609399</v>
       </c>
-      <c r="DI47">
-        <f t="shared" ref="DI47" si="245">MAX(CI47:CJ48)</f>
+      <c r="DH47">
+        <f>MAX(CI47:CJ48)</f>
         <v>0.75044375045801459</v>
       </c>
-      <c r="DK47">
-        <f t="shared" ref="DK47" si="246">MAX(CK47:CL48)</f>
-        <v>0</v>
+      <c r="DL47">
+        <v>0.23119629182279788</v>
       </c>
       <c r="DN47">
-        <v>0.23119629182279788</v>
+        <v>0.39432103028789178</v>
       </c>
       <c r="DP47">
-        <v>0.39432103028789178</v>
+        <v>0.97817037734523682</v>
       </c>
       <c r="DR47">
-        <v>0.97817037734523682</v>
+        <v>0.91701295791408766</v>
       </c>
       <c r="DT47">
-        <v>0.91701295791408766</v>
+        <v>0.57085521296928221</v>
       </c>
       <c r="DV47">
-        <v>0.57085521296928221</v>
+        <v>0.97866763192477479</v>
       </c>
       <c r="DX47">
-        <v>0.97866763192477479</v>
+        <v>1.3060150590342934E-2</v>
       </c>
       <c r="DZ47">
-        <v>1.3060150590342934E-2</v>
+        <v>0.61154495250170027</v>
       </c>
       <c r="EB47">
-        <v>0.61154495250170027</v>
+        <v>0.24089192402435722</v>
       </c>
       <c r="ED47">
-        <v>0.24089192402435722</v>
+        <v>0.23608705521859685</v>
       </c>
       <c r="EF47">
-        <v>0.23608705521859685</v>
+        <v>0.82357341554894092</v>
       </c>
       <c r="EH47">
-        <v>0.82357341554894092</v>
-      </c>
-      <c r="EJ47">
         <v>0.57344604728700688</v>
       </c>
-      <c r="EL47">
-        <v>0.4757472817415962</v>
-      </c>
     </row>
-    <row r="48" spans="30:142">
+    <row r="48" spans="30:138">
       <c r="AH48">
         <f t="array" ref="AH48">SUM(A18:C20*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -34101,12 +33233,8 @@
         <f t="array" ref="CJ48">SUM(BE18:BG20*$BI$38:$BK$40)+SUM(BE47:BG49*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK48">
-        <f t="array" ref="CK48">SUM(BF18:BH20*$BI$38:$BK$40)+SUM(BF47:BH49*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="34:142">
+    <row r="49" spans="34:138">
       <c r="AH49">
         <f t="array" ref="AH49">SUM(A19:C21*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -34307,103 +33435,92 @@
         <f t="array" ref="CJ49">SUM(BE19:BG21*$BI$38:$BK$40)+SUM(BE48:BG50*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK49">
-        <f t="array" ref="CK49">SUM(BF19:BH21*$BI$38:$BK$40)+SUM(BF48:BH50*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM49">
-        <f t="shared" ref="CM49" si="247">MAX(BM49:BN50)</f>
-        <v>0</v>
-      </c>
-      <c r="CO49">
-        <f t="shared" ref="CO49" si="248">MAX(BO49:BP50)</f>
+      <c r="CL49">
+        <f>MAX(BM49:BN50)</f>
+        <v>0</v>
+      </c>
+      <c r="CN49">
+        <f>MAX(BO49:BP50)</f>
         <v>6.5439442025543615</v>
       </c>
-      <c r="CQ49">
-        <f t="shared" ref="CQ49" si="249">MAX(BQ49:BR50)</f>
+      <c r="CP49">
+        <f>MAX(BQ49:BR50)</f>
         <v>29.4411837310019</v>
       </c>
-      <c r="CS49">
-        <f t="shared" ref="CS49" si="250">MAX(BS49:BT50)</f>
+      <c r="CR49">
+        <f>MAX(BS49:BT50)</f>
         <v>34.995853339600188</v>
       </c>
-      <c r="CU49">
-        <f t="shared" ref="CU49" si="251">MAX(BU49:BV50)</f>
+      <c r="CT49">
+        <f>MAX(BU49:BV50)</f>
         <v>29.613352902685239</v>
       </c>
-      <c r="CW49">
-        <f t="shared" ref="CW49" si="252">MAX(BW49:BX50)</f>
+      <c r="CV49">
+        <f>MAX(BW49:BX50)</f>
         <v>30.621354356371949</v>
       </c>
-      <c r="CY49">
-        <f t="shared" ref="CY49" si="253">MAX(BY49:BZ50)</f>
+      <c r="CX49">
+        <f>MAX(BY49:BZ50)</f>
         <v>37.791385061547601</v>
       </c>
-      <c r="DA49">
-        <f t="shared" ref="DA49" si="254">MAX(CA49:CB50)</f>
+      <c r="CZ49">
+        <f>MAX(CA49:CB50)</f>
         <v>40.914281474900207</v>
       </c>
-      <c r="DC49">
-        <f t="shared" ref="DC49" si="255">MAX(CC49:CD50)</f>
+      <c r="DB49">
+        <f>MAX(CC49:CD50)</f>
         <v>39.204513222130345</v>
       </c>
-      <c r="DE49">
-        <f t="shared" ref="DE49" si="256">MAX(CE49:CF50)</f>
+      <c r="DD49">
+        <f>MAX(CE49:CF50)</f>
         <v>22.627350968315913</v>
       </c>
-      <c r="DG49">
-        <f t="shared" ref="DG49" si="257">MAX(CG49:CH50)</f>
+      <c r="DF49">
+        <f>MAX(CG49:CH50)</f>
         <v>4.5273144347643992</v>
       </c>
-      <c r="DI49">
-        <f t="shared" ref="DI49" si="258">MAX(CI49:CJ50)</f>
+      <c r="DH49">
+        <f>MAX(CI49:CJ50)</f>
         <v>5.1173839855154578E-2</v>
       </c>
-      <c r="DK49">
-        <f t="shared" ref="DK49" si="259">MAX(CK49:CL50)</f>
-        <v>0</v>
+      <c r="DL49">
+        <v>0.96111753282695178</v>
       </c>
       <c r="DN49">
-        <v>0.96111753282695178</v>
+        <v>0.43195566179276712</v>
       </c>
       <c r="DP49">
-        <v>0.43195566179276712</v>
+        <v>0.9543674134784953</v>
       </c>
       <c r="DR49">
-        <v>0.9543674134784953</v>
+        <v>0.89256518971538312</v>
       </c>
       <c r="DT49">
-        <v>0.89256518971538312</v>
+        <v>0.64664731216751969</v>
       </c>
       <c r="DV49">
-        <v>0.64664731216751969</v>
+        <v>0.22478272554312828</v>
       </c>
       <c r="DX49">
-        <v>0.22478272554312828</v>
+        <v>0.59944080645971076</v>
       </c>
       <c r="DZ49">
-        <v>0.59944080645971076</v>
+        <v>0.89769321294161508</v>
       </c>
       <c r="EB49">
-        <v>0.89769321294161508</v>
+        <v>0.78547871735431085</v>
       </c>
       <c r="ED49">
-        <v>0.78547871735431085</v>
+        <v>0.80910245030315231</v>
       </c>
       <c r="EF49">
-        <v>0.80910245030315231</v>
+        <v>0.69671600656332655</v>
       </c>
       <c r="EH49">
-        <v>0.69671600656332655</v>
-      </c>
-      <c r="EJ49">
         <v>0.47000067757653485</v>
       </c>
-      <c r="EL49">
-        <v>0.57301548705157823</v>
-      </c>
     </row>
-    <row r="50" spans="34:142">
+    <row r="50" spans="34:138">
       <c r="AH50">
         <f t="array" ref="AH50">SUM(A20:C22*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -34604,12 +33721,8 @@
         <f t="array" ref="CJ50">SUM(BE20:BG22*$BI$38:$BK$40)+SUM(BE49:BG51*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK50">
-        <f t="array" ref="CK50">SUM(BF20:BH22*$BI$38:$BK$40)+SUM(BF49:BH51*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="34:142">
+    <row r="51" spans="34:138">
       <c r="AH51">
         <f t="array" ref="AH51">SUM(A21:C23*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -34810,103 +33923,92 @@
         <f t="array" ref="CJ51">SUM(BE21:BG23*$BI$38:$BK$40)+SUM(BE50:BG52*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK51">
-        <f t="array" ref="CK51">SUM(BF21:BH23*$BI$38:$BK$40)+SUM(BF50:BH52*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM51">
-        <f t="shared" ref="CM51" si="260">MAX(BM51:BN52)</f>
-        <v>0</v>
-      </c>
-      <c r="CO51">
-        <f t="shared" ref="CO51" si="261">MAX(BO51:BP52)</f>
+      <c r="CL51">
+        <f>MAX(BM51:BN52)</f>
+        <v>0</v>
+      </c>
+      <c r="CN51">
+        <f>MAX(BO51:BP52)</f>
         <v>3.5037646352248792</v>
       </c>
-      <c r="CQ51">
-        <f t="shared" ref="CQ51" si="262">MAX(BQ51:BR52)</f>
+      <c r="CP51">
+        <f>MAX(BQ51:BR52)</f>
         <v>22.181820368001695</v>
       </c>
-      <c r="CS51">
-        <f t="shared" ref="CS51" si="263">MAX(BS51:BT52)</f>
+      <c r="CR51">
+        <f>MAX(BS51:BT52)</f>
         <v>37.120293681390528</v>
       </c>
-      <c r="CU51">
-        <f t="shared" ref="CU51" si="264">MAX(BU51:BV52)</f>
+      <c r="CT51">
+        <f>MAX(BU51:BV52)</f>
         <v>41.333706874617377</v>
       </c>
-      <c r="CW51">
-        <f t="shared" ref="CW51" si="265">MAX(BW51:BX52)</f>
+      <c r="CV51">
+        <f>MAX(BW51:BX52)</f>
         <v>42.767287295496736</v>
       </c>
-      <c r="CY51">
-        <f t="shared" ref="CY51" si="266">MAX(BY51:BZ52)</f>
+      <c r="CX51">
+        <f>MAX(BY51:BZ52)</f>
         <v>41.669066716354124</v>
       </c>
-      <c r="DA51">
-        <f t="shared" ref="DA51" si="267">MAX(CA51:CB52)</f>
+      <c r="CZ51">
+        <f>MAX(CA51:CB52)</f>
         <v>39.165806446320211</v>
       </c>
-      <c r="DC51">
-        <f t="shared" ref="DC51" si="268">MAX(CC51:CD52)</f>
+      <c r="DB51">
+        <f>MAX(CC51:CD52)</f>
         <v>27.514083898200667</v>
       </c>
-      <c r="DE51">
-        <f t="shared" ref="DE51" si="269">MAX(CE51:CF52)</f>
+      <c r="DD51">
+        <f>MAX(CE51:CF52)</f>
         <v>9.5105000060703357</v>
       </c>
-      <c r="DG51">
-        <f t="shared" ref="DG51" si="270">MAX(CG51:CH52)</f>
+      <c r="DF51">
+        <f>MAX(CG51:CH52)</f>
         <v>0.30704303913092751</v>
       </c>
-      <c r="DI51">
-        <f t="shared" ref="DI51" si="271">MAX(CI51:CJ52)</f>
-        <v>0</v>
-      </c>
-      <c r="DK51">
-        <f t="shared" ref="DK51" si="272">MAX(CK51:CL52)</f>
-        <v>0</v>
+      <c r="DH51">
+        <f>MAX(CI51:CJ52)</f>
+        <v>0</v>
+      </c>
+      <c r="DL51">
+        <v>0.45318144310652686</v>
       </c>
       <c r="DN51">
-        <v>0.45318144310652686</v>
+        <v>0.75497569468509551</v>
       </c>
       <c r="DP51">
-        <v>0.75497569468509551</v>
+        <v>0.6138557367035492</v>
       </c>
       <c r="DR51">
-        <v>0.6138557367035492</v>
+        <v>0.7187719286036085</v>
       </c>
       <c r="DT51">
-        <v>0.7187719286036085</v>
+        <v>0.39460123852144813</v>
       </c>
       <c r="DV51">
-        <v>0.39460123852144813</v>
+        <v>0.50638947631406417</v>
       </c>
       <c r="DX51">
-        <v>0.50638947631406417</v>
+        <v>0.33547637125151875</v>
       </c>
       <c r="DZ51">
-        <v>0.33547637125151875</v>
+        <v>0.65941495736426003</v>
       </c>
       <c r="EB51">
-        <v>0.65941495736426003</v>
+        <v>0.76194391583749477</v>
       </c>
       <c r="ED51">
-        <v>0.76194391583749477</v>
+        <v>0.15584722749730895</v>
       </c>
       <c r="EF51">
-        <v>0.15584722749730895</v>
+        <v>0.58548188763599118</v>
       </c>
       <c r="EH51">
-        <v>0.58548188763599118</v>
-      </c>
-      <c r="EJ51">
         <v>7.7413689172764144E-2</v>
       </c>
-      <c r="EL51">
-        <v>0.47084842990016917</v>
-      </c>
     </row>
-    <row r="52" spans="34:142">
+    <row r="52" spans="34:138">
       <c r="AH52">
         <f t="array" ref="AH52">SUM(A22:C24*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -35107,12 +34209,8 @@
         <f t="array" ref="CJ52">SUM(BE22:BG24*$BI$38:$BK$40)+SUM(BE51:BG53*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK52">
-        <f t="array" ref="CK52">SUM(BF22:BH24*$BI$38:$BK$40)+SUM(BF51:BH53*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="34:142">
+    <row r="53" spans="34:138">
       <c r="AH53">
         <f t="array" ref="AH53">SUM(A23:C25*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -35313,103 +34411,92 @@
         <f t="array" ref="CJ53">SUM(BE23:BG25*$BI$38:$BK$40)+SUM(BE52:BG54*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK53">
-        <f t="array" ref="CK53">SUM(BF23:BH25*$BI$38:$BK$40)+SUM(BF52:BH54*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM53">
-        <f t="shared" ref="CM53" si="273">MAX(BM53:BN54)</f>
-        <v>0</v>
-      </c>
-      <c r="CO53">
-        <f t="shared" ref="CO53" si="274">MAX(BO53:BP54)</f>
+      <c r="CL53">
+        <f>MAX(BM53:BN54)</f>
+        <v>0</v>
+      </c>
+      <c r="CN53">
+        <f>MAX(BO53:BP54)</f>
         <v>0.5912537114440567</v>
       </c>
-      <c r="CQ53">
-        <f t="shared" ref="CQ53" si="275">MAX(BQ53:BR54)</f>
+      <c r="CP53">
+        <f>MAX(BQ53:BR54)</f>
         <v>7.9983633373381373</v>
       </c>
-      <c r="CS53">
-        <f t="shared" ref="CS53" si="276">MAX(BS53:BT54)</f>
+      <c r="CR53">
+        <f>MAX(BS53:BT54)</f>
         <v>23.631089064115621</v>
       </c>
-      <c r="CU53">
-        <f t="shared" ref="CU53" si="277">MAX(BU53:BV54)</f>
+      <c r="CT53">
+        <f>MAX(BU53:BV54)</f>
         <v>35.262279412865119</v>
       </c>
-      <c r="CW53">
-        <f t="shared" ref="CW53" si="278">MAX(BW53:BX54)</f>
+      <c r="CV53">
+        <f>MAX(BW53:BX54)</f>
         <v>36.890336377215668</v>
       </c>
-      <c r="CY53">
-        <f t="shared" ref="CY53" si="279">MAX(BY53:BZ54)</f>
+      <c r="CX53">
+        <f>MAX(BY53:BZ54)</f>
         <v>32.415100904152531</v>
       </c>
-      <c r="DA53">
-        <f t="shared" ref="DA53" si="280">MAX(CA53:CB54)</f>
+      <c r="CZ53">
+        <f>MAX(CA53:CB54)</f>
         <v>20.642617347361572</v>
       </c>
-      <c r="DC53">
-        <f t="shared" ref="DC53" si="281">MAX(CC53:CD54)</f>
+      <c r="DB53">
+        <f>MAX(CC53:CD54)</f>
         <v>7.4486331294827473</v>
       </c>
-      <c r="DE53">
-        <f t="shared" ref="DE53" si="282">MAX(CE53:CF54)</f>
+      <c r="DD53">
+        <f>MAX(CE53:CF54)</f>
         <v>1.0748506465500234</v>
       </c>
-      <c r="DG53">
-        <f t="shared" ref="DG53" si="283">MAX(CG53:CH54)</f>
-        <v>0</v>
-      </c>
-      <c r="DI53">
-        <f t="shared" ref="DI53" si="284">MAX(CI53:CJ54)</f>
-        <v>0</v>
-      </c>
-      <c r="DK53">
-        <f t="shared" ref="DK53" si="285">MAX(CK53:CL54)</f>
-        <v>0</v>
+      <c r="DF53">
+        <f>MAX(CG53:CH54)</f>
+        <v>0</v>
+      </c>
+      <c r="DH53">
+        <f>MAX(CI53:CJ54)</f>
+        <v>0</v>
+      </c>
+      <c r="DL53">
+        <v>0.31619475956427956</v>
       </c>
       <c r="DN53">
-        <v>0.31619475956427956</v>
+        <v>0.21466890931588933</v>
       </c>
       <c r="DP53">
-        <v>0.21466890931588933</v>
+        <v>0.55765301823152302</v>
       </c>
       <c r="DR53">
-        <v>0.55765301823152302</v>
+        <v>0.97235693808314905</v>
       </c>
       <c r="DT53">
-        <v>0.97235693808314905</v>
+        <v>0.15338383393370059</v>
       </c>
       <c r="DV53">
-        <v>0.15338383393370059</v>
+        <v>0.34909107889705004</v>
       </c>
       <c r="DX53">
-        <v>0.34909107889705004</v>
+        <v>0.86693801437310081</v>
       </c>
       <c r="DZ53">
-        <v>0.86693801437310081</v>
+        <v>0.99585943769296226</v>
       </c>
       <c r="EB53">
-        <v>0.99585943769296226</v>
+        <v>0.23577480402097406</v>
       </c>
       <c r="ED53">
-        <v>0.23577480402097406</v>
+        <v>0.94335348038935085</v>
       </c>
       <c r="EF53">
-        <v>0.94335348038935085</v>
+        <v>0.96414270821830694</v>
       </c>
       <c r="EH53">
-        <v>0.96414270821830694</v>
-      </c>
-      <c r="EJ53">
         <v>0.37972480495552341</v>
       </c>
-      <c r="EL53">
-        <v>0.33449439821404614</v>
-      </c>
     </row>
-    <row r="54" spans="34:142">
+    <row r="54" spans="34:138">
       <c r="AH54">
         <f t="array" ref="AH54">SUM(A24:C26*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -35610,12 +34697,8 @@
         <f t="array" ref="CJ54">SUM(BE24:BG26*$BI$38:$BK$40)+SUM(BE53:BG55*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK54">
-        <f t="array" ref="CK54">SUM(BF24:BH26*$BI$38:$BK$40)+SUM(BF53:BH55*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="34:142">
+    <row r="55" spans="34:138">
       <c r="AH55">
         <f t="array" ref="AH55">SUM(A25:C27*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -35816,103 +34899,92 @@
         <f t="array" ref="CJ55">SUM(BE25:BG27*$BI$38:$BK$40)+SUM(BE54:BG56*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK55">
-        <f t="array" ref="CK55">SUM(BF25:BH27*$BI$38:$BK$40)+SUM(BF54:BH56*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
-      <c r="CM55">
-        <f t="shared" ref="CM55" si="286">MAX(BM55:BN56)</f>
-        <v>0</v>
-      </c>
-      <c r="CO55">
-        <f t="shared" ref="CO55" si="287">MAX(BO55:BP56)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ55">
-        <f t="shared" ref="CQ55" si="288">MAX(BQ55:BR56)</f>
+      <c r="CL55">
+        <f>MAX(BM55:BN56)</f>
+        <v>0</v>
+      </c>
+      <c r="CN55">
+        <f>MAX(BO55:BP56)</f>
+        <v>0</v>
+      </c>
+      <c r="CP55">
+        <f>MAX(BQ55:BR56)</f>
         <v>0.70224167315527652</v>
       </c>
-      <c r="CS55">
-        <f t="shared" ref="CS55" si="289">MAX(BS55:BT56)</f>
+      <c r="CR55">
+        <f>MAX(BS55:BT56)</f>
         <v>4.1364284903992008</v>
       </c>
-      <c r="CU55">
-        <f t="shared" ref="CU55" si="290">MAX(BU55:BV56)</f>
+      <c r="CT55">
+        <f>MAX(BU55:BV56)</f>
         <v>9.6552419010193287</v>
       </c>
-      <c r="CW55">
-        <f t="shared" ref="CW55" si="291">MAX(BW55:BX56)</f>
+      <c r="CV55">
+        <f>MAX(BW55:BX56)</f>
         <v>11.014767308974294</v>
       </c>
-      <c r="CY55">
-        <f t="shared" ref="CY55" si="292">MAX(BY55:BZ56)</f>
+      <c r="CX55">
+        <f>MAX(BY55:BZ56)</f>
         <v>8.1687167717369036</v>
       </c>
-      <c r="DA55">
-        <f t="shared" ref="DA55" si="293">MAX(CA55:CB56)</f>
+      <c r="CZ55">
+        <f>MAX(CA55:CB56)</f>
         <v>3.0875750515401039</v>
       </c>
-      <c r="DC55">
-        <f t="shared" ref="DC55" si="294">MAX(CC55:CD56)</f>
+      <c r="DB55">
+        <f>MAX(CC55:CD56)</f>
         <v>0.36543542987801214</v>
       </c>
-      <c r="DE55">
-        <f t="shared" ref="DE55" si="295">MAX(CE55:CF56)</f>
-        <v>0</v>
-      </c>
-      <c r="DG55">
-        <f t="shared" ref="DG55" si="296">MAX(CG55:CH56)</f>
-        <v>0</v>
-      </c>
-      <c r="DI55">
-        <f t="shared" ref="DI55" si="297">MAX(CI55:CJ56)</f>
-        <v>0</v>
-      </c>
-      <c r="DK55">
-        <f t="shared" ref="DK55" si="298">MAX(CK55:CL56)</f>
-        <v>0</v>
+      <c r="DD55">
+        <f>MAX(CE55:CF56)</f>
+        <v>0</v>
+      </c>
+      <c r="DF55">
+        <f>MAX(CG55:CH56)</f>
+        <v>0</v>
+      </c>
+      <c r="DH55">
+        <f>MAX(CI55:CJ56)</f>
+        <v>0</v>
+      </c>
+      <c r="DL55">
+        <v>0.90635295352609024</v>
       </c>
       <c r="DN55">
-        <v>0.90635295352609024</v>
+        <v>0.52326504879196001</v>
       </c>
       <c r="DP55">
-        <v>0.52326504879196001</v>
+        <v>0.71081254968662744</v>
       </c>
       <c r="DR55">
-        <v>0.71081254968662744</v>
+        <v>0.31386502263634153</v>
       </c>
       <c r="DT55">
-        <v>0.31386502263634153</v>
+        <v>0.69122785475977955</v>
       </c>
       <c r="DV55">
-        <v>0.69122785475977955</v>
+        <v>0.36025085501523402</v>
       </c>
       <c r="DX55">
-        <v>0.36025085501523402</v>
+        <v>0.4864273561912601</v>
       </c>
       <c r="DZ55">
-        <v>0.4864273561912601</v>
+        <v>0.2588136503216435</v>
       </c>
       <c r="EB55">
-        <v>0.2588136503216435</v>
+        <v>0.31217169269405687</v>
       </c>
       <c r="ED55">
-        <v>0.31217169269405687</v>
+        <v>0.93041638997182319</v>
       </c>
       <c r="EF55">
-        <v>0.93041638997182319</v>
+        <v>2.925286186074294E-2</v>
       </c>
       <c r="EH55">
-        <v>2.925286186074294E-2</v>
-      </c>
-      <c r="EJ55">
         <v>0.23087015583751236</v>
       </c>
-      <c r="EL55">
-        <v>0.86842391434777921</v>
-      </c>
     </row>
-    <row r="56" spans="34:142">
+    <row r="56" spans="34:138">
       <c r="AH56">
         <f t="array" ref="AH56">SUM(A26:C28*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -36113,12 +35185,8 @@
         <f t="array" ref="CJ56">SUM(BE26:BG28*$BI$38:$BK$40)+SUM(BE55:BG57*$BI$42:$BK$44)</f>
         <v>0</v>
       </c>
-      <c r="CK56">
-        <f t="array" ref="CK56">SUM(BF26:BH28*$BI$38:$BK$40)+SUM(BF55:BH57*$BI$42:$BK$44)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="34:142">
+    <row r="57" spans="34:138">
       <c r="AH57">
         <f t="array" ref="AH57">SUM(A27:C29*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -36255,8 +35323,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM33:CK56 BM4:CK27">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="BM33:CJ56 BM4:CJ27">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -36265,8 +35333,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM4:DK27">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="CL4:DI27">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -36275,8 +35343,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM33:DK55">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="CL33:DI55">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -36296,12 +35364,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" width="3.5" customWidth="1"/>
   </cols>
@@ -38726,14 +37794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" width="3.5" customWidth="1"/>
   </cols>
@@ -41157,14 +40225,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" width="3.5" customWidth="1"/>
   </cols>
@@ -43588,14 +42656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="29" width="3.5" customWidth="1"/>
   </cols>
